--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK43"/>
+  <dimension ref="A1:BK47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT3" t="n">
         <v>0.75</v>
@@ -1512,7 +1512,7 @@
         <v>0.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2.25</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT10" t="n">
         <v>1.75</v>
@@ -2730,7 +2730,7 @@
         <v>1.75</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.25</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU14" t="n">
         <v>0.3</v>
@@ -3542,7 +3542,7 @@
         <v>2.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU15" t="n">
         <v>1.61</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT17" t="n">
         <v>2.25</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>1.75</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>0.25</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>1.56</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU25" t="n">
         <v>0.91</v>
@@ -5775,7 +5775,7 @@
         <v>1.75</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>1.47</v>
@@ -5975,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT27" t="n">
         <v>0.5</v>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU28" t="n">
         <v>1.82</v>
@@ -6990,10 +6990,10 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -7193,7 +7193,7 @@
         <v>0.67</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
@@ -7602,7 +7602,7 @@
         <v>2.25</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>0.82</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT43" t="n">
         <v>1.5</v>
@@ -9278,6 +9278,818 @@
       </c>
       <c r="BK43" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5139528</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45038.08333333334</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['38', '53', '82']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>10</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5139529</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45038.1875</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>8</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>13</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5139530</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45038.1875</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['61', '90']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['14', '55']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>7</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>11</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5139531</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45038.29166666666</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['19', '60']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['57', '86']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6</v>
+      </c>
+      <c r="S47" t="n">
+        <v>11</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V47" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK47"/>
+  <dimension ref="A1:BK49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT5" t="n">
         <v>0.5</v>
@@ -1918,7 +1918,7 @@
         <v>2.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT13" t="n">
         <v>1.75</v>
@@ -4557,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU20" t="n">
         <v>1.91</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT22" t="n">
         <v>1.75</v>
@@ -5166,7 +5166,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU23" t="n">
         <v>1.42</v>
@@ -6178,7 +6178,7 @@
         <v>0.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT28" t="n">
         <v>0.5</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT30" t="n">
         <v>2.25</v>
@@ -6790,7 +6790,7 @@
         <v>0.25</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -8617,7 +8617,7 @@
         <v>2.25</v>
       </c>
       <c r="AT40" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU40" t="n">
         <v>1.41</v>
@@ -10090,6 +10090,412 @@
       </c>
       <c r="BK47" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5139532</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45039.08333333334</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>6</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V48" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5139533</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45039.1875</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['41', '90']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>6</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK49"/>
+  <dimension ref="A1:BK51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>1.75</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.25</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU14" t="n">
         <v>0.3</v>
@@ -3948,7 +3948,7 @@
         <v>2.25</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU17" t="n">
         <v>1.95</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT19" t="n">
         <v>1.75</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT20" t="n">
         <v>0.75</v>
@@ -5975,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT27" t="n">
         <v>0.5</v>
@@ -6587,7 +6587,7 @@
         <v>0.25</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU30" t="n">
         <v>1.82</v>
@@ -6993,7 +6993,7 @@
         <v>2.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -7396,7 +7396,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT34" t="n">
         <v>1.5</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT39" t="n">
         <v>1.75</v>
@@ -9023,7 +9023,7 @@
         <v>2.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU42" t="n">
         <v>1.51</v>
@@ -9429,7 +9429,7 @@
         <v>2.25</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU44" t="n">
         <v>1.59</v>
@@ -10035,7 +10035,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT47" t="n">
         <v>0.5</v>
@@ -10496,6 +10496,412 @@
       </c>
       <c r="BK49" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5139535</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45041.3125</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>7</v>
+      </c>
+      <c r="T50" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X50" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5139534</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45041.3125</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>8</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>13</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK51"/>
+  <dimension ref="A1:BK55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>2.2</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2527,7 +2527,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT11" t="n">
         <v>0.2</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT12" t="n">
         <v>2.4</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>0.2</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU16" t="n">
         <v>1.2</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT18" t="n">
         <v>1.5</v>
@@ -4354,7 +4354,7 @@
         <v>1.2</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
         <v>2.72</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -4963,7 +4963,7 @@
         <v>0.25</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU22" t="n">
         <v>2.03</v>
@@ -5369,7 +5369,7 @@
         <v>0.25</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU24" t="n">
         <v>1.56</v>
@@ -5772,7 +5772,7 @@
         <v>2</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT26" t="n">
         <v>2</v>
@@ -5978,7 +5978,7 @@
         <v>1.2</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU27" t="n">
         <v>2.23</v>
@@ -6178,7 +6178,7 @@
         <v>0.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT28" t="n">
         <v>0.5</v>
@@ -6384,7 +6384,7 @@
         <v>2.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU29" t="n">
         <v>1.53</v>
@@ -7196,7 +7196,7 @@
         <v>2.25</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU33" t="n">
         <v>1.41</v>
@@ -7599,10 +7599,10 @@
         <v>2</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU35" t="n">
         <v>0.82</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT36" t="n">
         <v>0.75</v>
@@ -8005,10 +8005,10 @@
         <v>0.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU37" t="n">
         <v>1.09</v>
@@ -8211,7 +8211,7 @@
         <v>0.25</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU38" t="n">
         <v>1.57</v>
@@ -8414,7 +8414,7 @@
         <v>2.2</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU39" t="n">
         <v>1.76</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
         <v>0.75</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT41" t="n">
         <v>0.75</v>
@@ -9632,7 +9632,7 @@
         <v>1.75</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU45" t="n">
         <v>1.34</v>
@@ -10238,7 +10238,7 @@
         <v>0.67</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT48" t="n">
         <v>0.75</v>
@@ -10902,6 +10902,818 @@
       </c>
       <c r="BK51" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5139536</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45042.29166666666</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>7</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>11</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5139537</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45042.29166666666</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="n">
+        <v>5</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['25', '46', '90+1']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['53', '69']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>7</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>12</v>
+      </c>
+      <c r="T53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5139538</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45042.3125</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['51', '74']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>6</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>9</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V54" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5139539</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45042.3125</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>6</v>
+      </c>
+      <c r="T55" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK55"/>
+  <dimension ref="A1:BK57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>2.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT11" t="n">
         <v>0.2</v>
@@ -3136,7 +3136,7 @@
         <v>1.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT14" t="n">
         <v>0.2</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT18" t="n">
         <v>1.5</v>
@@ -4557,7 +4557,7 @@
         <v>2.2</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU20" t="n">
         <v>1.91</v>
@@ -4963,7 +4963,7 @@
         <v>0.25</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU22" t="n">
         <v>2.03</v>
@@ -5772,7 +5772,7 @@
         <v>2</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT26" t="n">
         <v>2</v>
@@ -6384,7 +6384,7 @@
         <v>2.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU29" t="n">
         <v>1.53</v>
@@ -6790,7 +6790,7 @@
         <v>0.25</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -7599,7 +7599,7 @@
         <v>2</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT35" t="n">
         <v>1.4</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT36" t="n">
         <v>0.75</v>
@@ -8414,7 +8414,7 @@
         <v>2.2</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU39" t="n">
         <v>1.76</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT40" t="n">
         <v>0.75</v>
@@ -10241,7 +10241,7 @@
         <v>1.4</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU48" t="n">
         <v>1.9</v>
@@ -11256,7 +11256,7 @@
         <v>0.8</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU53" t="n">
         <v>1.13</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT54" t="n">
         <v>1.4</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT55" t="n">
         <v>0.6</v>
@@ -11714,6 +11714,412 @@
       </c>
       <c r="BK55" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5139540</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45045.08333333334</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['22', '51', '72']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>7</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5139541</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45045.1875</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>7</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>8</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK57"/>
+  <dimension ref="A1:BK61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT2" t="n">
         <v>0.75</v>
@@ -1106,7 +1106,7 @@
         <v>2.25</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1.2</v>
@@ -2527,7 +2527,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>2</v>
@@ -3745,7 +3745,7 @@
         <v>0.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>1.2</v>
@@ -4151,7 +4151,7 @@
         <v>1.17</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU18" t="n">
         <v>1.34</v>
@@ -4354,7 +4354,7 @@
         <v>1.2</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU19" t="n">
         <v>2.72</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT20" t="n">
         <v>1.2</v>
@@ -4760,7 +4760,7 @@
         <v>1.4</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU21" t="n">
         <v>1.25</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT24" t="n">
         <v>1.4</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT25" t="n">
         <v>0.5</v>
@@ -5978,7 +5978,7 @@
         <v>1.2</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>2.23</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT29" t="n">
         <v>1.67</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT31" t="n">
         <v>1.2</v>
@@ -6990,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT32" t="n">
         <v>0.2</v>
@@ -7196,7 +7196,7 @@
         <v>2.25</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>1.41</v>
@@ -7396,10 +7396,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU34" t="n">
         <v>1.91</v>
@@ -7805,7 +7805,7 @@
         <v>1.17</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU36" t="n">
         <v>1.35</v>
@@ -8008,7 +8008,7 @@
         <v>0.8</v>
       </c>
       <c r="AT37" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU37" t="n">
         <v>1.09</v>
@@ -8208,10 +8208,10 @@
         <v>1.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT38" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU38" t="n">
         <v>1.57</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT39" t="n">
         <v>1.67</v>
@@ -8820,7 +8820,7 @@
         <v>0.8</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU41" t="n">
         <v>1.19</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT42" t="n">
         <v>2.4</v>
@@ -9226,7 +9226,7 @@
         <v>1.75</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU43" t="n">
         <v>1.37</v>
@@ -9832,7 +9832,7 @@
         <v>2.33</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT46" t="n">
         <v>2</v>
@@ -10847,7 +10847,7 @@
         <v>0.25</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT51" t="n">
         <v>0.2</v>
@@ -11053,7 +11053,7 @@
         <v>1.4</v>
       </c>
       <c r="AT52" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU52" t="n">
         <v>1.88</v>
@@ -11662,7 +11662,7 @@
         <v>1.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.55</v>
@@ -12120,6 +12120,818 @@
       </c>
       <c r="BK57" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5139542</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45046.08333333334</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['21', '33', '79']</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>8</v>
+      </c>
+      <c r="R58" t="n">
+        <v>9</v>
+      </c>
+      <c r="S58" t="n">
+        <v>17</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V58" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5139543</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45046.125</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['56', '66']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7</v>
+      </c>
+      <c r="S59" t="n">
+        <v>11</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V59" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5139544</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45046.1875</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>7</v>
+      </c>
+      <c r="T60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5139545</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45046.29166666666</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['87', '90+1']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V61" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -12793,13 +12793,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S61" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T61" t="n">
         <v>2.15</v>
@@ -12916,22 +12916,22 @@
         <v>5</v>
       </c>
       <c r="BF61" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG61" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH61" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI61" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ61" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK61" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK61"/>
+  <dimension ref="A1:BK67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.6</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
         <v>1.2</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT5" t="n">
         <v>0.5</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT10" t="n">
         <v>2.17</v>
@@ -2730,7 +2730,7 @@
         <v>1.17</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0.8</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT13" t="n">
         <v>1.67</v>
@@ -3336,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU14" t="n">
         <v>0.3</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU15" t="n">
         <v>1.61</v>
@@ -3945,10 +3945,10 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU17" t="n">
         <v>1.95</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>2.17</v>
@@ -4557,7 +4557,7 @@
         <v>1.83</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>1.91</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT21" t="n">
         <v>1.2</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT22" t="n">
         <v>1.67</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU23" t="n">
         <v>1.42</v>
@@ -5369,7 +5369,7 @@
         <v>0.2</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>1.56</v>
@@ -5775,7 +5775,7 @@
         <v>1.17</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU26" t="n">
         <v>1.47</v>
@@ -5975,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6178,7 +6178,7 @@
         <v>0.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT28" t="n">
         <v>0.5</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU30" t="n">
         <v>1.82</v>
@@ -6790,7 +6790,7 @@
         <v>0.2</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -6993,7 +6993,7 @@
         <v>2.6</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -7193,7 +7193,7 @@
         <v>0.67</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7599,10 +7599,10 @@
         <v>2</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU35" t="n">
         <v>0.82</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU40" t="n">
         <v>1.41</v>
@@ -9023,7 +9023,7 @@
         <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.51</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT43" t="n">
         <v>1.2</v>
@@ -9426,10 +9426,10 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU44" t="n">
         <v>1.59</v>
@@ -9629,10 +9629,10 @@
         <v>1.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU45" t="n">
         <v>1.34</v>
@@ -9835,7 +9835,7 @@
         <v>2.6</v>
       </c>
       <c r="AT46" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU46" t="n">
         <v>1.37</v>
@@ -10035,7 +10035,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT47" t="n">
         <v>0.5</v>
@@ -10238,10 +10238,10 @@
         <v>0.67</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.9</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU49" t="n">
         <v>1.84</v>
@@ -10644,10 +10644,10 @@
         <v>2.25</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.83</v>
@@ -10850,7 +10850,7 @@
         <v>1.83</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU51" t="n">
         <v>1.7</v>
@@ -11050,7 +11050,7 @@
         <v>1.75</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT52" t="n">
         <v>2.17</v>
@@ -11459,7 +11459,7 @@
         <v>1.17</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU54" t="n">
         <v>1.31</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -11862,7 +11862,7 @@
         <v>1.4</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT56" t="n">
         <v>1.67</v>
@@ -12068,7 +12068,7 @@
         <v>1.17</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>1.37</v>
@@ -12932,6 +12932,1224 @@
       </c>
       <c r="BK61" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5139547</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45051.08333333334</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['12', '39', '41']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5139546</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45051.08333333334</v>
+      </c>
+      <c r="F63" t="n">
+        <v>11</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5139548</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45051.1875</v>
+      </c>
+      <c r="F64" t="n">
+        <v>11</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>14</v>
+      </c>
+      <c r="R64" t="n">
+        <v>6</v>
+      </c>
+      <c r="S64" t="n">
+        <v>20</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5139549</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45052.08333333334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['49', '56']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>6</v>
+      </c>
+      <c r="S65" t="n">
+        <v>10</v>
+      </c>
+      <c r="T65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5139550</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45052.1875</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['5', '89']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>8</v>
+      </c>
+      <c r="S66" t="n">
+        <v>11</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5139551</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45052.29166666666</v>
+      </c>
+      <c r="F67" t="n">
+        <v>11</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>6</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK67"/>
+  <dimension ref="A1:BK70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT2" t="n">
         <v>0.8</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT3" t="n">
         <v>1.2</v>
@@ -1309,7 +1309,7 @@
         <v>0.2</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.86</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT10" t="n">
         <v>2.17</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU15" t="n">
         <v>1.61</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT17" t="n">
         <v>2.5</v>
@@ -4151,7 +4151,7 @@
         <v>1.17</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>1.34</v>
@@ -4557,7 +4557,7 @@
         <v>1.83</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU20" t="n">
         <v>1.91</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT23" t="n">
         <v>0.8</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT25" t="n">
         <v>0.5</v>
@@ -5775,7 +5775,7 @@
         <v>1.17</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU26" t="n">
         <v>1.47</v>
@@ -6790,7 +6790,7 @@
         <v>0.2</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -6990,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT32" t="n">
         <v>0.67</v>
@@ -7193,7 +7193,7 @@
         <v>0.67</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7399,7 +7399,7 @@
         <v>1.83</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>1.91</v>
@@ -9223,10 +9223,10 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU43" t="n">
         <v>1.37</v>
@@ -9426,7 +9426,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT44" t="n">
         <v>0.67</v>
@@ -9629,7 +9629,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT45" t="n">
         <v>1.33</v>
@@ -9832,10 +9832,10 @@
         <v>2.33</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU46" t="n">
         <v>1.37</v>
@@ -10241,7 +10241,7 @@
         <v>1.33</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU48" t="n">
         <v>1.9</v>
@@ -12068,7 +12068,7 @@
         <v>1.17</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU57" t="n">
         <v>1.37</v>
@@ -12877,10 +12877,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU61" t="n">
         <v>1.43</v>
@@ -13080,7 +13080,7 @@
         <v>2.4</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT62" t="n">
         <v>2.5</v>
@@ -13283,7 +13283,7 @@
         <v>0.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT63" t="n">
         <v>0.8</v>
@@ -13692,7 +13692,7 @@
         <v>0.8</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU65" t="n">
         <v>1.82</v>
@@ -13895,7 +13895,7 @@
         <v>1.86</v>
       </c>
       <c r="AT66" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU66" t="n">
         <v>1.41</v>
@@ -14150,6 +14150,615 @@
       </c>
       <c r="BK67" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5139552</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45055.29166666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>12</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>7</v>
+      </c>
+      <c r="T68" t="n">
+        <v>2</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5139553</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45055.3125</v>
+      </c>
+      <c r="F69" t="n">
+        <v>12</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5139554</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45055.3125</v>
+      </c>
+      <c r="F70" t="n">
+        <v>12</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['10', '66', '87']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>6</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>7</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK70"/>
+  <dimension ref="A1:BK73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.67</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>2.17</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT7" t="n">
         <v>0.86</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT15" t="n">
         <v>1.5</v>
@@ -4760,7 +4760,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>1.25</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT22" t="n">
         <v>1.67</v>
@@ -5166,7 +5166,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU23" t="n">
         <v>1.42</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT24" t="n">
         <v>1.33</v>
@@ -5572,7 +5572,7 @@
         <v>2.67</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU25" t="n">
         <v>0.91</v>
@@ -6181,7 +6181,7 @@
         <v>1.33</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU28" t="n">
         <v>1.82</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT29" t="n">
         <v>1.67</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT30" t="n">
         <v>2.5</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT31" t="n">
         <v>0.86</v>
@@ -7805,7 +7805,7 @@
         <v>1.17</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>1.35</v>
@@ -8208,7 +8208,7 @@
         <v>1.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT38" t="n">
         <v>2.17</v>
@@ -8617,7 +8617,7 @@
         <v>1.86</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU40" t="n">
         <v>1.41</v>
@@ -8820,7 +8820,7 @@
         <v>0.8</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.19</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT42" t="n">
         <v>2.5</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU47" t="n">
         <v>1.86</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU49" t="n">
         <v>1.84</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT58" t="n">
         <v>2.17</v>
@@ -12474,7 +12474,7 @@
         <v>1.83</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>1.64</v>
@@ -12674,7 +12674,7 @@
         <v>0.6</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -13286,7 +13286,7 @@
         <v>2.17</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU63" t="n">
         <v>1.63</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT65" t="n">
         <v>1.5</v>
@@ -14343,13 +14343,13 @@
         <v>2</v>
       </c>
       <c r="BH68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI68" t="n">
         <v>4</v>
       </c>
       <c r="BJ68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK68" t="n">
         <v>6</v>
@@ -14759,6 +14759,615 @@
       </c>
       <c r="BK70" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5139555</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45056.3125</v>
+      </c>
+      <c r="F71" t="n">
+        <v>12</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['18', '90']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>8</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5139556</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45056.3125</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['1', '41', '66']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>8</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5139557</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45056.3125</v>
+      </c>
+      <c r="F73" t="n">
+        <v>12</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['16', '56']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>8</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK73"/>
+  <dimension ref="A1:BK76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.17</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT12" t="n">
         <v>2.5</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT13" t="n">
         <v>1.67</v>
@@ -3339,7 +3339,7 @@
         <v>1.86</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>0.3</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU16" t="n">
         <v>1.2</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>0.86</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>0.17</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU24" t="n">
         <v>1.56</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU27" t="n">
         <v>2.23</v>
@@ -6178,7 +6178,7 @@
         <v>0.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT28" t="n">
         <v>0.4</v>
@@ -6993,7 +6993,7 @@
         <v>2.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -7196,7 +7196,7 @@
         <v>2.17</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU33" t="n">
         <v>1.41</v>
@@ -7396,7 +7396,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>1.86</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU35" t="n">
         <v>0.82</v>
@@ -8005,7 +8005,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT37" t="n">
         <v>2.17</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
         <v>1.67</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9429,7 +9429,7 @@
         <v>2.17</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU44" t="n">
         <v>1.59</v>
@@ -9632,7 +9632,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU45" t="n">
         <v>1.34</v>
@@ -10238,7 +10238,7 @@
         <v>0.67</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT48" t="n">
         <v>0.86</v>
@@ -10847,10 +10847,10 @@
         <v>0.25</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.7</v>
@@ -11050,7 +11050,7 @@
         <v>1.75</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT52" t="n">
         <v>2.17</v>
@@ -11253,7 +11253,7 @@
         <v>1.75</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT53" t="n">
         <v>1.67</v>
@@ -11459,7 +11459,7 @@
         <v>1.17</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU54" t="n">
         <v>1.31</v>
@@ -11662,7 +11662,7 @@
         <v>1.86</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU55" t="n">
         <v>1.55</v>
@@ -12471,7 +12471,7 @@
         <v>0.75</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -12677,7 +12677,7 @@
         <v>0.17</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU64" t="n">
         <v>1.66</v>
@@ -14095,10 +14095,10 @@
         <v>1.4</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -15368,6 +15368,615 @@
       </c>
       <c r="BK73" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5139558</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45059.08333333334</v>
+      </c>
+      <c r="F74" t="n">
+        <v>13</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="n">
+        <v>5</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['52', '67', '90+2']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['54', '77']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>8</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>5</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5139559</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45059.1875</v>
+      </c>
+      <c r="F75" t="n">
+        <v>13</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['64', '78']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>8</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5139560</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45059.29166666666</v>
+      </c>
+      <c r="F76" t="n">
+        <v>13</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['34', '59']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>6</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V76" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK76"/>
+  <dimension ref="A1:BK79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT9" t="n">
         <v>1.5</v>
@@ -2527,7 +2527,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.14</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU19" t="n">
         <v>2.72</v>
@@ -4963,7 +4963,7 @@
         <v>1.17</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU22" t="n">
         <v>2.03</v>
@@ -5166,7 +5166,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU23" t="n">
         <v>1.42</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT25" t="n">
         <v>0.4</v>
@@ -6384,7 +6384,7 @@
         <v>2.17</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU29" t="n">
         <v>1.53</v>
@@ -6990,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>2</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT35" t="n">
         <v>1.14</v>
@@ -8008,7 +8008,7 @@
         <v>0.67</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU37" t="n">
         <v>1.09</v>
@@ -8211,7 +8211,7 @@
         <v>0.17</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU38" t="n">
         <v>1.57</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU39" t="n">
         <v>1.76</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU40" t="n">
         <v>1.41</v>
@@ -9832,7 +9832,7 @@
         <v>2.33</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT46" t="n">
         <v>1.5</v>
@@ -10444,7 +10444,7 @@
         <v>1.17</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU49" t="n">
         <v>1.84</v>
@@ -11053,7 +11053,7 @@
         <v>1.14</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU52" t="n">
         <v>1.88</v>
@@ -11256,7 +11256,7 @@
         <v>0.67</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU53" t="n">
         <v>1.13</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT55" t="n">
         <v>1.29</v>
@@ -11862,10 +11862,10 @@
         <v>1.4</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU56" t="n">
         <v>1.5</v>
@@ -12271,7 +12271,7 @@
         <v>2.17</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU58" t="n">
         <v>1.47</v>
@@ -12877,7 +12877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT61" t="n">
         <v>1</v>
@@ -13286,7 +13286,7 @@
         <v>2.17</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU63" t="n">
         <v>1.63</v>
@@ -13892,7 +13892,7 @@
         <v>1.2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT66" t="n">
         <v>0.86</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT68" t="n">
         <v>0.86</v>
@@ -15113,7 +15113,7 @@
         <v>0.17</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU72" t="n">
         <v>1.54</v>
@@ -15977,6 +15977,615 @@
       </c>
       <c r="BK76" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5139561</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45060.10416666666</v>
+      </c>
+      <c r="F77" t="n">
+        <v>13</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>3</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="n">
+        <v>5</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['15', '49', '68']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['46', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>6</v>
+      </c>
+      <c r="R77" t="n">
+        <v>7</v>
+      </c>
+      <c r="S77" t="n">
+        <v>13</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5139562</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45060.1875</v>
+      </c>
+      <c r="F78" t="n">
+        <v>13</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>9</v>
+      </c>
+      <c r="R78" t="n">
+        <v>8</v>
+      </c>
+      <c r="S78" t="n">
+        <v>17</v>
+      </c>
+      <c r="T78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5139563</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45060.29166666666</v>
+      </c>
+      <c r="F79" t="n">
+        <v>13</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['43', '69', '78', '84', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>8</v>
+      </c>
+      <c r="S79" t="n">
+        <v>12</v>
+      </c>
+      <c r="T79" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V79" t="n">
+        <v>3</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK79"/>
+  <dimension ref="A1:BK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>1.17</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT7" t="n">
         <v>0.86</v>
@@ -2324,7 +2324,7 @@
         <v>1.63</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU15" t="n">
         <v>1.61</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU16" t="n">
         <v>1.2</v>
@@ -3945,10 +3945,10 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU17" t="n">
         <v>1.95</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU19" t="n">
         <v>2.72</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT24" t="n">
         <v>1.14</v>
@@ -5572,7 +5572,7 @@
         <v>2.71</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU25" t="n">
         <v>0.91</v>
@@ -5772,10 +5772,10 @@
         <v>2</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU26" t="n">
         <v>1.47</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU27" t="n">
         <v>2.23</v>
@@ -6181,7 +6181,7 @@
         <v>1.14</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU28" t="n">
         <v>1.82</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT29" t="n">
         <v>1.43</v>
@@ -6587,7 +6587,7 @@
         <v>1.17</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU30" t="n">
         <v>1.82</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT31" t="n">
         <v>0.86</v>
@@ -7193,10 +7193,10 @@
         <v>0.67</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU33" t="n">
         <v>1.41</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8005,10 +8005,10 @@
         <v>0.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU37" t="n">
         <v>1.09</v>
@@ -8208,10 +8208,10 @@
         <v>1.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU38" t="n">
         <v>1.57</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9020,10 +9020,10 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU42" t="n">
         <v>1.51</v>
@@ -9426,7 +9426,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
         <v>1</v>
@@ -9835,7 +9835,7 @@
         <v>2.71</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU46" t="n">
         <v>1.37</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU47" t="n">
         <v>1.86</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU50" t="n">
         <v>1.83</v>
@@ -11053,7 +11053,7 @@
         <v>1.14</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU52" t="n">
         <v>1.88</v>
@@ -11253,7 +11253,7 @@
         <v>1.75</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT53" t="n">
         <v>1.43</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT54" t="n">
         <v>1.14</v>
@@ -11662,7 +11662,7 @@
         <v>1.63</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.55</v>
@@ -12065,7 +12065,7 @@
         <v>0.75</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT57" t="n">
         <v>0.86</v>
@@ -12268,10 +12268,10 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU58" t="n">
         <v>1.47</v>
@@ -12674,10 +12674,10 @@
         <v>0.6</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -13083,7 +13083,7 @@
         <v>1.33</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU62" t="n">
         <v>1.42</v>
@@ -13283,7 +13283,7 @@
         <v>0.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>1.14</v>
@@ -13692,7 +13692,7 @@
         <v>1.17</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU65" t="n">
         <v>1.82</v>
@@ -14504,7 +14504,7 @@
         <v>1.33</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU69" t="n">
         <v>1.42</v>
@@ -14704,7 +14704,7 @@
         <v>1.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -15110,7 +15110,7 @@
         <v>0.8</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT72" t="n">
         <v>1.14</v>
@@ -15313,10 +15313,10 @@
         <v>0.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU73" t="n">
         <v>1.42</v>
@@ -15722,7 +15722,7 @@
         <v>1.14</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU75" t="n">
         <v>1.94</v>
@@ -15922,7 +15922,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -16534,7 +16534,7 @@
         <v>1.63</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU79" t="n">
         <v>1.46</v>
@@ -16586,6 +16586,1224 @@
       </c>
       <c r="BK79" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5139564</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45066.1875</v>
+      </c>
+      <c r="F80" t="n">
+        <v>14</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>12</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>17</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5139565</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45066.25</v>
+      </c>
+      <c r="F81" t="n">
+        <v>14</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>7</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5139566</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45066.29166666666</v>
+      </c>
+      <c r="F82" t="n">
+        <v>14</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>10</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>11</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5139567</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45067.1875</v>
+      </c>
+      <c r="F83" t="n">
+        <v>14</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>6</v>
+      </c>
+      <c r="T83" t="n">
+        <v>4</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5139568</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45067.25</v>
+      </c>
+      <c r="F84" t="n">
+        <v>14</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="n">
+        <v>5</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['9', '62']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['6', '41', '86']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>11</v>
+      </c>
+      <c r="S84" t="n">
+        <v>11</v>
+      </c>
+      <c r="T84" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5139569</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45067.29166666666</v>
+      </c>
+      <c r="F85" t="n">
+        <v>14</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2</v>
+      </c>
+      <c r="L85" t="n">
+        <v>3</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>4</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['8', '54', '84']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>5</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -17665,13 +17665,13 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R85" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S85" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T85" t="n">
         <v>2.2</v>
@@ -17788,22 +17788,22 @@
         <v>3.34</v>
       </c>
       <c r="BF85" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG85" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH85" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI85" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ85" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BK85" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK85"/>
+  <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>0.14</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT5" t="n">
         <v>0.33</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT6" t="n">
         <v>1.5</v>
@@ -1918,7 +1918,7 @@
         <v>1.86</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT9" t="n">
         <v>1.43</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT10" t="n">
         <v>2.13</v>
@@ -2730,7 +2730,7 @@
         <v>1.43</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU14" t="n">
         <v>0.3</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT17" t="n">
         <v>2.57</v>
@@ -4151,7 +4151,7 @@
         <v>1.43</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU18" t="n">
         <v>1.34</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU20" t="n">
         <v>1.91</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT22" t="n">
         <v>1.43</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.42</v>
@@ -5369,7 +5369,7 @@
         <v>0.14</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU24" t="n">
         <v>1.56</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT25" t="n">
         <v>0.33</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT30" t="n">
         <v>2.57</v>
@@ -6790,7 +6790,7 @@
         <v>0.14</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -6990,10 +6990,10 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -7193,7 +7193,7 @@
         <v>0.67</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT33" t="n">
         <v>1.5</v>
@@ -7396,10 +7396,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU34" t="n">
         <v>1.91</v>
@@ -7599,10 +7599,10 @@
         <v>2</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU35" t="n">
         <v>0.82</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT39" t="n">
         <v>1.43</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>1.41</v>
@@ -9223,10 +9223,10 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU43" t="n">
         <v>1.37</v>
@@ -9426,10 +9426,10 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT44" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU44" t="n">
         <v>1.59</v>
@@ -9629,10 +9629,10 @@
         <v>1.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU45" t="n">
         <v>1.34</v>
@@ -9832,7 +9832,7 @@
         <v>2.33</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT46" t="n">
         <v>1.43</v>
@@ -10241,7 +10241,7 @@
         <v>1.14</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU48" t="n">
         <v>1.9</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.84</v>
@@ -10847,10 +10847,10 @@
         <v>0.25</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU51" t="n">
         <v>1.7</v>
@@ -11459,7 +11459,7 @@
         <v>1.43</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU54" t="n">
         <v>1.31</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT55" t="n">
         <v>1.5</v>
@@ -11862,7 +11862,7 @@
         <v>1.4</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT56" t="n">
         <v>1.43</v>
@@ -12068,7 +12068,7 @@
         <v>1.43</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU57" t="n">
         <v>1.37</v>
@@ -12471,7 +12471,7 @@
         <v>0.75</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -12877,10 +12877,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT61" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU61" t="n">
         <v>1.43</v>
@@ -13080,7 +13080,7 @@
         <v>2.4</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT62" t="n">
         <v>2.57</v>
@@ -13283,10 +13283,10 @@
         <v>0.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.63</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU64" t="n">
         <v>1.66</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT65" t="n">
         <v>1.43</v>
@@ -13892,10 +13892,10 @@
         <v>1.2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU66" t="n">
         <v>1.41</v>
@@ -14098,7 +14098,7 @@
         <v>1.14</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU68" t="n">
         <v>1.49</v>
@@ -14501,7 +14501,7 @@
         <v>1.6</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT69" t="n">
         <v>1.43</v>
@@ -14704,10 +14704,10 @@
         <v>1.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT70" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU70" t="n">
         <v>1.64</v>
@@ -14907,7 +14907,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT71" t="n">
         <v>1</v>
@@ -15113,7 +15113,7 @@
         <v>0.14</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>1.54</v>
@@ -15516,10 +15516,10 @@
         <v>1.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU74" t="n">
         <v>1.51</v>
@@ -15925,7 +15925,7 @@
         <v>0.71</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU76" t="n">
         <v>1.17</v>
@@ -16125,7 +16125,7 @@
         <v>1.67</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT77" t="n">
         <v>1.43</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.73</v>
@@ -16531,7 +16531,7 @@
         <v>2.17</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT79" t="n">
         <v>2.13</v>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU80" t="n">
         <v>1.71</v>
@@ -16937,7 +16937,7 @@
         <v>2.29</v>
       </c>
       <c r="AS81" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT81" t="n">
         <v>2.13</v>
@@ -17803,6 +17803,1224 @@
         <v>16</v>
       </c>
       <c r="BK85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5139570</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45073.1875</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>3</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['21', '84']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>10</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5139571</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45073.29166666666</v>
+      </c>
+      <c r="F87" t="n">
+        <v>15</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="n">
+        <v>4</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['51', '56']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['31', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>7</v>
+      </c>
+      <c r="S87" t="n">
+        <v>12</v>
+      </c>
+      <c r="T87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5139572</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45074.1875</v>
+      </c>
+      <c r="F88" t="n">
+        <v>15</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>8</v>
+      </c>
+      <c r="S88" t="n">
+        <v>12</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>5</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5139574</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45074.25</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['76', '84']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>6</v>
+      </c>
+      <c r="S89" t="n">
+        <v>6</v>
+      </c>
+      <c r="T89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5139575</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45074.29166666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>15</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3</v>
+      </c>
+      <c r="K90" t="n">
+        <v>4</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="n">
+        <v>6</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['21', '78', '89']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['25', '33', '43']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>12</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>14</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5139573</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45075.1875</v>
+      </c>
+      <c r="F91" t="n">
+        <v>15</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>9</v>
+      </c>
+      <c r="T91" t="n">
+        <v>3</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK91" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,27 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['84', '90+4']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['46', '52']</t>
+  </si>
+  <si>
+    <t>['26', '56', '65', '82']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['20', '90+2']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -454,9 +475,6 @@
     <t>['33']</t>
   </si>
   <si>
-    <t>['60']</t>
-  </si>
-  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -541,9 +559,6 @@
     <t>['54']</t>
   </si>
   <si>
-    <t>['82']</t>
-  </si>
-  <si>
     <t>['12', '39', '41']</t>
   </si>
   <si>
@@ -596,6 +611,24 @@
   </si>
   <si>
     <t>['25', '33', '43']</t>
+  </si>
+  <si>
+    <t>['44', '67']</t>
+  </si>
+  <si>
+    <t>['39', '80']</t>
+  </si>
+  <si>
+    <t>['11', '75']</t>
+  </si>
+  <si>
+    <t>['42', '49', '78']</t>
+  </si>
+  <si>
+    <t>['70', '88', '90+3']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BK99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1234,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1392,7 +1425,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1482,7 +1515,7 @@
         <v>2.13</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1583,7 +1616,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1670,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT4">
         <v>1.25</v>
@@ -1861,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT5">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1965,7 +1998,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2052,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT6">
         <v>1.5</v>
@@ -2243,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT7">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2347,7 +2380,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2538,7 +2571,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2625,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT9">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2729,7 +2762,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2816,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT10">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2920,7 +2953,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3007,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT11">
         <v>0.88</v>
@@ -3111,7 +3144,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3201,7 +3234,7 @@
         <v>0.71</v>
       </c>
       <c r="AT12">
-        <v>2.57</v>
+        <v>2.33</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3302,7 +3335,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3389,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT13">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3580,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT14">
         <v>0.88</v>
@@ -3771,10 +3804,10 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT15">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU15">
         <v>1.61</v>
@@ -3875,7 +3908,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4066,7 +4099,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4156,7 +4189,7 @@
         <v>2.13</v>
       </c>
       <c r="AT17">
-        <v>2.57</v>
+        <v>2.33</v>
       </c>
       <c r="AU17">
         <v>1.95</v>
@@ -4344,7 +4377,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT18">
         <v>1.25</v>
@@ -4538,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU19">
         <v>2.72</v>
@@ -4726,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT20">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU20">
         <v>1.91</v>
@@ -4917,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU21">
         <v>1.25</v>
@@ -5021,7 +5054,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5108,10 +5141,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT22">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU22">
         <v>2.03</v>
@@ -5299,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5403,7 +5436,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5490,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT24">
         <v>1.13</v>
@@ -5684,7 +5717,7 @@
         <v>2.5</v>
       </c>
       <c r="AT25">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU25">
         <v>0.91</v>
@@ -5785,7 +5818,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -5872,10 +5905,10 @@
         <v>2</v>
       </c>
       <c r="AS26">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT26">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU26">
         <v>1.47</v>
@@ -6254,10 +6287,10 @@
         <v>0.5</v>
       </c>
       <c r="AS28">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT28">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -6358,7 +6391,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6445,10 +6478,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT29">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU29">
         <v>1.53</v>
@@ -6549,7 +6582,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6636,10 +6669,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT30">
-        <v>2.57</v>
+        <v>2.33</v>
       </c>
       <c r="AU30">
         <v>1.82</v>
@@ -6740,7 +6773,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6827,10 +6860,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT31">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -6931,7 +6964,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7400,7 +7433,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT34">
         <v>1.25</v>
@@ -7504,7 +7537,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7591,7 +7624,7 @@
         <v>2</v>
       </c>
       <c r="AS35">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT35">
         <v>1.13</v>
@@ -7782,10 +7815,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU36">
         <v>1.35</v>
@@ -7886,7 +7919,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -7976,7 +8009,7 @@
         <v>0.71</v>
       </c>
       <c r="AT37">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU37">
         <v>1.09</v>
@@ -8077,7 +8110,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8164,10 +8197,10 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT38">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU38">
         <v>1.57</v>
@@ -8268,7 +8301,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8355,10 +8388,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT39">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU39">
         <v>1.76</v>
@@ -8546,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT40">
         <v>1</v>
@@ -8650,7 +8683,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8740,7 +8773,7 @@
         <v>0.71</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU41">
         <v>1.19</v>
@@ -8928,10 +8961,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT42">
-        <v>2.57</v>
+        <v>2.33</v>
       </c>
       <c r="AU42">
         <v>1.51</v>
@@ -9032,7 +9065,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9119,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT43">
         <v>1.25</v>
@@ -9223,7 +9256,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9501,7 +9534,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT45">
         <v>1.13</v>
@@ -9605,7 +9638,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9695,7 +9728,7 @@
         <v>2.5</v>
       </c>
       <c r="AT46">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU46">
         <v>1.37</v>
@@ -9796,7 +9829,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9886,7 +9919,7 @@
         <v>1</v>
       </c>
       <c r="AT47">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU47">
         <v>1.86</v>
@@ -10074,10 +10107,10 @@
         <v>0.67</v>
       </c>
       <c r="AS48">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT48">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU48">
         <v>1.9</v>
@@ -10178,7 +10211,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10265,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10459,7 +10492,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>2.57</v>
+        <v>2.33</v>
       </c>
       <c r="AU50">
         <v>1.83</v>
@@ -10647,7 +10680,7 @@
         <v>0.25</v>
       </c>
       <c r="AS51">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT51">
         <v>0.88</v>
@@ -10751,7 +10784,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -10838,10 +10871,10 @@
         <v>1.75</v>
       </c>
       <c r="AS52">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT52">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU52">
         <v>1.88</v>
@@ -10942,7 +10975,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11032,7 +11065,7 @@
         <v>0.71</v>
       </c>
       <c r="AT53">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU53">
         <v>1.13</v>
@@ -11133,7 +11166,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11220,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT54">
         <v>1.13</v>
@@ -11324,7 +11357,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11411,7 +11444,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT55">
         <v>1.5</v>
@@ -11515,7 +11548,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11602,10 +11635,10 @@
         <v>1.4</v>
       </c>
       <c r="AS56">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT56">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU56">
         <v>1.5</v>
@@ -11706,7 +11739,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11793,10 +11826,10 @@
         <v>0.75</v>
       </c>
       <c r="AS57">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT57">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU57">
         <v>1.37</v>
@@ -11897,7 +11930,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -11984,10 +12017,10 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT58">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU58">
         <v>1.47</v>
@@ -12088,7 +12121,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12175,10 +12208,10 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU59">
         <v>1.64</v>
@@ -12279,7 +12312,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12366,7 +12399,7 @@
         <v>0.6</v>
       </c>
       <c r="AS60">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT60">
         <v>1.5</v>
@@ -12470,7 +12503,7 @@
         <v>120</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12661,7 +12694,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12748,10 +12781,10 @@
         <v>2.4</v>
       </c>
       <c r="AS62">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>2.57</v>
+        <v>2.33</v>
       </c>
       <c r="AU62">
         <v>1.42</v>
@@ -12852,7 +12885,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13043,7 +13076,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13321,10 +13354,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT65">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU65">
         <v>1.82</v>
@@ -13512,10 +13545,10 @@
         <v>1.2</v>
       </c>
       <c r="AS66">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT66">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU66">
         <v>1.41</v>
@@ -13703,7 +13736,7 @@
         <v>1.4</v>
       </c>
       <c r="AS67">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT67">
         <v>1.13</v>
@@ -13897,7 +13930,7 @@
         <v>2.5</v>
       </c>
       <c r="AT68">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU68">
         <v>1.49</v>
@@ -13998,7 +14031,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14085,10 +14118,10 @@
         <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT69">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU69">
         <v>1.42</v>
@@ -14467,10 +14500,10 @@
         <v>1.2</v>
       </c>
       <c r="AS71">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU71">
         <v>1.79</v>
@@ -14571,7 +14604,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14658,7 +14691,7 @@
         <v>0.8</v>
       </c>
       <c r="AS72">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT72">
         <v>1</v>
@@ -14762,7 +14795,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -14849,10 +14882,10 @@
         <v>0.5</v>
       </c>
       <c r="AS73">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT73">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU73">
         <v>1.42</v>
@@ -14953,7 +14986,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15040,7 +15073,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT74">
         <v>1.13</v>
@@ -15144,7 +15177,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15231,7 +15264,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT75">
         <v>1.5</v>
@@ -15335,7 +15368,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15526,7 +15559,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15616,7 +15649,7 @@
         <v>2.5</v>
       </c>
       <c r="AT77">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU77">
         <v>1.49</v>
@@ -15908,7 +15941,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -15995,10 +16028,10 @@
         <v>2.17</v>
       </c>
       <c r="AS79">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT79">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU79">
         <v>1.46</v>
@@ -16099,7 +16132,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16290,7 +16323,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16380,7 +16413,7 @@
         <v>2.13</v>
       </c>
       <c r="AT81">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU81">
         <v>1.7</v>
@@ -16568,7 +16601,7 @@
         <v>1.29</v>
       </c>
       <c r="AS82">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT82">
         <v>1.5</v>
@@ -16762,7 +16795,7 @@
         <v>0.71</v>
       </c>
       <c r="AT83">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU83">
         <v>1.22</v>
@@ -16863,7 +16896,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -16950,10 +16983,10 @@
         <v>2.5</v>
       </c>
       <c r="AS84">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT84">
-        <v>2.57</v>
+        <v>2.33</v>
       </c>
       <c r="AU84">
         <v>1.45</v>
@@ -17054,7 +17087,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17141,10 +17174,10 @@
         <v>0.4</v>
       </c>
       <c r="AS85">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT85">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU85">
         <v>1.45</v>
@@ -17245,7 +17278,7 @@
         <v>135</v>
       </c>
       <c r="P86" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17332,7 +17365,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT86">
         <v>0.88</v>
@@ -17436,7 +17469,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17523,10 +17556,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT87">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU87">
         <v>1.37</v>
@@ -17717,7 +17750,7 @@
         <v>2.13</v>
       </c>
       <c r="AT88">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU88">
         <v>1.74</v>
@@ -17818,7 +17851,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -17905,7 +17938,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT89">
         <v>1.25</v>
@@ -18009,7 +18042,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18287,7 +18320,7 @@
         <v>1.14</v>
       </c>
       <c r="AS91">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT91">
         <v>1</v>
@@ -18342,6 +18375,1534 @@
       </c>
       <c r="BK91">
         <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>5139576</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45080.1875</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s">
+        <v>65</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>140</v>
+      </c>
+      <c r="P92" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q92">
+        <v>4</v>
+      </c>
+      <c r="R92">
+        <v>5</v>
+      </c>
+      <c r="S92">
+        <v>9</v>
+      </c>
+      <c r="T92">
+        <v>3.25</v>
+      </c>
+      <c r="U92">
+        <v>2.1</v>
+      </c>
+      <c r="V92">
+        <v>3</v>
+      </c>
+      <c r="W92">
+        <v>1.39</v>
+      </c>
+      <c r="X92">
+        <v>2.8</v>
+      </c>
+      <c r="Y92">
+        <v>2.75</v>
+      </c>
+      <c r="Z92">
+        <v>1.4</v>
+      </c>
+      <c r="AA92">
+        <v>6.5</v>
+      </c>
+      <c r="AB92">
+        <v>1.1</v>
+      </c>
+      <c r="AC92">
+        <v>4.07</v>
+      </c>
+      <c r="AD92">
+        <v>3.37</v>
+      </c>
+      <c r="AE92">
+        <v>1.77</v>
+      </c>
+      <c r="AF92">
+        <v>1.06</v>
+      </c>
+      <c r="AG92">
+        <v>8</v>
+      </c>
+      <c r="AH92">
+        <v>1.28</v>
+      </c>
+      <c r="AI92">
+        <v>3.5</v>
+      </c>
+      <c r="AJ92">
+        <v>1.85</v>
+      </c>
+      <c r="AK92">
+        <v>1.85</v>
+      </c>
+      <c r="AL92">
+        <v>1.68</v>
+      </c>
+      <c r="AM92">
+        <v>2.1</v>
+      </c>
+      <c r="AN92">
+        <v>1.45</v>
+      </c>
+      <c r="AO92">
+        <v>1.25</v>
+      </c>
+      <c r="AP92">
+        <v>1.38</v>
+      </c>
+      <c r="AQ92">
+        <v>1.43</v>
+      </c>
+      <c r="AR92">
+        <v>2.57</v>
+      </c>
+      <c r="AS92">
+        <v>1.63</v>
+      </c>
+      <c r="AT92">
+        <v>2.33</v>
+      </c>
+      <c r="AU92">
+        <v>1.54</v>
+      </c>
+      <c r="AV92">
+        <v>1.67</v>
+      </c>
+      <c r="AW92">
+        <v>3.21</v>
+      </c>
+      <c r="AX92">
+        <v>2.3</v>
+      </c>
+      <c r="AY92">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ92">
+        <v>1.84</v>
+      </c>
+      <c r="BA92">
+        <v>1.31</v>
+      </c>
+      <c r="BB92">
+        <v>1.9</v>
+      </c>
+      <c r="BC92">
+        <v>2.01</v>
+      </c>
+      <c r="BD92">
+        <v>2.62</v>
+      </c>
+      <c r="BE92">
+        <v>3.56</v>
+      </c>
+      <c r="BF92">
+        <v>3</v>
+      </c>
+      <c r="BG92">
+        <v>5</v>
+      </c>
+      <c r="BH92">
+        <v>4</v>
+      </c>
+      <c r="BI92">
+        <v>1</v>
+      </c>
+      <c r="BJ92">
+        <v>7</v>
+      </c>
+      <c r="BK92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>5139577</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45080.25</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>67</v>
+      </c>
+      <c r="H93" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93" t="s">
+        <v>141</v>
+      </c>
+      <c r="P93" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q93">
+        <v>3</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>5</v>
+      </c>
+      <c r="T93">
+        <v>2.7</v>
+      </c>
+      <c r="U93">
+        <v>2.1</v>
+      </c>
+      <c r="V93">
+        <v>3.5</v>
+      </c>
+      <c r="W93">
+        <v>1.4</v>
+      </c>
+      <c r="X93">
+        <v>2.75</v>
+      </c>
+      <c r="Y93">
+        <v>2.75</v>
+      </c>
+      <c r="Z93">
+        <v>1.4</v>
+      </c>
+      <c r="AA93">
+        <v>6.5</v>
+      </c>
+      <c r="AB93">
+        <v>1.1</v>
+      </c>
+      <c r="AC93">
+        <v>1.78</v>
+      </c>
+      <c r="AD93">
+        <v>2.97</v>
+      </c>
+      <c r="AE93">
+        <v>4.75</v>
+      </c>
+      <c r="AF93">
+        <v>1.05</v>
+      </c>
+      <c r="AG93">
+        <v>9</v>
+      </c>
+      <c r="AH93">
+        <v>1.3</v>
+      </c>
+      <c r="AI93">
+        <v>3.4</v>
+      </c>
+      <c r="AJ93">
+        <v>1.85</v>
+      </c>
+      <c r="AK93">
+        <v>1.85</v>
+      </c>
+      <c r="AL93">
+        <v>1.67</v>
+      </c>
+      <c r="AM93">
+        <v>2.1</v>
+      </c>
+      <c r="AN93">
+        <v>1.36</v>
+      </c>
+      <c r="AO93">
+        <v>1.3</v>
+      </c>
+      <c r="AP93">
+        <v>1.6</v>
+      </c>
+      <c r="AQ93">
+        <v>0.14</v>
+      </c>
+      <c r="AR93">
+        <v>0.33</v>
+      </c>
+      <c r="AS93">
+        <v>0.13</v>
+      </c>
+      <c r="AT93">
+        <v>0.71</v>
+      </c>
+      <c r="AU93">
+        <v>1.38</v>
+      </c>
+      <c r="AV93">
+        <v>1.45</v>
+      </c>
+      <c r="AW93">
+        <v>2.83</v>
+      </c>
+      <c r="AX93">
+        <v>1.76</v>
+      </c>
+      <c r="AY93">
+        <v>8.5</v>
+      </c>
+      <c r="AZ93">
+        <v>2.5</v>
+      </c>
+      <c r="BA93">
+        <v>1.39</v>
+      </c>
+      <c r="BB93">
+        <v>1.72</v>
+      </c>
+      <c r="BC93">
+        <v>2.19</v>
+      </c>
+      <c r="BD93">
+        <v>2.93</v>
+      </c>
+      <c r="BE93">
+        <v>4.14</v>
+      </c>
+      <c r="BF93">
+        <v>4</v>
+      </c>
+      <c r="BG93">
+        <v>5</v>
+      </c>
+      <c r="BH93">
+        <v>6</v>
+      </c>
+      <c r="BI93">
+        <v>2</v>
+      </c>
+      <c r="BJ93">
+        <v>10</v>
+      </c>
+      <c r="BK93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>5139578</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45080.29166666666</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>68</v>
+      </c>
+      <c r="H94" t="s">
+        <v>75</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>4</v>
+      </c>
+      <c r="O94" t="s">
+        <v>142</v>
+      </c>
+      <c r="P94" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q94">
+        <v>2</v>
+      </c>
+      <c r="R94">
+        <v>4</v>
+      </c>
+      <c r="S94">
+        <v>6</v>
+      </c>
+      <c r="T94">
+        <v>2.45</v>
+      </c>
+      <c r="U94">
+        <v>2.11</v>
+      </c>
+      <c r="V94">
+        <v>4.75</v>
+      </c>
+      <c r="W94">
+        <v>1.42</v>
+      </c>
+      <c r="X94">
+        <v>2.65</v>
+      </c>
+      <c r="Y94">
+        <v>2.95</v>
+      </c>
+      <c r="Z94">
+        <v>1.35</v>
+      </c>
+      <c r="AA94">
+        <v>8.25</v>
+      </c>
+      <c r="AB94">
+        <v>1.07</v>
+      </c>
+      <c r="AC94">
+        <v>1.83</v>
+      </c>
+      <c r="AD94">
+        <v>3.5</v>
+      </c>
+      <c r="AE94">
+        <v>4.2</v>
+      </c>
+      <c r="AF94">
+        <v>1.05</v>
+      </c>
+      <c r="AG94">
+        <v>10.5</v>
+      </c>
+      <c r="AH94">
+        <v>1.32</v>
+      </c>
+      <c r="AI94">
+        <v>3.1</v>
+      </c>
+      <c r="AJ94">
+        <v>2.03</v>
+      </c>
+      <c r="AK94">
+        <v>1.7</v>
+      </c>
+      <c r="AL94">
+        <v>1.89</v>
+      </c>
+      <c r="AM94">
+        <v>1.85</v>
+      </c>
+      <c r="AN94">
+        <v>1.23</v>
+      </c>
+      <c r="AO94">
+        <v>1.29</v>
+      </c>
+      <c r="AP94">
+        <v>1.92</v>
+      </c>
+      <c r="AQ94">
+        <v>1.43</v>
+      </c>
+      <c r="AR94">
+        <v>0.75</v>
+      </c>
+      <c r="AS94">
+        <v>1.38</v>
+      </c>
+      <c r="AT94">
+        <v>0.78</v>
+      </c>
+      <c r="AU94">
+        <v>1.78</v>
+      </c>
+      <c r="AV94">
+        <v>1.06</v>
+      </c>
+      <c r="AW94">
+        <v>2.84</v>
+      </c>
+      <c r="AX94">
+        <v>1.56</v>
+      </c>
+      <c r="AY94">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ94">
+        <v>2.96</v>
+      </c>
+      <c r="BA94">
+        <v>1.45</v>
+      </c>
+      <c r="BB94">
+        <v>1.8</v>
+      </c>
+      <c r="BC94">
+        <v>2.34</v>
+      </c>
+      <c r="BD94">
+        <v>3.2</v>
+      </c>
+      <c r="BE94">
+        <v>4.6</v>
+      </c>
+      <c r="BF94">
+        <v>6</v>
+      </c>
+      <c r="BG94">
+        <v>7</v>
+      </c>
+      <c r="BH94">
+        <v>6</v>
+      </c>
+      <c r="BI94">
+        <v>4</v>
+      </c>
+      <c r="BJ94">
+        <v>12</v>
+      </c>
+      <c r="BK94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>5139579</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45080.3125</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s">
+        <v>69</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>4</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>6</v>
+      </c>
+      <c r="O95" t="s">
+        <v>143</v>
+      </c>
+      <c r="P95" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q95">
+        <v>7</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>9</v>
+      </c>
+      <c r="T95">
+        <v>3.25</v>
+      </c>
+      <c r="U95">
+        <v>2.05</v>
+      </c>
+      <c r="V95">
+        <v>3</v>
+      </c>
+      <c r="W95">
+        <v>1.4</v>
+      </c>
+      <c r="X95">
+        <v>2.75</v>
+      </c>
+      <c r="Y95">
+        <v>2.75</v>
+      </c>
+      <c r="Z95">
+        <v>1.4</v>
+      </c>
+      <c r="AA95">
+        <v>7</v>
+      </c>
+      <c r="AB95">
+        <v>1.08</v>
+      </c>
+      <c r="AC95">
+        <v>2.75</v>
+      </c>
+      <c r="AD95">
+        <v>3.3</v>
+      </c>
+      <c r="AE95">
+        <v>2.45</v>
+      </c>
+      <c r="AF95">
+        <v>1.07</v>
+      </c>
+      <c r="AG95">
+        <v>7.5</v>
+      </c>
+      <c r="AH95">
+        <v>1.36</v>
+      </c>
+      <c r="AI95">
+        <v>3</v>
+      </c>
+      <c r="AJ95">
+        <v>1.99</v>
+      </c>
+      <c r="AK95">
+        <v>1.73</v>
+      </c>
+      <c r="AL95">
+        <v>1.8</v>
+      </c>
+      <c r="AM95">
+        <v>1.91</v>
+      </c>
+      <c r="AN95">
+        <v>1.55</v>
+      </c>
+      <c r="AO95">
+        <v>1.3</v>
+      </c>
+      <c r="AP95">
+        <v>1.4</v>
+      </c>
+      <c r="AQ95">
+        <v>1.14</v>
+      </c>
+      <c r="AR95">
+        <v>1.43</v>
+      </c>
+      <c r="AS95">
+        <v>1.38</v>
+      </c>
+      <c r="AT95">
+        <v>1.25</v>
+      </c>
+      <c r="AU95">
+        <v>1.9</v>
+      </c>
+      <c r="AV95">
+        <v>1.3</v>
+      </c>
+      <c r="AW95">
+        <v>3.2</v>
+      </c>
+      <c r="AX95">
+        <v>2.3</v>
+      </c>
+      <c r="AY95">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ95">
+        <v>1.84</v>
+      </c>
+      <c r="BA95">
+        <v>1.31</v>
+      </c>
+      <c r="BB95">
+        <v>1.85</v>
+      </c>
+      <c r="BC95">
+        <v>2.01</v>
+      </c>
+      <c r="BD95">
+        <v>2.62</v>
+      </c>
+      <c r="BE95">
+        <v>3.56</v>
+      </c>
+      <c r="BF95">
+        <v>5</v>
+      </c>
+      <c r="BG95">
+        <v>5</v>
+      </c>
+      <c r="BH95">
+        <v>6</v>
+      </c>
+      <c r="BI95">
+        <v>3</v>
+      </c>
+      <c r="BJ95">
+        <v>11</v>
+      </c>
+      <c r="BK95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5139580</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45081.1875</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>70</v>
+      </c>
+      <c r="H96" t="s">
+        <v>71</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>3</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96" t="s">
+        <v>144</v>
+      </c>
+      <c r="P96" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q96">
+        <v>3</v>
+      </c>
+      <c r="R96">
+        <v>3</v>
+      </c>
+      <c r="S96">
+        <v>6</v>
+      </c>
+      <c r="T96">
+        <v>3.3</v>
+      </c>
+      <c r="U96">
+        <v>2.1</v>
+      </c>
+      <c r="V96">
+        <v>2.95</v>
+      </c>
+      <c r="W96">
+        <v>1.4</v>
+      </c>
+      <c r="X96">
+        <v>2.75</v>
+      </c>
+      <c r="Y96">
+        <v>2.75</v>
+      </c>
+      <c r="Z96">
+        <v>1.4</v>
+      </c>
+      <c r="AA96">
+        <v>7</v>
+      </c>
+      <c r="AB96">
+        <v>1.08</v>
+      </c>
+      <c r="AC96">
+        <v>2.67</v>
+      </c>
+      <c r="AD96">
+        <v>3.2</v>
+      </c>
+      <c r="AE96">
+        <v>2.43</v>
+      </c>
+      <c r="AF96">
+        <v>1.05</v>
+      </c>
+      <c r="AG96">
+        <v>9</v>
+      </c>
+      <c r="AH96">
+        <v>1.28</v>
+      </c>
+      <c r="AI96">
+        <v>3.5</v>
+      </c>
+      <c r="AJ96">
+        <v>2.01</v>
+      </c>
+      <c r="AK96">
+        <v>1.85</v>
+      </c>
+      <c r="AL96">
+        <v>1.7</v>
+      </c>
+      <c r="AM96">
+        <v>2.1</v>
+      </c>
+      <c r="AN96">
+        <v>1.47</v>
+      </c>
+      <c r="AO96">
+        <v>1.25</v>
+      </c>
+      <c r="AP96">
+        <v>1.36</v>
+      </c>
+      <c r="AQ96">
+        <v>1.86</v>
+      </c>
+      <c r="AR96">
+        <v>1</v>
+      </c>
+      <c r="AS96">
+        <v>1.63</v>
+      </c>
+      <c r="AT96">
+        <v>1.25</v>
+      </c>
+      <c r="AU96">
+        <v>1.62</v>
+      </c>
+      <c r="AV96">
+        <v>1.36</v>
+      </c>
+      <c r="AW96">
+        <v>2.98</v>
+      </c>
+      <c r="AX96">
+        <v>2.05</v>
+      </c>
+      <c r="AY96">
+        <v>5.5</v>
+      </c>
+      <c r="AZ96">
+        <v>2</v>
+      </c>
+      <c r="BA96">
+        <v>1.26</v>
+      </c>
+      <c r="BB96">
+        <v>1.51</v>
+      </c>
+      <c r="BC96">
+        <v>1.82</v>
+      </c>
+      <c r="BD96">
+        <v>2.25</v>
+      </c>
+      <c r="BE96">
+        <v>3.2</v>
+      </c>
+      <c r="BF96">
+        <v>6</v>
+      </c>
+      <c r="BG96">
+        <v>6</v>
+      </c>
+      <c r="BH96">
+        <v>5</v>
+      </c>
+      <c r="BI96">
+        <v>2</v>
+      </c>
+      <c r="BJ96">
+        <v>11</v>
+      </c>
+      <c r="BK96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5139581</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45081.29166666666</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97" t="s">
+        <v>66</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>145</v>
+      </c>
+      <c r="P97" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q97">
+        <v>4</v>
+      </c>
+      <c r="R97">
+        <v>9</v>
+      </c>
+      <c r="S97">
+        <v>13</v>
+      </c>
+      <c r="T97">
+        <v>3.6</v>
+      </c>
+      <c r="U97">
+        <v>2.1</v>
+      </c>
+      <c r="V97">
+        <v>2.85</v>
+      </c>
+      <c r="W97">
+        <v>1.42</v>
+      </c>
+      <c r="X97">
+        <v>2.75</v>
+      </c>
+      <c r="Y97">
+        <v>2.85</v>
+      </c>
+      <c r="Z97">
+        <v>1.38</v>
+      </c>
+      <c r="AA97">
+        <v>7.75</v>
+      </c>
+      <c r="AB97">
+        <v>1.08</v>
+      </c>
+      <c r="AC97">
+        <v>2.94</v>
+      </c>
+      <c r="AD97">
+        <v>3.3</v>
+      </c>
+      <c r="AE97">
+        <v>2.19</v>
+      </c>
+      <c r="AF97">
+        <v>1.05</v>
+      </c>
+      <c r="AG97">
+        <v>11</v>
+      </c>
+      <c r="AH97">
+        <v>1.3</v>
+      </c>
+      <c r="AI97">
+        <v>3.25</v>
+      </c>
+      <c r="AJ97">
+        <v>2.01</v>
+      </c>
+      <c r="AK97">
+        <v>1.85</v>
+      </c>
+      <c r="AL97">
+        <v>1.75</v>
+      </c>
+      <c r="AM97">
+        <v>1.95</v>
+      </c>
+      <c r="AN97">
+        <v>1.53</v>
+      </c>
+      <c r="AO97">
+        <v>1.25</v>
+      </c>
+      <c r="AP97">
+        <v>1.33</v>
+      </c>
+      <c r="AQ97">
+        <v>1.29</v>
+      </c>
+      <c r="AR97">
+        <v>1.43</v>
+      </c>
+      <c r="AS97">
+        <v>1.5</v>
+      </c>
+      <c r="AT97">
+        <v>1.25</v>
+      </c>
+      <c r="AU97">
+        <v>1.44</v>
+      </c>
+      <c r="AV97">
+        <v>1.33</v>
+      </c>
+      <c r="AW97">
+        <v>2.77</v>
+      </c>
+      <c r="AX97">
+        <v>2.4</v>
+      </c>
+      <c r="AY97">
+        <v>7.5</v>
+      </c>
+      <c r="AZ97">
+        <v>1.82</v>
+      </c>
+      <c r="BA97">
+        <v>1.34</v>
+      </c>
+      <c r="BB97">
+        <v>1.64</v>
+      </c>
+      <c r="BC97">
+        <v>2.11</v>
+      </c>
+      <c r="BD97">
+        <v>2.8</v>
+      </c>
+      <c r="BE97">
+        <v>3.88</v>
+      </c>
+      <c r="BF97">
+        <v>3</v>
+      </c>
+      <c r="BG97">
+        <v>2</v>
+      </c>
+      <c r="BH97">
+        <v>4</v>
+      </c>
+      <c r="BI97">
+        <v>2</v>
+      </c>
+      <c r="BJ97">
+        <v>7</v>
+      </c>
+      <c r="BK97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>5139582</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45083.1875</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>72</v>
+      </c>
+      <c r="H98" t="s">
+        <v>65</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98" t="s">
+        <v>97</v>
+      </c>
+      <c r="P98" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q98">
+        <v>-1</v>
+      </c>
+      <c r="R98">
+        <v>-1</v>
+      </c>
+      <c r="S98">
+        <v>-1</v>
+      </c>
+      <c r="T98">
+        <v>4.2</v>
+      </c>
+      <c r="U98">
+        <v>2.3</v>
+      </c>
+      <c r="V98">
+        <v>2.25</v>
+      </c>
+      <c r="W98">
+        <v>1.3</v>
+      </c>
+      <c r="X98">
+        <v>3.4</v>
+      </c>
+      <c r="Y98">
+        <v>2.5</v>
+      </c>
+      <c r="Z98">
+        <v>1.48</v>
+      </c>
+      <c r="AA98">
+        <v>5</v>
+      </c>
+      <c r="AB98">
+        <v>1.14</v>
+      </c>
+      <c r="AC98">
+        <v>4.08</v>
+      </c>
+      <c r="AD98">
+        <v>3.55</v>
+      </c>
+      <c r="AE98">
+        <v>1.66</v>
+      </c>
+      <c r="AF98">
+        <v>1.04</v>
+      </c>
+      <c r="AG98">
+        <v>10</v>
+      </c>
+      <c r="AH98">
+        <v>1.22</v>
+      </c>
+      <c r="AI98">
+        <v>4</v>
+      </c>
+      <c r="AJ98">
+        <v>1.6</v>
+      </c>
+      <c r="AK98">
+        <v>2.2</v>
+      </c>
+      <c r="AL98">
+        <v>1.65</v>
+      </c>
+      <c r="AM98">
+        <v>2.15</v>
+      </c>
+      <c r="AN98">
+        <v>1.9</v>
+      </c>
+      <c r="AO98">
+        <v>1.2</v>
+      </c>
+      <c r="AP98">
+        <v>1.18</v>
+      </c>
+      <c r="AQ98">
+        <v>1.44</v>
+      </c>
+      <c r="AR98">
+        <v>2.25</v>
+      </c>
+      <c r="AS98">
+        <v>1.3</v>
+      </c>
+      <c r="AT98">
+        <v>2.33</v>
+      </c>
+      <c r="AU98">
+        <v>1.43</v>
+      </c>
+      <c r="AV98">
+        <v>1.62</v>
+      </c>
+      <c r="AW98">
+        <v>3.05</v>
+      </c>
+      <c r="AX98">
+        <v>3.24</v>
+      </c>
+      <c r="AY98">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ98">
+        <v>1.48</v>
+      </c>
+      <c r="BA98">
+        <v>1.36</v>
+      </c>
+      <c r="BB98">
+        <v>1.72</v>
+      </c>
+      <c r="BC98">
+        <v>2.12</v>
+      </c>
+      <c r="BD98">
+        <v>2.79</v>
+      </c>
+      <c r="BE98">
+        <v>3.94</v>
+      </c>
+      <c r="BF98">
+        <v>-1</v>
+      </c>
+      <c r="BG98">
+        <v>-1</v>
+      </c>
+      <c r="BH98">
+        <v>-1</v>
+      </c>
+      <c r="BI98">
+        <v>-1</v>
+      </c>
+      <c r="BJ98">
+        <v>-1</v>
+      </c>
+      <c r="BK98">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>5139583</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45083.25</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>69</v>
+      </c>
+      <c r="H99" t="s">
+        <v>68</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>146</v>
+      </c>
+      <c r="P99" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q99">
+        <v>-1</v>
+      </c>
+      <c r="R99">
+        <v>-1</v>
+      </c>
+      <c r="S99">
+        <v>-1</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
+        <v>2.06</v>
+      </c>
+      <c r="V99">
+        <v>4.24</v>
+      </c>
+      <c r="W99">
+        <v>1.45</v>
+      </c>
+      <c r="X99">
+        <v>2.66</v>
+      </c>
+      <c r="Y99">
+        <v>3.1</v>
+      </c>
+      <c r="Z99">
+        <v>1.34</v>
+      </c>
+      <c r="AA99">
+        <v>8.1</v>
+      </c>
+      <c r="AB99">
+        <v>1.06</v>
+      </c>
+      <c r="AC99">
+        <v>1.98</v>
+      </c>
+      <c r="AD99">
+        <v>3.06</v>
+      </c>
+      <c r="AE99">
+        <v>3.34</v>
+      </c>
+      <c r="AF99">
+        <v>1.06</v>
+      </c>
+      <c r="AG99">
+        <v>9.5</v>
+      </c>
+      <c r="AH99">
+        <v>1.35</v>
+      </c>
+      <c r="AI99">
+        <v>2.95</v>
+      </c>
+      <c r="AJ99">
+        <v>2</v>
+      </c>
+      <c r="AK99">
+        <v>1.7</v>
+      </c>
+      <c r="AL99">
+        <v>1.88</v>
+      </c>
+      <c r="AM99">
+        <v>1.88</v>
+      </c>
+      <c r="AN99">
+        <v>1.31</v>
+      </c>
+      <c r="AO99">
+        <v>1.32</v>
+      </c>
+      <c r="AP99">
+        <v>1.71</v>
+      </c>
+      <c r="AQ99">
+        <v>2.13</v>
+      </c>
+      <c r="AR99">
+        <v>2.13</v>
+      </c>
+      <c r="AS99">
+        <v>2.22</v>
+      </c>
+      <c r="AT99">
+        <v>1.89</v>
+      </c>
+      <c r="AU99">
+        <v>1.68</v>
+      </c>
+      <c r="AV99">
+        <v>1.57</v>
+      </c>
+      <c r="AW99">
+        <v>3.25</v>
+      </c>
+      <c r="AX99">
+        <v>1.63</v>
+      </c>
+      <c r="AY99">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ99">
+        <v>2.79</v>
+      </c>
+      <c r="BA99">
+        <v>1.39</v>
+      </c>
+      <c r="BB99">
+        <v>1.73</v>
+      </c>
+      <c r="BC99">
+        <v>2.19</v>
+      </c>
+      <c r="BD99">
+        <v>2.93</v>
+      </c>
+      <c r="BE99">
+        <v>4.2</v>
+      </c>
+      <c r="BF99">
+        <v>-1</v>
+      </c>
+      <c r="BG99">
+        <v>-1</v>
+      </c>
+      <c r="BH99">
+        <v>-1</v>
+      </c>
+      <c r="BI99">
+        <v>-1</v>
+      </c>
+      <c r="BJ99">
+        <v>-1</v>
+      </c>
+      <c r="BK99">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,15 @@
     <t>['20', '90+2']</t>
   </si>
   <si>
+    <t>['69', '90+1']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -629,6 +638,12 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['27', '60']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK99"/>
+  <dimension ref="A1:BK103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1249,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1425,7 +1440,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1616,7 +1631,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1998,7 +2013,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2088,7 +2103,7 @@
         <v>2.22</v>
       </c>
       <c r="AT6">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2380,7 +2395,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2470,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2571,7 +2586,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2762,7 +2777,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3040,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT11">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3144,7 +3159,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3231,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT12">
         <v>2.33</v>
@@ -3335,7 +3350,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3422,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT13">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3616,7 +3631,7 @@
         <v>1.3</v>
       </c>
       <c r="AT14">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU14">
         <v>0.3</v>
@@ -3908,7 +3923,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3995,10 +4010,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT16">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU16">
         <v>1.2</v>
@@ -4099,7 +4114,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4377,7 +4392,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT18">
         <v>1.25</v>
@@ -4950,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT21">
         <v>1.25</v>
@@ -5054,7 +5069,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5144,7 +5159,7 @@
         <v>1.38</v>
       </c>
       <c r="AT22">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU22">
         <v>2.03</v>
@@ -5436,7 +5451,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5526,7 +5541,7 @@
         <v>0.13</v>
       </c>
       <c r="AT24">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU24">
         <v>1.56</v>
@@ -5818,7 +5833,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -5905,7 +5920,7 @@
         <v>2</v>
       </c>
       <c r="AS26">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT26">
         <v>1.25</v>
@@ -6099,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="AT27">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU27">
         <v>2.23</v>
@@ -6287,7 +6302,7 @@
         <v>0.5</v>
       </c>
       <c r="AS28">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT28">
         <v>0.71</v>
@@ -6391,7 +6406,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6481,7 +6496,7 @@
         <v>1.63</v>
       </c>
       <c r="AT29">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU29">
         <v>1.53</v>
@@ -6582,7 +6597,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6773,7 +6788,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6964,7 +6979,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7054,7 +7069,7 @@
         <v>2.5</v>
       </c>
       <c r="AT32">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU32">
         <v>1.5</v>
@@ -7245,7 +7260,7 @@
         <v>2.13</v>
       </c>
       <c r="AT33">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU33">
         <v>1.41</v>
@@ -7537,7 +7552,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7627,7 +7642,7 @@
         <v>1.3</v>
       </c>
       <c r="AT35">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU35">
         <v>0.82</v>
@@ -7815,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT36">
         <v>1.25</v>
@@ -7919,7 +7934,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8006,7 +8021,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT37">
         <v>1.89</v>
@@ -8110,7 +8125,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8301,7 +8316,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8391,7 +8406,7 @@
         <v>2.22</v>
       </c>
       <c r="AT39">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU39">
         <v>1.76</v>
@@ -8683,7 +8698,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8770,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT41">
         <v>1.25</v>
@@ -9065,7 +9080,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9256,7 +9271,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9346,7 +9361,7 @@
         <v>2.13</v>
       </c>
       <c r="AT44">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU44">
         <v>1.59</v>
@@ -9537,7 +9552,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU45">
         <v>1.34</v>
@@ -9638,7 +9653,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9829,7 +9844,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10107,7 +10122,7 @@
         <v>0.67</v>
       </c>
       <c r="AS48">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT48">
         <v>0.78</v>
@@ -10211,7 +10226,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10683,7 +10698,7 @@
         <v>2.22</v>
       </c>
       <c r="AT51">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU51">
         <v>1.7</v>
@@ -10784,7 +10799,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -10871,7 +10886,7 @@
         <v>1.75</v>
       </c>
       <c r="AS52">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT52">
         <v>1.89</v>
@@ -10975,7 +10990,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11062,10 +11077,10 @@
         <v>1.75</v>
       </c>
       <c r="AS53">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT53">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU53">
         <v>1.13</v>
@@ -11166,7 +11181,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11253,10 +11268,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT54">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU54">
         <v>1.31</v>
@@ -11357,7 +11372,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11447,7 +11462,7 @@
         <v>1.3</v>
       </c>
       <c r="AT55">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU55">
         <v>1.55</v>
@@ -11548,7 +11563,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11638,7 +11653,7 @@
         <v>1.3</v>
       </c>
       <c r="AT56">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU56">
         <v>1.5</v>
@@ -11739,7 +11754,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11826,7 +11841,7 @@
         <v>0.75</v>
       </c>
       <c r="AS57">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT57">
         <v>0.78</v>
@@ -11930,7 +11945,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12121,7 +12136,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12312,7 +12327,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12402,7 +12417,7 @@
         <v>0.13</v>
       </c>
       <c r="AT60">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12694,7 +12709,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12885,7 +12900,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13076,7 +13091,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13166,7 +13181,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU64">
         <v>1.66</v>
@@ -13736,10 +13751,10 @@
         <v>1.4</v>
       </c>
       <c r="AS67">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT67">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -14031,7 +14046,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14604,7 +14619,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14795,7 +14810,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -14986,7 +15001,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15076,7 +15091,7 @@
         <v>2.22</v>
       </c>
       <c r="AT74">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU74">
         <v>1.51</v>
@@ -15177,7 +15192,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15264,10 +15279,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT75">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU75">
         <v>1.94</v>
@@ -15368,7 +15383,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15455,10 +15470,10 @@
         <v>0.67</v>
       </c>
       <c r="AS76">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT76">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU76">
         <v>1.17</v>
@@ -15559,7 +15574,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15649,7 +15664,7 @@
         <v>2.5</v>
       </c>
       <c r="AT77">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU77">
         <v>1.49</v>
@@ -15941,7 +15956,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16132,7 +16147,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16323,7 +16338,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16604,7 +16619,7 @@
         <v>1.63</v>
       </c>
       <c r="AT82">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU82">
         <v>1.49</v>
@@ -16792,7 +16807,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT83">
         <v>1.25</v>
@@ -16896,7 +16911,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17087,7 +17102,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17174,7 +17189,7 @@
         <v>0.4</v>
       </c>
       <c r="AS85">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT85">
         <v>0.71</v>
@@ -17278,7 +17293,7 @@
         <v>135</v>
       </c>
       <c r="P86" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17368,7 +17383,7 @@
         <v>1.38</v>
       </c>
       <c r="AT86">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU86">
         <v>1.86</v>
@@ -17469,7 +17484,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17851,7 +17866,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -18042,7 +18057,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18132,7 +18147,7 @@
         <v>2.5</v>
       </c>
       <c r="AT90">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -18511,7 +18526,7 @@
         <v>2.57</v>
       </c>
       <c r="AS92">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT92">
         <v>2.33</v>
@@ -18615,7 +18630,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18806,7 +18821,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -18997,7 +19012,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19084,7 +19099,7 @@
         <v>1.43</v>
       </c>
       <c r="AS95">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT95">
         <v>1.25</v>
@@ -19188,7 +19203,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19469,7 +19484,7 @@
         <v>1.5</v>
       </c>
       <c r="AT97">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU97">
         <v>1.44</v>
@@ -19570,16 +19585,16 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R98">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S98">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T98">
         <v>4.2</v>
@@ -19696,22 +19711,22 @@
         <v>3.94</v>
       </c>
       <c r="BF98">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG98">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BH98">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI98">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ98">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK98">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:63">
@@ -19761,16 +19776,16 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R99">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T99">
         <v>2.75</v>
@@ -19887,22 +19902,786 @@
         <v>4.2</v>
       </c>
       <c r="BF99">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG99">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH99">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BJ99">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK99">
-        <v>-1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>5139585</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45084.29166666666</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>76</v>
+      </c>
+      <c r="H100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>147</v>
+      </c>
+      <c r="P100" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q100">
+        <v>7</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>9</v>
+      </c>
+      <c r="T100">
+        <v>2.55</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100">
+        <v>4.2</v>
+      </c>
+      <c r="W100">
+        <v>1.45</v>
+      </c>
+      <c r="X100">
+        <v>2.6</v>
+      </c>
+      <c r="Y100">
+        <v>3</v>
+      </c>
+      <c r="Z100">
+        <v>1.36</v>
+      </c>
+      <c r="AA100">
+        <v>7.5</v>
+      </c>
+      <c r="AB100">
+        <v>1.07</v>
+      </c>
+      <c r="AC100">
+        <v>1.89</v>
+      </c>
+      <c r="AD100">
+        <v>3.45</v>
+      </c>
+      <c r="AE100">
+        <v>3.8</v>
+      </c>
+      <c r="AF100">
+        <v>1.08</v>
+      </c>
+      <c r="AG100">
+        <v>7</v>
+      </c>
+      <c r="AH100">
+        <v>1.4</v>
+      </c>
+      <c r="AI100">
+        <v>2.8</v>
+      </c>
+      <c r="AJ100">
+        <v>1.95</v>
+      </c>
+      <c r="AK100">
+        <v>1.75</v>
+      </c>
+      <c r="AL100">
+        <v>1.9</v>
+      </c>
+      <c r="AM100">
+        <v>1.85</v>
+      </c>
+      <c r="AN100">
+        <v>1.2</v>
+      </c>
+      <c r="AO100">
+        <v>1.25</v>
+      </c>
+      <c r="AP100">
+        <v>1.8</v>
+      </c>
+      <c r="AQ100">
+        <v>1.38</v>
+      </c>
+      <c r="AR100">
+        <v>0.88</v>
+      </c>
+      <c r="AS100">
+        <v>1.56</v>
+      </c>
+      <c r="AT100">
+        <v>0.78</v>
+      </c>
+      <c r="AU100">
+        <v>1.86</v>
+      </c>
+      <c r="AV100">
+        <v>1.35</v>
+      </c>
+      <c r="AW100">
+        <v>3.21</v>
+      </c>
+      <c r="AX100">
+        <v>1.59</v>
+      </c>
+      <c r="AY100">
+        <v>8</v>
+      </c>
+      <c r="AZ100">
+        <v>2.9</v>
+      </c>
+      <c r="BA100">
+        <v>1.38</v>
+      </c>
+      <c r="BB100">
+        <v>1.71</v>
+      </c>
+      <c r="BC100">
+        <v>2.22</v>
+      </c>
+      <c r="BD100">
+        <v>2.98</v>
+      </c>
+      <c r="BE100">
+        <v>4.2</v>
+      </c>
+      <c r="BF100">
+        <v>6</v>
+      </c>
+      <c r="BG100">
+        <v>3</v>
+      </c>
+      <c r="BH100">
+        <v>3</v>
+      </c>
+      <c r="BI100">
+        <v>1</v>
+      </c>
+      <c r="BJ100">
+        <v>9</v>
+      </c>
+      <c r="BK100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>5139584</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45084.29166666666</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>74</v>
+      </c>
+      <c r="H101" t="s">
+        <v>73</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>148</v>
+      </c>
+      <c r="P101" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q101">
+        <v>3</v>
+      </c>
+      <c r="R101">
+        <v>4</v>
+      </c>
+      <c r="S101">
+        <v>7</v>
+      </c>
+      <c r="T101">
+        <v>2.6</v>
+      </c>
+      <c r="U101">
+        <v>2</v>
+      </c>
+      <c r="V101">
+        <v>4.2</v>
+      </c>
+      <c r="W101">
+        <v>1.46</v>
+      </c>
+      <c r="X101">
+        <v>2.55</v>
+      </c>
+      <c r="Y101">
+        <v>2.75</v>
+      </c>
+      <c r="Z101">
+        <v>1.4</v>
+      </c>
+      <c r="AA101">
+        <v>7</v>
+      </c>
+      <c r="AB101">
+        <v>1.08</v>
+      </c>
+      <c r="AC101">
+        <v>1.83</v>
+      </c>
+      <c r="AD101">
+        <v>3.55</v>
+      </c>
+      <c r="AE101">
+        <v>4</v>
+      </c>
+      <c r="AF101">
+        <v>1.07</v>
+      </c>
+      <c r="AG101">
+        <v>7.5</v>
+      </c>
+      <c r="AH101">
+        <v>1.36</v>
+      </c>
+      <c r="AI101">
+        <v>2.95</v>
+      </c>
+      <c r="AJ101">
+        <v>2.04</v>
+      </c>
+      <c r="AK101">
+        <v>1.82</v>
+      </c>
+      <c r="AL101">
+        <v>1.9</v>
+      </c>
+      <c r="AM101">
+        <v>1.83</v>
+      </c>
+      <c r="AN101">
+        <v>1.2</v>
+      </c>
+      <c r="AO101">
+        <v>1.25</v>
+      </c>
+      <c r="AP101">
+        <v>1.8</v>
+      </c>
+      <c r="AQ101">
+        <v>1.63</v>
+      </c>
+      <c r="AR101">
+        <v>1.5</v>
+      </c>
+      <c r="AS101">
+        <v>1.78</v>
+      </c>
+      <c r="AT101">
+        <v>1.33</v>
+      </c>
+      <c r="AU101">
+        <v>1.48</v>
+      </c>
+      <c r="AV101">
+        <v>1.22</v>
+      </c>
+      <c r="AW101">
+        <v>2.7</v>
+      </c>
+      <c r="AX101">
+        <v>1.64</v>
+      </c>
+      <c r="AY101">
+        <v>8</v>
+      </c>
+      <c r="AZ101">
+        <v>2.77</v>
+      </c>
+      <c r="BA101">
+        <v>1.32</v>
+      </c>
+      <c r="BB101">
+        <v>1.8</v>
+      </c>
+      <c r="BC101">
+        <v>2.06</v>
+      </c>
+      <c r="BD101">
+        <v>2.72</v>
+      </c>
+      <c r="BE101">
+        <v>3.64</v>
+      </c>
+      <c r="BF101">
+        <v>2</v>
+      </c>
+      <c r="BG101">
+        <v>4</v>
+      </c>
+      <c r="BH101">
+        <v>5</v>
+      </c>
+      <c r="BI101">
+        <v>1</v>
+      </c>
+      <c r="BJ101">
+        <v>7</v>
+      </c>
+      <c r="BK101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>5139586</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45084.3125</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>71</v>
+      </c>
+      <c r="H102" t="s">
+        <v>66</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>90</v>
+      </c>
+      <c r="P102" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>7</v>
+      </c>
+      <c r="S102">
+        <v>7</v>
+      </c>
+      <c r="T102">
+        <v>3.5</v>
+      </c>
+      <c r="U102">
+        <v>1.95</v>
+      </c>
+      <c r="V102">
+        <v>3.1</v>
+      </c>
+      <c r="W102">
+        <v>1.48</v>
+      </c>
+      <c r="X102">
+        <v>2.5</v>
+      </c>
+      <c r="Y102">
+        <v>3</v>
+      </c>
+      <c r="Z102">
+        <v>1.36</v>
+      </c>
+      <c r="AA102">
+        <v>7.5</v>
+      </c>
+      <c r="AB102">
+        <v>1.07</v>
+      </c>
+      <c r="AC102">
+        <v>2.47</v>
+      </c>
+      <c r="AD102">
+        <v>3.4</v>
+      </c>
+      <c r="AE102">
+        <v>2.63</v>
+      </c>
+      <c r="AF102">
+        <v>1.08</v>
+      </c>
+      <c r="AG102">
+        <v>7</v>
+      </c>
+      <c r="AH102">
+        <v>1.4</v>
+      </c>
+      <c r="AI102">
+        <v>2.8</v>
+      </c>
+      <c r="AJ102">
+        <v>2.02</v>
+      </c>
+      <c r="AK102">
+        <v>1.7</v>
+      </c>
+      <c r="AL102">
+        <v>1.9</v>
+      </c>
+      <c r="AM102">
+        <v>1.83</v>
+      </c>
+      <c r="AN102">
+        <v>1.47</v>
+      </c>
+      <c r="AO102">
+        <v>1.28</v>
+      </c>
+      <c r="AP102">
+        <v>1.33</v>
+      </c>
+      <c r="AQ102">
+        <v>1</v>
+      </c>
+      <c r="AR102">
+        <v>1.25</v>
+      </c>
+      <c r="AS102">
+        <v>1</v>
+      </c>
+      <c r="AT102">
+        <v>1.22</v>
+      </c>
+      <c r="AU102">
+        <v>1.74</v>
+      </c>
+      <c r="AV102">
+        <v>1.28</v>
+      </c>
+      <c r="AW102">
+        <v>3.02</v>
+      </c>
+      <c r="AX102">
+        <v>1.95</v>
+      </c>
+      <c r="AY102">
+        <v>7.5</v>
+      </c>
+      <c r="AZ102">
+        <v>2.1</v>
+      </c>
+      <c r="BA102">
+        <v>1.25</v>
+      </c>
+      <c r="BB102">
+        <v>1.49</v>
+      </c>
+      <c r="BC102">
+        <v>1.86</v>
+      </c>
+      <c r="BD102">
+        <v>2.39</v>
+      </c>
+      <c r="BE102">
+        <v>3.18</v>
+      </c>
+      <c r="BF102">
+        <v>6</v>
+      </c>
+      <c r="BG102">
+        <v>3</v>
+      </c>
+      <c r="BH102">
+        <v>0</v>
+      </c>
+      <c r="BI102">
+        <v>5</v>
+      </c>
+      <c r="BJ102">
+        <v>6</v>
+      </c>
+      <c r="BK102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>5139587</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45084.3125</v>
+      </c>
+      <c r="F103">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>149</v>
+      </c>
+      <c r="P103" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q103">
+        <v>10</v>
+      </c>
+      <c r="R103">
+        <v>5</v>
+      </c>
+      <c r="S103">
+        <v>15</v>
+      </c>
+      <c r="T103">
+        <v>3.2</v>
+      </c>
+      <c r="U103">
+        <v>1.95</v>
+      </c>
+      <c r="V103">
+        <v>3.4</v>
+      </c>
+      <c r="W103">
+        <v>1.48</v>
+      </c>
+      <c r="X103">
+        <v>2.5</v>
+      </c>
+      <c r="Y103">
+        <v>3</v>
+      </c>
+      <c r="Z103">
+        <v>1.36</v>
+      </c>
+      <c r="AA103">
+        <v>7.5</v>
+      </c>
+      <c r="AB103">
+        <v>1.07</v>
+      </c>
+      <c r="AC103">
+        <v>2.35</v>
+      </c>
+      <c r="AD103">
+        <v>3.35</v>
+      </c>
+      <c r="AE103">
+        <v>2.8</v>
+      </c>
+      <c r="AF103">
+        <v>1.08</v>
+      </c>
+      <c r="AG103">
+        <v>7</v>
+      </c>
+      <c r="AH103">
+        <v>1.4</v>
+      </c>
+      <c r="AI103">
+        <v>2.8</v>
+      </c>
+      <c r="AJ103">
+        <v>1.95</v>
+      </c>
+      <c r="AK103">
+        <v>1.75</v>
+      </c>
+      <c r="AL103">
+        <v>1.9</v>
+      </c>
+      <c r="AM103">
+        <v>1.83</v>
+      </c>
+      <c r="AN103">
+        <v>1.36</v>
+      </c>
+      <c r="AO103">
+        <v>1.28</v>
+      </c>
+      <c r="AP103">
+        <v>1.42</v>
+      </c>
+      <c r="AQ103">
+        <v>0.71</v>
+      </c>
+      <c r="AR103">
+        <v>1.13</v>
+      </c>
+      <c r="AS103">
+        <v>0.63</v>
+      </c>
+      <c r="AT103">
+        <v>1.33</v>
+      </c>
+      <c r="AU103">
+        <v>1.15</v>
+      </c>
+      <c r="AV103">
+        <v>1.41</v>
+      </c>
+      <c r="AW103">
+        <v>2.56</v>
+      </c>
+      <c r="AX103">
+        <v>1.75</v>
+      </c>
+      <c r="AY103">
+        <v>7.5</v>
+      </c>
+      <c r="AZ103">
+        <v>2.45</v>
+      </c>
+      <c r="BA103">
+        <v>1.34</v>
+      </c>
+      <c r="BB103">
+        <v>1.64</v>
+      </c>
+      <c r="BC103">
+        <v>2.11</v>
+      </c>
+      <c r="BD103">
+        <v>2.8</v>
+      </c>
+      <c r="BE103">
+        <v>3.88</v>
+      </c>
+      <c r="BF103">
+        <v>6</v>
+      </c>
+      <c r="BG103">
+        <v>4</v>
+      </c>
+      <c r="BH103">
+        <v>4</v>
+      </c>
+      <c r="BI103">
+        <v>6</v>
+      </c>
+      <c r="BJ103">
+        <v>10</v>
+      </c>
+      <c r="BK103">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -464,6 +464,12 @@
   </si>
   <si>
     <t>['49']</t>
+  </si>
+  <si>
+    <t>['50', '90', '90+9']</t>
+  </si>
+  <si>
+    <t>['32', '53', '54', '71', '90+4']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -1005,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK103"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1255,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1336,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT2">
         <v>1</v>
@@ -1440,7 +1446,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1631,7 +1637,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1721,7 +1727,7 @@
         <v>0.13</v>
       </c>
       <c r="AT4">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1912,7 +1918,7 @@
         <v>1.38</v>
       </c>
       <c r="AT5">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2013,7 +2019,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2291,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT7">
         <v>0.78</v>
@@ -2395,7 +2401,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2586,7 +2592,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2777,7 +2783,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2864,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT10">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3159,7 +3165,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3350,7 +3356,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3819,7 +3825,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT15">
         <v>1.25</v>
@@ -3923,7 +3929,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4114,7 +4120,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4395,7 +4401,7 @@
         <v>1.78</v>
       </c>
       <c r="AT18">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU18">
         <v>1.34</v>
@@ -4586,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU19">
         <v>2.72</v>
@@ -5069,7 +5075,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5347,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5451,7 +5457,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5729,10 +5735,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT25">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU25">
         <v>0.91</v>
@@ -5833,7 +5839,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6305,7 +6311,7 @@
         <v>1.56</v>
       </c>
       <c r="AT28">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -6406,7 +6412,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6493,7 +6499,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT29">
         <v>1.22</v>
@@ -6597,7 +6603,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6788,7 +6794,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6979,7 +6985,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7066,7 +7072,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT32">
         <v>0.78</v>
@@ -7451,7 +7457,7 @@
         <v>2.22</v>
       </c>
       <c r="AT34">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU34">
         <v>1.91</v>
@@ -7552,7 +7558,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7934,7 +7940,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8024,7 +8030,7 @@
         <v>0.63</v>
       </c>
       <c r="AT37">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU37">
         <v>1.09</v>
@@ -8125,7 +8131,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8215,7 +8221,7 @@
         <v>0.13</v>
       </c>
       <c r="AT38">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU38">
         <v>1.57</v>
@@ -8316,7 +8322,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8698,7 +8704,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8976,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT42">
         <v>2.33</v>
@@ -9080,7 +9086,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9167,10 +9173,10 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT43">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU43">
         <v>1.37</v>
@@ -9271,7 +9277,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9549,7 +9555,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT45">
         <v>1.33</v>
@@ -9653,7 +9659,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9740,7 +9746,7 @@
         <v>2.33</v>
       </c>
       <c r="AS46">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT46">
         <v>1.25</v>
@@ -9844,7 +9850,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9934,7 +9940,7 @@
         <v>1</v>
       </c>
       <c r="AT47">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU47">
         <v>1.86</v>
@@ -10226,7 +10232,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10799,7 +10805,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -10889,7 +10895,7 @@
         <v>1.56</v>
       </c>
       <c r="AT52">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU52">
         <v>1.88</v>
@@ -10990,7 +10996,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11181,7 +11187,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11372,7 +11378,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11563,7 +11569,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11754,7 +11760,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11945,7 +11951,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12032,10 +12038,10 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT58">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU58">
         <v>1.47</v>
@@ -12136,7 +12142,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12327,7 +12333,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12605,10 +12611,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT61">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU61">
         <v>1.43</v>
@@ -12709,7 +12715,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12796,7 +12802,7 @@
         <v>2.4</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT62">
         <v>2.33</v>
@@ -12900,7 +12906,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13091,7 +13097,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13942,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT68">
         <v>0.78</v>
@@ -14046,7 +14052,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14133,7 +14139,7 @@
         <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT69">
         <v>1.25</v>
@@ -14327,7 +14333,7 @@
         <v>2.13</v>
       </c>
       <c r="AT70">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU70">
         <v>1.64</v>
@@ -14619,7 +14625,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14810,7 +14816,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -14897,10 +14903,10 @@
         <v>0.5</v>
       </c>
       <c r="AS73">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT73">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU73">
         <v>1.42</v>
@@ -15001,7 +15007,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15192,7 +15198,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15383,7 +15389,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15574,7 +15580,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15661,7 +15667,7 @@
         <v>1.67</v>
       </c>
       <c r="AS77">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT77">
         <v>1.22</v>
@@ -15956,7 +15962,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16046,7 +16052,7 @@
         <v>1.3</v>
       </c>
       <c r="AT79">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU79">
         <v>1.46</v>
@@ -16147,7 +16153,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16237,7 +16243,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU80">
         <v>1.71</v>
@@ -16338,7 +16344,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16428,7 +16434,7 @@
         <v>2.13</v>
       </c>
       <c r="AT81">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU81">
         <v>1.7</v>
@@ -16616,7 +16622,7 @@
         <v>1.29</v>
       </c>
       <c r="AS82">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT82">
         <v>1.33</v>
@@ -16911,7 +16917,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17102,7 +17108,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17192,7 +17198,7 @@
         <v>1.78</v>
       </c>
       <c r="AT85">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU85">
         <v>1.45</v>
@@ -17293,7 +17299,7 @@
         <v>135</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17484,7 +17490,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17571,7 +17577,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT87">
         <v>1.25</v>
@@ -17866,7 +17872,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -17956,7 +17962,7 @@
         <v>1.3</v>
       </c>
       <c r="AT89">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18057,7 +18063,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18144,7 +18150,7 @@
         <v>1.14</v>
       </c>
       <c r="AS90">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT90">
         <v>1.33</v>
@@ -18630,7 +18636,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18720,7 +18726,7 @@
         <v>0.13</v>
       </c>
       <c r="AT93">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU93">
         <v>1.38</v>
@@ -18821,7 +18827,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19012,7 +19018,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19203,7 +19209,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19290,7 +19296,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT96">
         <v>1.25</v>
@@ -19481,7 +19487,7 @@
         <v>1.43</v>
       </c>
       <c r="AS97">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT97">
         <v>1.22</v>
@@ -19585,7 +19591,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19776,7 +19782,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19866,7 +19872,7 @@
         <v>2.22</v>
       </c>
       <c r="AT99">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU99">
         <v>1.68</v>
@@ -19967,7 +19973,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20540,7 +20546,7 @@
         <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -20682,6 +20688,579 @@
       </c>
       <c r="BK103">
         <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>5139588</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45087.1875</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>73</v>
+      </c>
+      <c r="H104" t="s">
+        <v>72</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104" t="s">
+        <v>150</v>
+      </c>
+      <c r="P104" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q104">
+        <v>5</v>
+      </c>
+      <c r="R104">
+        <v>7</v>
+      </c>
+      <c r="S104">
+        <v>12</v>
+      </c>
+      <c r="T104">
+        <v>2.6</v>
+      </c>
+      <c r="U104">
+        <v>2.2</v>
+      </c>
+      <c r="V104">
+        <v>3.5</v>
+      </c>
+      <c r="W104">
+        <v>1.36</v>
+      </c>
+      <c r="X104">
+        <v>3</v>
+      </c>
+      <c r="Y104">
+        <v>2.62</v>
+      </c>
+      <c r="Z104">
+        <v>1.44</v>
+      </c>
+      <c r="AA104">
+        <v>6</v>
+      </c>
+      <c r="AB104">
+        <v>1.11</v>
+      </c>
+      <c r="AC104">
+        <v>2.1</v>
+      </c>
+      <c r="AD104">
+        <v>3.56</v>
+      </c>
+      <c r="AE104">
+        <v>3.36</v>
+      </c>
+      <c r="AF104">
+        <v>1.05</v>
+      </c>
+      <c r="AG104">
+        <v>9</v>
+      </c>
+      <c r="AH104">
+        <v>1.29</v>
+      </c>
+      <c r="AI104">
+        <v>3.5</v>
+      </c>
+      <c r="AJ104">
+        <v>1.76</v>
+      </c>
+      <c r="AK104">
+        <v>1.88</v>
+      </c>
+      <c r="AL104">
+        <v>1.7</v>
+      </c>
+      <c r="AM104">
+        <v>2.05</v>
+      </c>
+      <c r="AN104">
+        <v>1.3</v>
+      </c>
+      <c r="AO104">
+        <v>1.29</v>
+      </c>
+      <c r="AP104">
+        <v>1.7</v>
+      </c>
+      <c r="AQ104">
+        <v>1.5</v>
+      </c>
+      <c r="AR104">
+        <v>0.71</v>
+      </c>
+      <c r="AS104">
+        <v>1.67</v>
+      </c>
+      <c r="AT104">
+        <v>0.63</v>
+      </c>
+      <c r="AU104">
+        <v>1.37</v>
+      </c>
+      <c r="AV104">
+        <v>1.41</v>
+      </c>
+      <c r="AW104">
+        <v>2.78</v>
+      </c>
+      <c r="AX104">
+        <v>1.51</v>
+      </c>
+      <c r="AY104">
+        <v>8</v>
+      </c>
+      <c r="AZ104">
+        <v>3.09</v>
+      </c>
+      <c r="BA104">
+        <v>1.39</v>
+      </c>
+      <c r="BB104">
+        <v>1.72</v>
+      </c>
+      <c r="BC104">
+        <v>2.21</v>
+      </c>
+      <c r="BD104">
+        <v>2.93</v>
+      </c>
+      <c r="BE104">
+        <v>4.24</v>
+      </c>
+      <c r="BF104">
+        <v>6</v>
+      </c>
+      <c r="BG104">
+        <v>7</v>
+      </c>
+      <c r="BH104">
+        <v>6</v>
+      </c>
+      <c r="BI104">
+        <v>4</v>
+      </c>
+      <c r="BJ104">
+        <v>12</v>
+      </c>
+      <c r="BK104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>5139589</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45087.25</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>65</v>
+      </c>
+      <c r="H105" t="s">
+        <v>68</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>5</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>6</v>
+      </c>
+      <c r="O105" t="s">
+        <v>151</v>
+      </c>
+      <c r="P105" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>6</v>
+      </c>
+      <c r="S105">
+        <v>7</v>
+      </c>
+      <c r="T105">
+        <v>2.1</v>
+      </c>
+      <c r="U105">
+        <v>2.38</v>
+      </c>
+      <c r="V105">
+        <v>4.4</v>
+      </c>
+      <c r="W105">
+        <v>1.3</v>
+      </c>
+      <c r="X105">
+        <v>3.4</v>
+      </c>
+      <c r="Y105">
+        <v>2.3</v>
+      </c>
+      <c r="Z105">
+        <v>1.57</v>
+      </c>
+      <c r="AA105">
+        <v>5</v>
+      </c>
+      <c r="AB105">
+        <v>1.14</v>
+      </c>
+      <c r="AC105">
+        <v>1.67</v>
+      </c>
+      <c r="AD105">
+        <v>4.1</v>
+      </c>
+      <c r="AE105">
+        <v>4.74</v>
+      </c>
+      <c r="AF105">
+        <v>1.03</v>
+      </c>
+      <c r="AG105">
+        <v>11</v>
+      </c>
+      <c r="AH105">
+        <v>1.22</v>
+      </c>
+      <c r="AI105">
+        <v>4</v>
+      </c>
+      <c r="AJ105">
+        <v>1.61</v>
+      </c>
+      <c r="AK105">
+        <v>2.09</v>
+      </c>
+      <c r="AL105">
+        <v>1.67</v>
+      </c>
+      <c r="AM105">
+        <v>2.1</v>
+      </c>
+      <c r="AN105">
+        <v>1.15</v>
+      </c>
+      <c r="AO105">
+        <v>1.25</v>
+      </c>
+      <c r="AP105">
+        <v>2.2</v>
+      </c>
+      <c r="AQ105">
+        <v>2.5</v>
+      </c>
+      <c r="AR105">
+        <v>1.89</v>
+      </c>
+      <c r="AS105">
+        <v>2.56</v>
+      </c>
+      <c r="AT105">
+        <v>1.7</v>
+      </c>
+      <c r="AU105">
+        <v>1.7</v>
+      </c>
+      <c r="AV105">
+        <v>1.53</v>
+      </c>
+      <c r="AW105">
+        <v>3.23</v>
+      </c>
+      <c r="AX105">
+        <v>1.55</v>
+      </c>
+      <c r="AY105">
+        <v>8</v>
+      </c>
+      <c r="AZ105">
+        <v>3.02</v>
+      </c>
+      <c r="BA105">
+        <v>1.4</v>
+      </c>
+      <c r="BB105">
+        <v>1.73</v>
+      </c>
+      <c r="BC105">
+        <v>2.19</v>
+      </c>
+      <c r="BD105">
+        <v>2.93</v>
+      </c>
+      <c r="BE105">
+        <v>4.1</v>
+      </c>
+      <c r="BF105">
+        <v>8</v>
+      </c>
+      <c r="BG105">
+        <v>6</v>
+      </c>
+      <c r="BH105">
+        <v>5</v>
+      </c>
+      <c r="BI105">
+        <v>7</v>
+      </c>
+      <c r="BJ105">
+        <v>13</v>
+      </c>
+      <c r="BK105">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>5139590</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45087.33333333334</v>
+      </c>
+      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" t="s">
+        <v>76</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>93</v>
+      </c>
+      <c r="P106" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q106">
+        <v>7</v>
+      </c>
+      <c r="R106">
+        <v>4</v>
+      </c>
+      <c r="S106">
+        <v>11</v>
+      </c>
+      <c r="T106">
+        <v>3</v>
+      </c>
+      <c r="U106">
+        <v>2.1</v>
+      </c>
+      <c r="V106">
+        <v>3.2</v>
+      </c>
+      <c r="W106">
+        <v>1.36</v>
+      </c>
+      <c r="X106">
+        <v>3</v>
+      </c>
+      <c r="Y106">
+        <v>2.75</v>
+      </c>
+      <c r="Z106">
+        <v>1.4</v>
+      </c>
+      <c r="AA106">
+        <v>6.5</v>
+      </c>
+      <c r="AB106">
+        <v>1.1</v>
+      </c>
+      <c r="AC106">
+        <v>2.51</v>
+      </c>
+      <c r="AD106">
+        <v>3.44</v>
+      </c>
+      <c r="AE106">
+        <v>2.72</v>
+      </c>
+      <c r="AF106">
+        <v>1.06</v>
+      </c>
+      <c r="AG106">
+        <v>8</v>
+      </c>
+      <c r="AH106">
+        <v>1.3</v>
+      </c>
+      <c r="AI106">
+        <v>3.4</v>
+      </c>
+      <c r="AJ106">
+        <v>1.85</v>
+      </c>
+      <c r="AK106">
+        <v>1.79</v>
+      </c>
+      <c r="AL106">
+        <v>1.73</v>
+      </c>
+      <c r="AM106">
+        <v>2</v>
+      </c>
+      <c r="AN106">
+        <v>1.44</v>
+      </c>
+      <c r="AO106">
+        <v>1.3</v>
+      </c>
+      <c r="AP106">
+        <v>1.5</v>
+      </c>
+      <c r="AQ106">
+        <v>1.63</v>
+      </c>
+      <c r="AR106">
+        <v>1.25</v>
+      </c>
+      <c r="AS106">
+        <v>1.56</v>
+      </c>
+      <c r="AT106">
+        <v>1.22</v>
+      </c>
+      <c r="AU106">
+        <v>1.63</v>
+      </c>
+      <c r="AV106">
+        <v>1.43</v>
+      </c>
+      <c r="AW106">
+        <v>3.06</v>
+      </c>
+      <c r="AX106">
+        <v>1.95</v>
+      </c>
+      <c r="AY106">
+        <v>7.5</v>
+      </c>
+      <c r="AZ106">
+        <v>2.1</v>
+      </c>
+      <c r="BA106">
+        <v>1.42</v>
+      </c>
+      <c r="BB106">
+        <v>1.78</v>
+      </c>
+      <c r="BC106">
+        <v>2.29</v>
+      </c>
+      <c r="BD106">
+        <v>3.08</v>
+      </c>
+      <c r="BE106">
+        <v>4.5</v>
+      </c>
+      <c r="BF106">
+        <v>4</v>
+      </c>
+      <c r="BG106">
+        <v>7</v>
+      </c>
+      <c r="BH106">
+        <v>5</v>
+      </c>
+      <c r="BI106">
+        <v>4</v>
+      </c>
+      <c r="BJ106">
+        <v>9</v>
+      </c>
+      <c r="BK106">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,9 @@
     <t>['32', '53', '54', '71', '90+4']</t>
   </si>
   <si>
+    <t>['46']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -650,6 +653,12 @@
   </si>
   <si>
     <t>['27', '60']</t>
+  </si>
+  <si>
+    <t>['59', '78']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,7 +1264,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1345,7 +1354,7 @@
         <v>2.56</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1446,7 +1455,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1533,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT3">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1637,7 +1646,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1724,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AT4">
         <v>1.22</v>
@@ -2019,7 +2028,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2401,7 +2410,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2592,7 +2601,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2682,7 +2691,7 @@
         <v>1.3</v>
       </c>
       <c r="AT9">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2783,7 +2792,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3165,7 +3174,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3252,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT12">
         <v>2.33</v>
@@ -3356,7 +3365,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3828,7 +3837,7 @@
         <v>1.56</v>
       </c>
       <c r="AT15">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU15">
         <v>1.61</v>
@@ -3929,7 +3938,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4016,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT16">
         <v>1.33</v>
@@ -4120,7 +4129,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4207,7 +4216,7 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>2.33</v>
@@ -4974,7 +4983,7 @@
         <v>1.56</v>
       </c>
       <c r="AT21">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU21">
         <v>1.25</v>
@@ -5075,7 +5084,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5356,7 +5365,7 @@
         <v>1.67</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU23">
         <v>1.42</v>
@@ -5457,7 +5466,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5544,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AT24">
         <v>1.33</v>
@@ -5839,7 +5848,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -5929,7 +5938,7 @@
         <v>1.78</v>
       </c>
       <c r="AT26">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU26">
         <v>1.47</v>
@@ -6412,7 +6421,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6603,7 +6612,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6794,7 +6803,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6881,7 +6890,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AT31">
         <v>0.78</v>
@@ -6985,7 +6994,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7263,7 +7272,7 @@
         <v>0.67</v>
       </c>
       <c r="AS33">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT33">
         <v>1.33</v>
@@ -7558,7 +7567,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7839,7 +7848,7 @@
         <v>1.78</v>
       </c>
       <c r="AT36">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU36">
         <v>1.35</v>
@@ -7940,7 +7949,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8027,7 +8036,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT37">
         <v>1.7</v>
@@ -8131,7 +8140,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8218,7 +8227,7 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AT38">
         <v>1.7</v>
@@ -8322,7 +8331,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8603,7 +8612,7 @@
         <v>1.3</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU40">
         <v>1.41</v>
@@ -8704,7 +8713,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8791,10 +8800,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT41">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU41">
         <v>1.19</v>
@@ -9086,7 +9095,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9277,7 +9286,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9364,7 +9373,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT44">
         <v>0.78</v>
@@ -9659,7 +9668,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9749,7 +9758,7 @@
         <v>2.56</v>
       </c>
       <c r="AT46">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU46">
         <v>1.37</v>
@@ -9850,7 +9859,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10232,7 +10241,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10322,7 +10331,7 @@
         <v>1.38</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU49">
         <v>1.84</v>
@@ -10805,7 +10814,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -10996,7 +11005,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11083,7 +11092,7 @@
         <v>1.75</v>
       </c>
       <c r="AS53">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT53">
         <v>1.22</v>
@@ -11187,7 +11196,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11378,7 +11387,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11569,7 +11578,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11760,7 +11769,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11951,7 +11960,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12142,7 +12151,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12232,7 +12241,7 @@
         <v>2.22</v>
       </c>
       <c r="AT59">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU59">
         <v>1.64</v>
@@ -12333,7 +12342,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12420,7 +12429,7 @@
         <v>0.6</v>
       </c>
       <c r="AS60">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AT60">
         <v>1.33</v>
@@ -12715,7 +12724,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12906,7 +12915,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -12993,10 +13002,10 @@
         <v>0.75</v>
       </c>
       <c r="AS63">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU63">
         <v>1.63</v>
@@ -13097,7 +13106,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13378,7 +13387,7 @@
         <v>1.38</v>
       </c>
       <c r="AT65">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU65">
         <v>1.82</v>
@@ -14052,7 +14061,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14142,7 +14151,7 @@
         <v>1.67</v>
       </c>
       <c r="AT69">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU69">
         <v>1.42</v>
@@ -14330,7 +14339,7 @@
         <v>1.2</v>
       </c>
       <c r="AS70">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT70">
         <v>1.22</v>
@@ -14524,7 +14533,7 @@
         <v>1.38</v>
       </c>
       <c r="AT71">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU71">
         <v>1.79</v>
@@ -14625,7 +14634,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14712,10 +14721,10 @@
         <v>0.8</v>
       </c>
       <c r="AS72">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU72">
         <v>1.54</v>
@@ -14816,7 +14825,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15007,7 +15016,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15198,7 +15207,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15389,7 +15398,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15476,7 +15485,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT76">
         <v>0.78</v>
@@ -15580,7 +15589,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15861,7 +15870,7 @@
         <v>1</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU78">
         <v>1.73</v>
@@ -15962,7 +15971,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16153,7 +16162,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16344,7 +16353,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16431,7 +16440,7 @@
         <v>2.29</v>
       </c>
       <c r="AS81">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT81">
         <v>1.7</v>
@@ -16813,10 +16822,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT83">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU83">
         <v>1.22</v>
@@ -16917,7 +16926,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17004,7 +17013,7 @@
         <v>2.5</v>
       </c>
       <c r="AS84">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AT84">
         <v>2.33</v>
@@ -17108,7 +17117,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17299,7 +17308,7 @@
         <v>135</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17490,7 +17499,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17580,7 +17589,7 @@
         <v>1.67</v>
       </c>
       <c r="AT87">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU87">
         <v>1.37</v>
@@ -17768,7 +17777,7 @@
         <v>0.86</v>
       </c>
       <c r="AS88">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT88">
         <v>0.78</v>
@@ -17872,7 +17881,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -18063,7 +18072,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18344,7 +18353,7 @@
         <v>2.22</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU91">
         <v>1.6</v>
@@ -18636,7 +18645,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18723,7 +18732,7 @@
         <v>0.33</v>
       </c>
       <c r="AS93">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AT93">
         <v>0.63</v>
@@ -18827,7 +18836,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19018,7 +19027,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19108,7 +19117,7 @@
         <v>1.56</v>
       </c>
       <c r="AT95">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU95">
         <v>1.9</v>
@@ -19209,7 +19218,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19299,7 +19308,7 @@
         <v>1.56</v>
       </c>
       <c r="AT96">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU96">
         <v>1.62</v>
@@ -19591,7 +19600,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19782,7 +19791,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19973,7 +19982,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20546,7 +20555,7 @@
         <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -20633,7 +20642,7 @@
         <v>1.13</v>
       </c>
       <c r="AS103">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT103">
         <v>1.33</v>
@@ -20737,7 +20746,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20928,7 +20937,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21119,7 +21128,7 @@
         <v>93</v>
       </c>
       <c r="P106" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21261,6 +21270,579 @@
       </c>
       <c r="BK106">
         <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>5139591</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45088.1875</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>75</v>
+      </c>
+      <c r="H107" t="s">
+        <v>74</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>152</v>
+      </c>
+      <c r="P107" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q107">
+        <v>4</v>
+      </c>
+      <c r="R107">
+        <v>5</v>
+      </c>
+      <c r="S107">
+        <v>9</v>
+      </c>
+      <c r="T107">
+        <v>3.75</v>
+      </c>
+      <c r="U107">
+        <v>2.05</v>
+      </c>
+      <c r="V107">
+        <v>3</v>
+      </c>
+      <c r="W107">
+        <v>1.44</v>
+      </c>
+      <c r="X107">
+        <v>2.63</v>
+      </c>
+      <c r="Y107">
+        <v>3.25</v>
+      </c>
+      <c r="Z107">
+        <v>1.33</v>
+      </c>
+      <c r="AA107">
+        <v>9</v>
+      </c>
+      <c r="AB107">
+        <v>1.07</v>
+      </c>
+      <c r="AC107">
+        <v>3.4</v>
+      </c>
+      <c r="AD107">
+        <v>3.3</v>
+      </c>
+      <c r="AE107">
+        <v>2.09</v>
+      </c>
+      <c r="AF107">
+        <v>1.06</v>
+      </c>
+      <c r="AG107">
+        <v>10</v>
+      </c>
+      <c r="AH107">
+        <v>1.35</v>
+      </c>
+      <c r="AI107">
+        <v>2.95</v>
+      </c>
+      <c r="AJ107">
+        <v>2.08</v>
+      </c>
+      <c r="AK107">
+        <v>1.7</v>
+      </c>
+      <c r="AL107">
+        <v>1.86</v>
+      </c>
+      <c r="AM107">
+        <v>1.9</v>
+      </c>
+      <c r="AN107">
+        <v>1.62</v>
+      </c>
+      <c r="AO107">
+        <v>1.27</v>
+      </c>
+      <c r="AP107">
+        <v>1.38</v>
+      </c>
+      <c r="AQ107">
+        <v>0.63</v>
+      </c>
+      <c r="AR107">
+        <v>1</v>
+      </c>
+      <c r="AS107">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT107">
+        <v>1.22</v>
+      </c>
+      <c r="AU107">
+        <v>1.23</v>
+      </c>
+      <c r="AV107">
+        <v>1.63</v>
+      </c>
+      <c r="AW107">
+        <v>2.86</v>
+      </c>
+      <c r="AX107">
+        <v>2</v>
+      </c>
+      <c r="AY107">
+        <v>7.5</v>
+      </c>
+      <c r="AZ107">
+        <v>2.1</v>
+      </c>
+      <c r="BA107">
+        <v>1.34</v>
+      </c>
+      <c r="BB107">
+        <v>1.64</v>
+      </c>
+      <c r="BC107">
+        <v>2.13</v>
+      </c>
+      <c r="BD107">
+        <v>2.84</v>
+      </c>
+      <c r="BE107">
+        <v>3.96</v>
+      </c>
+      <c r="BF107">
+        <v>3</v>
+      </c>
+      <c r="BG107">
+        <v>10</v>
+      </c>
+      <c r="BH107">
+        <v>3</v>
+      </c>
+      <c r="BI107">
+        <v>2</v>
+      </c>
+      <c r="BJ107">
+        <v>6</v>
+      </c>
+      <c r="BK107">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>5139592</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45088.25</v>
+      </c>
+      <c r="F108">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s">
+        <v>66</v>
+      </c>
+      <c r="H108" t="s">
+        <v>69</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>125</v>
+      </c>
+      <c r="P108" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q108">
+        <v>3</v>
+      </c>
+      <c r="R108">
+        <v>7</v>
+      </c>
+      <c r="S108">
+        <v>10</v>
+      </c>
+      <c r="T108">
+        <v>3.25</v>
+      </c>
+      <c r="U108">
+        <v>2.05</v>
+      </c>
+      <c r="V108">
+        <v>3.5</v>
+      </c>
+      <c r="W108">
+        <v>1.47</v>
+      </c>
+      <c r="X108">
+        <v>2.58</v>
+      </c>
+      <c r="Y108">
+        <v>3.22</v>
+      </c>
+      <c r="Z108">
+        <v>1.32</v>
+      </c>
+      <c r="AA108">
+        <v>8.5</v>
+      </c>
+      <c r="AB108">
+        <v>1.05</v>
+      </c>
+      <c r="AC108">
+        <v>2.49</v>
+      </c>
+      <c r="AD108">
+        <v>3.2</v>
+      </c>
+      <c r="AE108">
+        <v>2.7</v>
+      </c>
+      <c r="AF108">
+        <v>1.06</v>
+      </c>
+      <c r="AG108">
+        <v>9.25</v>
+      </c>
+      <c r="AH108">
+        <v>1.35</v>
+      </c>
+      <c r="AI108">
+        <v>2.9</v>
+      </c>
+      <c r="AJ108">
+        <v>2.11</v>
+      </c>
+      <c r="AK108">
+        <v>1.69</v>
+      </c>
+      <c r="AL108">
+        <v>1.89</v>
+      </c>
+      <c r="AM108">
+        <v>1.87</v>
+      </c>
+      <c r="AN108">
+        <v>1.42</v>
+      </c>
+      <c r="AO108">
+        <v>1.3</v>
+      </c>
+      <c r="AP108">
+        <v>1.5</v>
+      </c>
+      <c r="AQ108">
+        <v>2.13</v>
+      </c>
+      <c r="AR108">
+        <v>1.25</v>
+      </c>
+      <c r="AS108">
+        <v>2</v>
+      </c>
+      <c r="AT108">
+        <v>1.22</v>
+      </c>
+      <c r="AU108">
+        <v>1.76</v>
+      </c>
+      <c r="AV108">
+        <v>1.29</v>
+      </c>
+      <c r="AW108">
+        <v>3.05</v>
+      </c>
+      <c r="AX108">
+        <v>2</v>
+      </c>
+      <c r="AY108">
+        <v>7.5</v>
+      </c>
+      <c r="AZ108">
+        <v>2.05</v>
+      </c>
+      <c r="BA108">
+        <v>1.41</v>
+      </c>
+      <c r="BB108">
+        <v>1.76</v>
+      </c>
+      <c r="BC108">
+        <v>2.27</v>
+      </c>
+      <c r="BD108">
+        <v>3.04</v>
+      </c>
+      <c r="BE108">
+        <v>4.4</v>
+      </c>
+      <c r="BF108">
+        <v>3</v>
+      </c>
+      <c r="BG108">
+        <v>5</v>
+      </c>
+      <c r="BH108">
+        <v>6</v>
+      </c>
+      <c r="BI108">
+        <v>4</v>
+      </c>
+      <c r="BJ108">
+        <v>9</v>
+      </c>
+      <c r="BK108">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>5139593</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45088.29166666666</v>
+      </c>
+      <c r="F109">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s">
+        <v>67</v>
+      </c>
+      <c r="H109" t="s">
+        <v>71</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109" t="s">
+        <v>79</v>
+      </c>
+      <c r="P109" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q109">
+        <v>8</v>
+      </c>
+      <c r="R109">
+        <v>5</v>
+      </c>
+      <c r="S109">
+        <v>13</v>
+      </c>
+      <c r="T109">
+        <v>3.5</v>
+      </c>
+      <c r="U109">
+        <v>2.06</v>
+      </c>
+      <c r="V109">
+        <v>3.13</v>
+      </c>
+      <c r="W109">
+        <v>1.44</v>
+      </c>
+      <c r="X109">
+        <v>2.68</v>
+      </c>
+      <c r="Y109">
+        <v>3.05</v>
+      </c>
+      <c r="Z109">
+        <v>1.35</v>
+      </c>
+      <c r="AA109">
+        <v>8</v>
+      </c>
+      <c r="AB109">
+        <v>1.06</v>
+      </c>
+      <c r="AC109">
+        <v>2.9</v>
+      </c>
+      <c r="AD109">
+        <v>3.3</v>
+      </c>
+      <c r="AE109">
+        <v>2.33</v>
+      </c>
+      <c r="AF109">
+        <v>1.05</v>
+      </c>
+      <c r="AG109">
+        <v>8</v>
+      </c>
+      <c r="AH109">
+        <v>1.36</v>
+      </c>
+      <c r="AI109">
+        <v>3</v>
+      </c>
+      <c r="AJ109">
+        <v>2.12</v>
+      </c>
+      <c r="AK109">
+        <v>1.69</v>
+      </c>
+      <c r="AL109">
+        <v>1.83</v>
+      </c>
+      <c r="AM109">
+        <v>1.93</v>
+      </c>
+      <c r="AN109">
+        <v>1.4</v>
+      </c>
+      <c r="AO109">
+        <v>1.28</v>
+      </c>
+      <c r="AP109">
+        <v>1.38</v>
+      </c>
+      <c r="AQ109">
+        <v>0.13</v>
+      </c>
+      <c r="AR109">
+        <v>1.25</v>
+      </c>
+      <c r="AS109">
+        <v>0.22</v>
+      </c>
+      <c r="AT109">
+        <v>1.22</v>
+      </c>
+      <c r="AU109">
+        <v>1.41</v>
+      </c>
+      <c r="AV109">
+        <v>1.35</v>
+      </c>
+      <c r="AW109">
+        <v>2.76</v>
+      </c>
+      <c r="AX109">
+        <v>2.2</v>
+      </c>
+      <c r="AY109">
+        <v>7.5</v>
+      </c>
+      <c r="AZ109">
+        <v>1.91</v>
+      </c>
+      <c r="BA109">
+        <v>1.25</v>
+      </c>
+      <c r="BB109">
+        <v>1.49</v>
+      </c>
+      <c r="BC109">
+        <v>1.87</v>
+      </c>
+      <c r="BD109">
+        <v>2.41</v>
+      </c>
+      <c r="BE109">
+        <v>3.28</v>
+      </c>
+      <c r="BF109">
+        <v>2</v>
+      </c>
+      <c r="BG109">
+        <v>4</v>
+      </c>
+      <c r="BH109">
+        <v>3</v>
+      </c>
+      <c r="BI109">
+        <v>8</v>
+      </c>
+      <c r="BJ109">
+        <v>5</v>
+      </c>
+      <c r="BK109">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -21833,16 +21833,16 @@
         <v>4</v>
       </c>
       <c r="BH109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI109">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK109">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,12 @@
     <t>['46']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['3', '66', '90+4']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -557,9 +563,6 @@
   </si>
   <si>
     <t>['51', '74']</t>
-  </si>
-  <si>
-    <t>['76']</t>
   </si>
   <si>
     <t>['22', '51', '72']</t>
@@ -659,6 +662,15 @@
   </si>
   <si>
     <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['26']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK109"/>
+  <dimension ref="A1:BK115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1276,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1351,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT2">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1455,7 +1467,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1646,7 +1658,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1733,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT4">
         <v>1.22</v>
@@ -1924,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
         <v>0.63</v>
@@ -2028,7 +2040,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2118,7 +2130,7 @@
         <v>2.22</v>
       </c>
       <c r="AT6">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2309,7 +2321,7 @@
         <v>1.56</v>
       </c>
       <c r="AT7">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2410,7 +2422,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2497,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT8">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2601,7 +2613,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2688,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT9">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2792,7 +2804,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3174,7 +3186,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3365,7 +3377,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3452,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT13">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3643,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT14">
         <v>0.78</v>
@@ -3837,7 +3849,7 @@
         <v>1.56</v>
       </c>
       <c r="AT15">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU15">
         <v>1.61</v>
@@ -3938,7 +3950,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4028,7 +4040,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT16">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU16">
         <v>1.2</v>
@@ -4129,7 +4141,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4598,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT19">
         <v>1.7</v>
@@ -4792,7 +4804,7 @@
         <v>2.22</v>
       </c>
       <c r="AT20">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU20">
         <v>1.91</v>
@@ -4980,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT21">
         <v>1.22</v>
@@ -5084,7 +5096,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5171,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT22">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU22">
         <v>2.03</v>
@@ -5365,7 +5377,7 @@
         <v>1.67</v>
       </c>
       <c r="AT23">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU23">
         <v>1.42</v>
@@ -5466,7 +5478,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5553,10 +5565,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT24">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU24">
         <v>1.56</v>
@@ -5744,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT25">
         <v>0.63</v>
@@ -5848,7 +5860,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -5938,7 +5950,7 @@
         <v>1.78</v>
       </c>
       <c r="AT26">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU26">
         <v>1.47</v>
@@ -6126,10 +6138,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT27">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU27">
         <v>2.23</v>
@@ -6317,7 +6329,7 @@
         <v>0.5</v>
       </c>
       <c r="AS28">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT28">
         <v>0.63</v>
@@ -6421,7 +6433,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6511,7 +6523,7 @@
         <v>1.56</v>
       </c>
       <c r="AT29">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU29">
         <v>1.53</v>
@@ -6612,7 +6624,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6699,7 +6711,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT30">
         <v>2.33</v>
@@ -6803,7 +6815,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6890,10 +6902,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT31">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -6994,7 +7006,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7081,7 +7093,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT32">
         <v>0.78</v>
@@ -7275,7 +7287,7 @@
         <v>2</v>
       </c>
       <c r="AT33">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU33">
         <v>1.41</v>
@@ -7567,7 +7579,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7654,10 +7666,10 @@
         <v>2</v>
       </c>
       <c r="AS35">
+        <v>1.27</v>
+      </c>
+      <c r="AT35">
         <v>1.3</v>
-      </c>
-      <c r="AT35">
-        <v>1.33</v>
       </c>
       <c r="AU35">
         <v>0.82</v>
@@ -7949,7 +7961,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8140,7 +8152,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8227,7 +8239,7 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT38">
         <v>1.7</v>
@@ -8331,7 +8343,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8421,7 +8433,7 @@
         <v>2.22</v>
       </c>
       <c r="AT39">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU39">
         <v>1.76</v>
@@ -8609,10 +8621,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT40">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU40">
         <v>1.41</v>
@@ -8713,7 +8725,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9095,7 +9107,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9286,7 +9298,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9567,7 +9579,7 @@
         <v>1.67</v>
       </c>
       <c r="AT45">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU45">
         <v>1.34</v>
@@ -9668,7 +9680,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9755,10 +9767,10 @@
         <v>2.33</v>
       </c>
       <c r="AS46">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT46">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU46">
         <v>1.37</v>
@@ -9859,7 +9871,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9946,7 +9958,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT47">
         <v>0.63</v>
@@ -10137,10 +10149,10 @@
         <v>0.67</v>
       </c>
       <c r="AS48">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT48">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU48">
         <v>1.9</v>
@@ -10241,7 +10253,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10328,10 +10340,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT49">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU49">
         <v>1.84</v>
@@ -10519,7 +10531,7 @@
         <v>2.25</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT50">
         <v>2.33</v>
@@ -10814,7 +10826,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -10901,7 +10913,7 @@
         <v>1.75</v>
       </c>
       <c r="AS52">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT52">
         <v>1.7</v>
@@ -11005,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11095,7 +11107,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT53">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU53">
         <v>1.13</v>
@@ -11196,7 +11208,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11286,7 +11298,7 @@
         <v>1.78</v>
       </c>
       <c r="AT54">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU54">
         <v>1.31</v>
@@ -11387,7 +11399,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11474,10 +11486,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT55">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU55">
         <v>1.55</v>
@@ -11578,7 +11590,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11665,10 +11677,10 @@
         <v>1.4</v>
       </c>
       <c r="AS56">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT56">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU56">
         <v>1.5</v>
@@ -11769,7 +11781,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11859,7 +11871,7 @@
         <v>1.78</v>
       </c>
       <c r="AT57">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU57">
         <v>1.37</v>
@@ -11960,7 +11972,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12151,7 +12163,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12342,7 +12354,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12429,10 +12441,10 @@
         <v>0.6</v>
       </c>
       <c r="AS60">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT60">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12620,7 +12632,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT61">
         <v>1.22</v>
@@ -12724,7 +12736,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12915,7 +12927,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13005,7 +13017,7 @@
         <v>2</v>
       </c>
       <c r="AT63">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU63">
         <v>1.63</v>
@@ -13106,7 +13118,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13193,7 +13205,7 @@
         <v>0.2</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT64">
         <v>0.78</v>
@@ -13384,10 +13396,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT65">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU65">
         <v>1.82</v>
@@ -13575,10 +13587,10 @@
         <v>1.2</v>
       </c>
       <c r="AS66">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT66">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU66">
         <v>1.41</v>
@@ -13766,10 +13778,10 @@
         <v>1.4</v>
       </c>
       <c r="AS67">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT67">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -13957,10 +13969,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT68">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU68">
         <v>1.49</v>
@@ -14061,7 +14073,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14151,7 +14163,7 @@
         <v>1.67</v>
       </c>
       <c r="AT69">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU69">
         <v>1.42</v>
@@ -14530,7 +14542,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT71">
         <v>1.22</v>
@@ -14634,7 +14646,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14721,10 +14733,10 @@
         <v>0.8</v>
       </c>
       <c r="AS72">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT72">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU72">
         <v>1.54</v>
@@ -14825,7 +14837,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15016,7 +15028,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15106,7 +15118,7 @@
         <v>2.22</v>
       </c>
       <c r="AT74">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU74">
         <v>1.51</v>
@@ -15207,7 +15219,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15294,10 +15306,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT75">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU75">
         <v>1.94</v>
@@ -15398,7 +15410,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15589,7 +15601,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15676,10 +15688,10 @@
         <v>1.67</v>
       </c>
       <c r="AS77">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT77">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU77">
         <v>1.49</v>
@@ -15867,10 +15879,10 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT78">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU78">
         <v>1.73</v>
@@ -15971,7 +15983,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16058,7 +16070,7 @@
         <v>2.17</v>
       </c>
       <c r="AS79">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT79">
         <v>1.7</v>
@@ -16162,7 +16174,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16249,7 +16261,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT80">
         <v>1.22</v>
@@ -16353,7 +16365,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16634,7 +16646,7 @@
         <v>1.56</v>
       </c>
       <c r="AT82">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU82">
         <v>1.49</v>
@@ -16825,7 +16837,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT83">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU83">
         <v>1.22</v>
@@ -16926,7 +16938,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17013,7 +17025,7 @@
         <v>2.5</v>
       </c>
       <c r="AS84">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT84">
         <v>2.33</v>
@@ -17117,7 +17129,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17308,7 +17320,7 @@
         <v>135</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17395,7 +17407,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT86">
         <v>0.78</v>
@@ -17499,7 +17511,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17780,7 +17792,7 @@
         <v>2</v>
       </c>
       <c r="AT88">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU88">
         <v>1.74</v>
@@ -17881,7 +17893,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -17968,7 +17980,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT89">
         <v>1.22</v>
@@ -18072,7 +18084,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18159,10 +18171,10 @@
         <v>1.14</v>
       </c>
       <c r="AS90">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT90">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -18353,7 +18365,7 @@
         <v>2.22</v>
       </c>
       <c r="AT91">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU91">
         <v>1.6</v>
@@ -18645,7 +18657,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18732,7 +18744,7 @@
         <v>0.33</v>
       </c>
       <c r="AS93">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT93">
         <v>0.63</v>
@@ -18836,7 +18848,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -18923,10 +18935,10 @@
         <v>0.75</v>
       </c>
       <c r="AS94">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU94">
         <v>1.78</v>
@@ -19027,7 +19039,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19114,10 +19126,10 @@
         <v>1.43</v>
       </c>
       <c r="AS95">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT95">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU95">
         <v>1.9</v>
@@ -19218,7 +19230,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19499,7 +19511,7 @@
         <v>1.67</v>
       </c>
       <c r="AT97">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU97">
         <v>1.44</v>
@@ -19600,7 +19612,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19687,7 +19699,7 @@
         <v>2.25</v>
       </c>
       <c r="AS98">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT98">
         <v>2.33</v>
@@ -19791,7 +19803,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19982,7 +19994,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20069,7 +20081,7 @@
         <v>0.88</v>
       </c>
       <c r="AS100">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT100">
         <v>0.78</v>
@@ -20263,7 +20275,7 @@
         <v>1.78</v>
       </c>
       <c r="AT101">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU101">
         <v>1.48</v>
@@ -20451,10 +20463,10 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT102">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU102">
         <v>1.74</v>
@@ -20555,7 +20567,7 @@
         <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -20645,7 +20657,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT103">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU103">
         <v>1.15</v>
@@ -20746,7 +20758,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20937,7 +20949,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21024,7 +21036,7 @@
         <v>1.89</v>
       </c>
       <c r="AS105">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT105">
         <v>1.7</v>
@@ -21128,7 +21140,7 @@
         <v>93</v>
       </c>
       <c r="P106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21319,7 +21331,7 @@
         <v>152</v>
       </c>
       <c r="P107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21409,7 +21421,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT107">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU107">
         <v>1.23</v>
@@ -21510,7 +21522,7 @@
         <v>125</v>
       </c>
       <c r="P108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21600,7 +21612,7 @@
         <v>2</v>
       </c>
       <c r="AT108">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU108">
         <v>1.76</v>
@@ -21788,7 +21800,7 @@
         <v>1.25</v>
       </c>
       <c r="AS109">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT109">
         <v>1.22</v>
@@ -21843,6 +21855,1152 @@
       </c>
       <c r="BK109">
         <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>5139594</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45101.1875</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>67</v>
+      </c>
+      <c r="H110" t="s">
+        <v>66</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" t="s">
+        <v>79</v>
+      </c>
+      <c r="P110" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q110">
+        <v>4</v>
+      </c>
+      <c r="R110">
+        <v>6</v>
+      </c>
+      <c r="S110">
+        <v>10</v>
+      </c>
+      <c r="T110">
+        <v>4</v>
+      </c>
+      <c r="U110">
+        <v>2.1</v>
+      </c>
+      <c r="V110">
+        <v>2.88</v>
+      </c>
+      <c r="W110">
+        <v>1.44</v>
+      </c>
+      <c r="X110">
+        <v>2.63</v>
+      </c>
+      <c r="Y110">
+        <v>3.25</v>
+      </c>
+      <c r="Z110">
+        <v>1.33</v>
+      </c>
+      <c r="AA110">
+        <v>9</v>
+      </c>
+      <c r="AB110">
+        <v>1.07</v>
+      </c>
+      <c r="AC110">
+        <v>3.4</v>
+      </c>
+      <c r="AD110">
+        <v>3.4</v>
+      </c>
+      <c r="AE110">
+        <v>2.06</v>
+      </c>
+      <c r="AF110">
+        <v>1.07</v>
+      </c>
+      <c r="AG110">
+        <v>7.5</v>
+      </c>
+      <c r="AH110">
+        <v>1.36</v>
+      </c>
+      <c r="AI110">
+        <v>3</v>
+      </c>
+      <c r="AJ110">
+        <v>2</v>
+      </c>
+      <c r="AK110">
+        <v>1.67</v>
+      </c>
+      <c r="AL110">
+        <v>1.83</v>
+      </c>
+      <c r="AM110">
+        <v>1.83</v>
+      </c>
+      <c r="AN110">
+        <v>1.6</v>
+      </c>
+      <c r="AO110">
+        <v>1.25</v>
+      </c>
+      <c r="AP110">
+        <v>1.28</v>
+      </c>
+      <c r="AQ110">
+        <v>0.22</v>
+      </c>
+      <c r="AR110">
+        <v>1.22</v>
+      </c>
+      <c r="AS110">
+        <v>0.2</v>
+      </c>
+      <c r="AT110">
+        <v>1.4</v>
+      </c>
+      <c r="AU110">
+        <v>1.33</v>
+      </c>
+      <c r="AV110">
+        <v>1.31</v>
+      </c>
+      <c r="AW110">
+        <v>2.64</v>
+      </c>
+      <c r="AX110">
+        <v>2.45</v>
+      </c>
+      <c r="AY110">
+        <v>7.5</v>
+      </c>
+      <c r="AZ110">
+        <v>1.75</v>
+      </c>
+      <c r="BA110">
+        <v>1.32</v>
+      </c>
+      <c r="BB110">
+        <v>1.57</v>
+      </c>
+      <c r="BC110">
+        <v>1.95</v>
+      </c>
+      <c r="BD110">
+        <v>2.55</v>
+      </c>
+      <c r="BE110">
+        <v>3.65</v>
+      </c>
+      <c r="BF110">
+        <v>4</v>
+      </c>
+      <c r="BG110">
+        <v>3</v>
+      </c>
+      <c r="BH110">
+        <v>4</v>
+      </c>
+      <c r="BI110">
+        <v>7</v>
+      </c>
+      <c r="BJ110">
+        <v>8</v>
+      </c>
+      <c r="BK110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>5139595</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45101.25</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>68</v>
+      </c>
+      <c r="H111" t="s">
+        <v>70</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>153</v>
+      </c>
+      <c r="P111" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q111">
+        <v>3</v>
+      </c>
+      <c r="R111">
+        <v>3</v>
+      </c>
+      <c r="S111">
+        <v>6</v>
+      </c>
+      <c r="T111">
+        <v>2.5</v>
+      </c>
+      <c r="U111">
+        <v>2.3</v>
+      </c>
+      <c r="V111">
+        <v>4</v>
+      </c>
+      <c r="W111">
+        <v>1.33</v>
+      </c>
+      <c r="X111">
+        <v>3.25</v>
+      </c>
+      <c r="Y111">
+        <v>2.5</v>
+      </c>
+      <c r="Z111">
+        <v>1.5</v>
+      </c>
+      <c r="AA111">
+        <v>6</v>
+      </c>
+      <c r="AB111">
+        <v>1.13</v>
+      </c>
+      <c r="AC111">
+        <v>2.02</v>
+      </c>
+      <c r="AD111">
+        <v>3.8</v>
+      </c>
+      <c r="AE111">
+        <v>3.2</v>
+      </c>
+      <c r="AF111">
+        <v>1.04</v>
+      </c>
+      <c r="AG111">
+        <v>10</v>
+      </c>
+      <c r="AH111">
+        <v>1.22</v>
+      </c>
+      <c r="AI111">
+        <v>4</v>
+      </c>
+      <c r="AJ111">
+        <v>1.61</v>
+      </c>
+      <c r="AK111">
+        <v>2.05</v>
+      </c>
+      <c r="AL111">
+        <v>1.62</v>
+      </c>
+      <c r="AM111">
+        <v>2.2</v>
+      </c>
+      <c r="AN111">
+        <v>1.25</v>
+      </c>
+      <c r="AO111">
+        <v>1.22</v>
+      </c>
+      <c r="AP111">
+        <v>1.7</v>
+      </c>
+      <c r="AQ111">
+        <v>1.38</v>
+      </c>
+      <c r="AR111">
+        <v>1.33</v>
+      </c>
+      <c r="AS111">
+        <v>1.33</v>
+      </c>
+      <c r="AT111">
+        <v>1.3</v>
+      </c>
+      <c r="AU111">
+        <v>1.74</v>
+      </c>
+      <c r="AV111">
+        <v>1.41</v>
+      </c>
+      <c r="AW111">
+        <v>3.15</v>
+      </c>
+      <c r="AX111">
+        <v>1.51</v>
+      </c>
+      <c r="AY111">
+        <v>8.5</v>
+      </c>
+      <c r="AZ111">
+        <v>3.16</v>
+      </c>
+      <c r="BA111">
+        <v>1.32</v>
+      </c>
+      <c r="BB111">
+        <v>1.55</v>
+      </c>
+      <c r="BC111">
+        <v>1.93</v>
+      </c>
+      <c r="BD111">
+        <v>2.55</v>
+      </c>
+      <c r="BE111">
+        <v>3.65</v>
+      </c>
+      <c r="BF111">
+        <v>5</v>
+      </c>
+      <c r="BG111">
+        <v>7</v>
+      </c>
+      <c r="BH111">
+        <v>2</v>
+      </c>
+      <c r="BI111">
+        <v>3</v>
+      </c>
+      <c r="BJ111">
+        <v>7</v>
+      </c>
+      <c r="BK111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>5139596</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45101.29166666666</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s">
+        <v>74</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>146</v>
+      </c>
+      <c r="P112" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q112">
+        <v>2</v>
+      </c>
+      <c r="R112">
+        <v>3</v>
+      </c>
+      <c r="S112">
+        <v>5</v>
+      </c>
+      <c r="T112">
+        <v>3.5</v>
+      </c>
+      <c r="U112">
+        <v>2.1</v>
+      </c>
+      <c r="V112">
+        <v>3.1</v>
+      </c>
+      <c r="W112">
+        <v>1.44</v>
+      </c>
+      <c r="X112">
+        <v>2.63</v>
+      </c>
+      <c r="Y112">
+        <v>3</v>
+      </c>
+      <c r="Z112">
+        <v>1.36</v>
+      </c>
+      <c r="AA112">
+        <v>9</v>
+      </c>
+      <c r="AB112">
+        <v>1.07</v>
+      </c>
+      <c r="AC112">
+        <v>2.7</v>
+      </c>
+      <c r="AD112">
+        <v>3.4</v>
+      </c>
+      <c r="AE112">
+        <v>2.47</v>
+      </c>
+      <c r="AF112">
+        <v>1.07</v>
+      </c>
+      <c r="AG112">
+        <v>7.5</v>
+      </c>
+      <c r="AH112">
+        <v>1.33</v>
+      </c>
+      <c r="AI112">
+        <v>3.1</v>
+      </c>
+      <c r="AJ112">
+        <v>2.05</v>
+      </c>
+      <c r="AK112">
+        <v>1.61</v>
+      </c>
+      <c r="AL112">
+        <v>1.8</v>
+      </c>
+      <c r="AM112">
+        <v>1.91</v>
+      </c>
+      <c r="AN112">
+        <v>1.5</v>
+      </c>
+      <c r="AO112">
+        <v>1.25</v>
+      </c>
+      <c r="AP112">
+        <v>1.33</v>
+      </c>
+      <c r="AQ112">
+        <v>1.56</v>
+      </c>
+      <c r="AR112">
+        <v>1.22</v>
+      </c>
+      <c r="AS112">
+        <v>1.7</v>
+      </c>
+      <c r="AT112">
+        <v>1.1</v>
+      </c>
+      <c r="AU112">
+        <v>1.81</v>
+      </c>
+      <c r="AV112">
+        <v>1.66</v>
+      </c>
+      <c r="AW112">
+        <v>3.47</v>
+      </c>
+      <c r="AX112">
+        <v>1.91</v>
+      </c>
+      <c r="AY112">
+        <v>7.5</v>
+      </c>
+      <c r="AZ112">
+        <v>2.2</v>
+      </c>
+      <c r="BA112">
+        <v>1.42</v>
+      </c>
+      <c r="BB112">
+        <v>1.75</v>
+      </c>
+      <c r="BC112">
+        <v>2.25</v>
+      </c>
+      <c r="BD112">
+        <v>3</v>
+      </c>
+      <c r="BE112">
+        <v>4.55</v>
+      </c>
+      <c r="BF112">
+        <v>6</v>
+      </c>
+      <c r="BG112">
+        <v>4</v>
+      </c>
+      <c r="BH112">
+        <v>5</v>
+      </c>
+      <c r="BI112">
+        <v>2</v>
+      </c>
+      <c r="BJ112">
+        <v>11</v>
+      </c>
+      <c r="BK112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>5139597</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45101.3125</v>
+      </c>
+      <c r="F113">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>65</v>
+      </c>
+      <c r="H113" t="s">
+        <v>73</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>154</v>
+      </c>
+      <c r="P113" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q113">
+        <v>6</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>6</v>
+      </c>
+      <c r="T113">
+        <v>2.1</v>
+      </c>
+      <c r="U113">
+        <v>2.38</v>
+      </c>
+      <c r="V113">
+        <v>5.5</v>
+      </c>
+      <c r="W113">
+        <v>1.33</v>
+      </c>
+      <c r="X113">
+        <v>3.25</v>
+      </c>
+      <c r="Y113">
+        <v>2.5</v>
+      </c>
+      <c r="Z113">
+        <v>1.5</v>
+      </c>
+      <c r="AA113">
+        <v>6.5</v>
+      </c>
+      <c r="AB113">
+        <v>1.11</v>
+      </c>
+      <c r="AC113">
+        <v>1.52</v>
+      </c>
+      <c r="AD113">
+        <v>4.3</v>
+      </c>
+      <c r="AE113">
+        <v>5.3</v>
+      </c>
+      <c r="AF113">
+        <v>1.04</v>
+      </c>
+      <c r="AG113">
+        <v>10</v>
+      </c>
+      <c r="AH113">
+        <v>1.22</v>
+      </c>
+      <c r="AI113">
+        <v>4</v>
+      </c>
+      <c r="AJ113">
+        <v>1.61</v>
+      </c>
+      <c r="AK113">
+        <v>2.05</v>
+      </c>
+      <c r="AL113">
+        <v>1.8</v>
+      </c>
+      <c r="AM113">
+        <v>1.91</v>
+      </c>
+      <c r="AN113">
+        <v>1.09</v>
+      </c>
+      <c r="AO113">
+        <v>1.17</v>
+      </c>
+      <c r="AP113">
+        <v>2.4</v>
+      </c>
+      <c r="AQ113">
+        <v>2.56</v>
+      </c>
+      <c r="AR113">
+        <v>1.33</v>
+      </c>
+      <c r="AS113">
+        <v>2.6</v>
+      </c>
+      <c r="AT113">
+        <v>1.2</v>
+      </c>
+      <c r="AU113">
+        <v>1.7</v>
+      </c>
+      <c r="AV113">
+        <v>1.21</v>
+      </c>
+      <c r="AW113">
+        <v>2.91</v>
+      </c>
+      <c r="AX113">
+        <v>1.31</v>
+      </c>
+      <c r="AY113">
+        <v>9.5</v>
+      </c>
+      <c r="AZ113">
+        <v>4.13</v>
+      </c>
+      <c r="BA113">
+        <v>1.36</v>
+      </c>
+      <c r="BB113">
+        <v>1.62</v>
+      </c>
+      <c r="BC113">
+        <v>2.05</v>
+      </c>
+      <c r="BD113">
+        <v>2.7</v>
+      </c>
+      <c r="BE113">
+        <v>3.65</v>
+      </c>
+      <c r="BF113">
+        <v>8</v>
+      </c>
+      <c r="BG113">
+        <v>4</v>
+      </c>
+      <c r="BH113">
+        <v>5</v>
+      </c>
+      <c r="BI113">
+        <v>1</v>
+      </c>
+      <c r="BJ113">
+        <v>13</v>
+      </c>
+      <c r="BK113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>5139598</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45102.1875</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>71</v>
+      </c>
+      <c r="H114" t="s">
+        <v>69</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114" t="s">
+        <v>79</v>
+      </c>
+      <c r="P114" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q114">
+        <v>7</v>
+      </c>
+      <c r="R114">
+        <v>4</v>
+      </c>
+      <c r="S114">
+        <v>11</v>
+      </c>
+      <c r="T114">
+        <v>3.6</v>
+      </c>
+      <c r="U114">
+        <v>2.05</v>
+      </c>
+      <c r="V114">
+        <v>3.1</v>
+      </c>
+      <c r="W114">
+        <v>1.44</v>
+      </c>
+      <c r="X114">
+        <v>2.63</v>
+      </c>
+      <c r="Y114">
+        <v>3.25</v>
+      </c>
+      <c r="Z114">
+        <v>1.33</v>
+      </c>
+      <c r="AA114">
+        <v>10</v>
+      </c>
+      <c r="AB114">
+        <v>1.06</v>
+      </c>
+      <c r="AC114">
+        <v>2.8</v>
+      </c>
+      <c r="AD114">
+        <v>3</v>
+      </c>
+      <c r="AE114">
+        <v>2.35</v>
+      </c>
+      <c r="AF114">
+        <v>1.08</v>
+      </c>
+      <c r="AG114">
+        <v>7</v>
+      </c>
+      <c r="AH114">
+        <v>1.36</v>
+      </c>
+      <c r="AI114">
+        <v>3</v>
+      </c>
+      <c r="AJ114">
+        <v>2.05</v>
+      </c>
+      <c r="AK114">
+        <v>1.61</v>
+      </c>
+      <c r="AL114">
+        <v>1.83</v>
+      </c>
+      <c r="AM114">
+        <v>1.83</v>
+      </c>
+      <c r="AN114">
+        <v>1.47</v>
+      </c>
+      <c r="AO114">
+        <v>1.25</v>
+      </c>
+      <c r="AP114">
+        <v>1.35</v>
+      </c>
+      <c r="AQ114">
+        <v>1</v>
+      </c>
+      <c r="AR114">
+        <v>1.22</v>
+      </c>
+      <c r="AS114">
+        <v>0.9</v>
+      </c>
+      <c r="AT114">
+        <v>1.4</v>
+      </c>
+      <c r="AU114">
+        <v>1.67</v>
+      </c>
+      <c r="AV114">
+        <v>1.32</v>
+      </c>
+      <c r="AW114">
+        <v>2.99</v>
+      </c>
+      <c r="AX114">
+        <v>2.1</v>
+      </c>
+      <c r="AY114">
+        <v>8</v>
+      </c>
+      <c r="AZ114">
+        <v>1.91</v>
+      </c>
+      <c r="BA114">
+        <v>1.33</v>
+      </c>
+      <c r="BB114">
+        <v>1.6</v>
+      </c>
+      <c r="BC114">
+        <v>2</v>
+      </c>
+      <c r="BD114">
+        <v>2.6</v>
+      </c>
+      <c r="BE114">
+        <v>3.64</v>
+      </c>
+      <c r="BF114">
+        <v>5</v>
+      </c>
+      <c r="BG114">
+        <v>5</v>
+      </c>
+      <c r="BH114">
+        <v>10</v>
+      </c>
+      <c r="BI114">
+        <v>4</v>
+      </c>
+      <c r="BJ114">
+        <v>15</v>
+      </c>
+      <c r="BK114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>5139599</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45102.29166666666</v>
+      </c>
+      <c r="F115">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s">
+        <v>72</v>
+      </c>
+      <c r="H115" t="s">
+        <v>75</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>139</v>
+      </c>
+      <c r="P115" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q115">
+        <v>3</v>
+      </c>
+      <c r="R115">
+        <v>6</v>
+      </c>
+      <c r="S115">
+        <v>9</v>
+      </c>
+      <c r="T115">
+        <v>3</v>
+      </c>
+      <c r="U115">
+        <v>2.2</v>
+      </c>
+      <c r="V115">
+        <v>3.4</v>
+      </c>
+      <c r="W115">
+        <v>1.36</v>
+      </c>
+      <c r="X115">
+        <v>3</v>
+      </c>
+      <c r="Y115">
+        <v>2.75</v>
+      </c>
+      <c r="Z115">
+        <v>1.4</v>
+      </c>
+      <c r="AA115">
+        <v>7</v>
+      </c>
+      <c r="AB115">
+        <v>1.1</v>
+      </c>
+      <c r="AC115">
+        <v>2.35</v>
+      </c>
+      <c r="AD115">
+        <v>3.1</v>
+      </c>
+      <c r="AE115">
+        <v>2.7</v>
+      </c>
+      <c r="AF115">
+        <v>1.05</v>
+      </c>
+      <c r="AG115">
+        <v>9</v>
+      </c>
+      <c r="AH115">
+        <v>1.28</v>
+      </c>
+      <c r="AI115">
+        <v>3.5</v>
+      </c>
+      <c r="AJ115">
+        <v>1.8</v>
+      </c>
+      <c r="AK115">
+        <v>1.83</v>
+      </c>
+      <c r="AL115">
+        <v>1.62</v>
+      </c>
+      <c r="AM115">
+        <v>2.2</v>
+      </c>
+      <c r="AN115">
+        <v>1.38</v>
+      </c>
+      <c r="AO115">
+        <v>1.25</v>
+      </c>
+      <c r="AP115">
+        <v>1.53</v>
+      </c>
+      <c r="AQ115">
+        <v>1.3</v>
+      </c>
+      <c r="AR115">
+        <v>0.78</v>
+      </c>
+      <c r="AS115">
+        <v>1.27</v>
+      </c>
+      <c r="AT115">
+        <v>0.8</v>
+      </c>
+      <c r="AU115">
+        <v>1.41</v>
+      </c>
+      <c r="AV115">
+        <v>1.11</v>
+      </c>
+      <c r="AW115">
+        <v>2.52</v>
+      </c>
+      <c r="AX115">
+        <v>2.33</v>
+      </c>
+      <c r="AY115">
+        <v>8</v>
+      </c>
+      <c r="AZ115">
+        <v>1.82</v>
+      </c>
+      <c r="BA115">
+        <v>1.38</v>
+      </c>
+      <c r="BB115">
+        <v>1.67</v>
+      </c>
+      <c r="BC115">
+        <v>2.15</v>
+      </c>
+      <c r="BD115">
+        <v>2.85</v>
+      </c>
+      <c r="BE115">
+        <v>4</v>
+      </c>
+      <c r="BF115">
+        <v>4</v>
+      </c>
+      <c r="BG115">
+        <v>5</v>
+      </c>
+      <c r="BH115">
+        <v>5</v>
+      </c>
+      <c r="BI115">
+        <v>5</v>
+      </c>
+      <c r="BJ115">
+        <v>9</v>
+      </c>
+      <c r="BK115">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>['3', '66', '90+4']</t>
+  </si>
+  <si>
+    <t>['10', '84']</t>
+  </si>
+  <si>
+    <t>['41', '59', '90+2']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -1032,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK115"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1276,7 +1282,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1467,7 +1473,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1554,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT3">
         <v>1.22</v>
@@ -1658,7 +1664,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1939,7 +1945,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2040,7 +2046,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2127,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT6">
         <v>1.2</v>
@@ -2321,7 +2327,7 @@
         <v>1.56</v>
       </c>
       <c r="AT7">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2422,7 +2428,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2509,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT8">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2613,7 +2619,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2804,7 +2810,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2891,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT10">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3082,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT11">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3186,7 +3192,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3276,7 +3282,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT12">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3377,7 +3383,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3464,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT13">
         <v>1.4</v>
@@ -3658,7 +3664,7 @@
         <v>1.27</v>
       </c>
       <c r="AT14">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU14">
         <v>0.3</v>
@@ -3950,7 +3956,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4141,7 +4147,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4228,10 +4234,10 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT17">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU17">
         <v>1.95</v>
@@ -4419,7 +4425,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT18">
         <v>1.22</v>
@@ -4610,10 +4616,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT19">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU19">
         <v>2.72</v>
@@ -4801,10 +4807,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT20">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU20">
         <v>1.91</v>
@@ -4992,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT21">
         <v>1.22</v>
@@ -5096,7 +5102,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5374,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT23">
         <v>1.1</v>
@@ -5478,7 +5484,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5568,7 +5574,7 @@
         <v>0.2</v>
       </c>
       <c r="AT24">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU24">
         <v>1.56</v>
@@ -5759,7 +5765,7 @@
         <v>2.6</v>
       </c>
       <c r="AT25">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU25">
         <v>0.91</v>
@@ -5860,7 +5866,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -5947,7 +5953,7 @@
         <v>2</v>
       </c>
       <c r="AS26">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT26">
         <v>1.4</v>
@@ -6138,7 +6144,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT27">
         <v>1.2</v>
@@ -6329,10 +6335,10 @@
         <v>0.5</v>
       </c>
       <c r="AS28">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT28">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -6433,7 +6439,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6624,7 +6630,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6714,7 +6720,7 @@
         <v>1.33</v>
       </c>
       <c r="AT30">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU30">
         <v>1.82</v>
@@ -6815,7 +6821,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6905,7 +6911,7 @@
         <v>0.2</v>
       </c>
       <c r="AT31">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -7006,7 +7012,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7096,7 +7102,7 @@
         <v>2.6</v>
       </c>
       <c r="AT32">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU32">
         <v>1.5</v>
@@ -7284,7 +7290,7 @@
         <v>0.67</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT33">
         <v>1.2</v>
@@ -7475,7 +7481,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT34">
         <v>1.22</v>
@@ -7579,7 +7585,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7669,7 +7675,7 @@
         <v>1.27</v>
       </c>
       <c r="AT35">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU35">
         <v>0.82</v>
@@ -7857,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT36">
         <v>1.22</v>
@@ -7961,7 +7967,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8051,7 +8057,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT37">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU37">
         <v>1.09</v>
@@ -8152,7 +8158,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8242,7 +8248,7 @@
         <v>0.2</v>
       </c>
       <c r="AT38">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU38">
         <v>1.57</v>
@@ -8343,7 +8349,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8430,7 +8436,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT39">
         <v>1.4</v>
@@ -8725,7 +8731,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9006,7 +9012,7 @@
         <v>1.56</v>
       </c>
       <c r="AT42">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU42">
         <v>1.51</v>
@@ -9107,7 +9113,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9194,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT43">
         <v>1.22</v>
@@ -9298,7 +9304,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9385,10 +9391,10 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT44">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU44">
         <v>1.59</v>
@@ -9576,10 +9582,10 @@
         <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT45">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU45">
         <v>1.34</v>
@@ -9680,7 +9686,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9871,7 +9877,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9958,10 +9964,10 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT47">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU47">
         <v>1.86</v>
@@ -10149,10 +10155,10 @@
         <v>0.67</v>
       </c>
       <c r="AS48">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT48">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU48">
         <v>1.9</v>
@@ -10253,7 +10259,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10531,10 +10537,10 @@
         <v>2.25</v>
       </c>
       <c r="AS50">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT50">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU50">
         <v>1.83</v>
@@ -10722,10 +10728,10 @@
         <v>0.25</v>
       </c>
       <c r="AS51">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT51">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU51">
         <v>1.7</v>
@@ -10826,7 +10832,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -10913,10 +10919,10 @@
         <v>1.75</v>
       </c>
       <c r="AS52">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT52">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU52">
         <v>1.88</v>
@@ -11017,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11208,7 +11214,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11295,10 +11301,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT54">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU54">
         <v>1.31</v>
@@ -11590,7 +11596,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11781,7 +11787,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11868,10 +11874,10 @@
         <v>0.75</v>
       </c>
       <c r="AS57">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT57">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU57">
         <v>1.37</v>
@@ -11972,7 +11978,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12062,7 +12068,7 @@
         <v>1.56</v>
       </c>
       <c r="AT58">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU58">
         <v>1.47</v>
@@ -12163,7 +12169,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12250,7 +12256,7 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT59">
         <v>1.22</v>
@@ -12354,7 +12360,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12736,7 +12742,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12823,10 +12829,10 @@
         <v>2.4</v>
       </c>
       <c r="AS62">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT62">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU62">
         <v>1.42</v>
@@ -12927,7 +12933,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13014,7 +13020,7 @@
         <v>0.75</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT63">
         <v>1.1</v>
@@ -13118,7 +13124,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13205,10 +13211,10 @@
         <v>0.2</v>
       </c>
       <c r="AS64">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT64">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU64">
         <v>1.66</v>
@@ -13590,7 +13596,7 @@
         <v>1.27</v>
       </c>
       <c r="AT66">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU66">
         <v>1.41</v>
@@ -13778,10 +13784,10 @@
         <v>1.4</v>
       </c>
       <c r="AS67">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT67">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -13972,7 +13978,7 @@
         <v>2.6</v>
       </c>
       <c r="AT68">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU68">
         <v>1.49</v>
@@ -14073,7 +14079,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14160,7 +14166,7 @@
         <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT69">
         <v>1.4</v>
@@ -14351,7 +14357,7 @@
         <v>1.2</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT70">
         <v>1.22</v>
@@ -14646,7 +14652,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14837,7 +14843,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -14927,7 +14933,7 @@
         <v>1.56</v>
       </c>
       <c r="AT73">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU73">
         <v>1.42</v>
@@ -15028,7 +15034,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15115,10 +15121,10 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT74">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU74">
         <v>1.51</v>
@@ -15219,7 +15225,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15306,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT75">
         <v>1.2</v>
@@ -15410,7 +15416,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15500,7 +15506,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT76">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU76">
         <v>1.17</v>
@@ -15601,7 +15607,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15879,7 +15885,7 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT78">
         <v>1.1</v>
@@ -15983,7 +15989,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16073,7 +16079,7 @@
         <v>1.27</v>
       </c>
       <c r="AT79">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU79">
         <v>1.46</v>
@@ -16174,7 +16180,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16261,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT80">
         <v>1.22</v>
@@ -16365,7 +16371,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16452,10 +16458,10 @@
         <v>2.29</v>
       </c>
       <c r="AS81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT81">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU81">
         <v>1.7</v>
@@ -16938,7 +16944,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17028,7 +17034,7 @@
         <v>0.2</v>
       </c>
       <c r="AT84">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU84">
         <v>1.45</v>
@@ -17129,7 +17135,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17216,10 +17222,10 @@
         <v>0.4</v>
       </c>
       <c r="AS85">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT85">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU85">
         <v>1.45</v>
@@ -17320,7 +17326,7 @@
         <v>135</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17410,7 +17416,7 @@
         <v>1.33</v>
       </c>
       <c r="AT86">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU86">
         <v>1.86</v>
@@ -17511,7 +17517,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17598,7 +17604,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT87">
         <v>1.22</v>
@@ -17789,10 +17795,10 @@
         <v>0.86</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT88">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU88">
         <v>1.74</v>
@@ -17893,7 +17899,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -18084,7 +18090,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18174,7 +18180,7 @@
         <v>2.6</v>
       </c>
       <c r="AT90">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -18362,7 +18368,7 @@
         <v>1.14</v>
       </c>
       <c r="AS91">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT91">
         <v>1.1</v>
@@ -18553,10 +18559,10 @@
         <v>2.57</v>
       </c>
       <c r="AS92">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT92">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU92">
         <v>1.54</v>
@@ -18657,7 +18663,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18747,7 +18753,7 @@
         <v>0.2</v>
       </c>
       <c r="AT93">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU93">
         <v>1.38</v>
@@ -18848,7 +18854,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -18938,7 +18944,7 @@
         <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU94">
         <v>1.78</v>
@@ -19039,7 +19045,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19126,7 +19132,7 @@
         <v>1.43</v>
       </c>
       <c r="AS95">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT95">
         <v>1.4</v>
@@ -19230,7 +19236,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19508,7 +19514,7 @@
         <v>1.43</v>
       </c>
       <c r="AS97">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT97">
         <v>1.4</v>
@@ -19612,7 +19618,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19702,7 +19708,7 @@
         <v>1.27</v>
       </c>
       <c r="AT98">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU98">
         <v>1.43</v>
@@ -19803,7 +19809,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19890,10 +19896,10 @@
         <v>2.13</v>
       </c>
       <c r="AS99">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT99">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU99">
         <v>1.68</v>
@@ -19994,7 +20000,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20081,10 +20087,10 @@
         <v>0.88</v>
       </c>
       <c r="AS100">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT100">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU100">
         <v>1.86</v>
@@ -20272,7 +20278,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT101">
         <v>1.2</v>
@@ -20463,7 +20469,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT102">
         <v>1.4</v>
@@ -20567,7 +20573,7 @@
         <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -20657,7 +20663,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT103">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU103">
         <v>1.15</v>
@@ -20758,7 +20764,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20845,10 +20851,10 @@
         <v>0.71</v>
       </c>
       <c r="AS104">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT104">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU104">
         <v>1.37</v>
@@ -20949,7 +20955,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21039,7 +21045,7 @@
         <v>2.6</v>
       </c>
       <c r="AT105">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU105">
         <v>1.7</v>
@@ -21140,7 +21146,7 @@
         <v>93</v>
       </c>
       <c r="P106" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21331,7 +21337,7 @@
         <v>152</v>
       </c>
       <c r="P107" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21522,7 +21528,7 @@
         <v>125</v>
       </c>
       <c r="P108" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21609,7 +21615,7 @@
         <v>1.25</v>
       </c>
       <c r="AS108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT108">
         <v>1.4</v>
@@ -21904,7 +21910,7 @@
         <v>79</v>
       </c>
       <c r="P110" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22095,7 +22101,7 @@
         <v>153</v>
       </c>
       <c r="P111" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22185,7 +22191,7 @@
         <v>1.33</v>
       </c>
       <c r="AT111">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU111">
         <v>1.74</v>
@@ -22373,7 +22379,7 @@
         <v>1.22</v>
       </c>
       <c r="AS112">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT112">
         <v>1.1</v>
@@ -22477,7 +22483,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22668,7 +22674,7 @@
         <v>79</v>
       </c>
       <c r="P114" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22755,7 +22761,7 @@
         <v>1.22</v>
       </c>
       <c r="AS114">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT114">
         <v>1.4</v>
@@ -22859,7 +22865,7 @@
         <v>139</v>
       </c>
       <c r="P115" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -22949,7 +22955,7 @@
         <v>1.27</v>
       </c>
       <c r="AT115">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU115">
         <v>1.41</v>
@@ -23001,6 +23007,1152 @@
       </c>
       <c r="BK115">
         <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>5139600</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45108.25</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>74</v>
+      </c>
+      <c r="H116" t="s">
+        <v>68</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>155</v>
+      </c>
+      <c r="P116" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q116">
+        <v>3</v>
+      </c>
+      <c r="R116">
+        <v>9</v>
+      </c>
+      <c r="S116">
+        <v>12</v>
+      </c>
+      <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
+        <v>2.1</v>
+      </c>
+      <c r="V116">
+        <v>4</v>
+      </c>
+      <c r="W116">
+        <v>1.4</v>
+      </c>
+      <c r="X116">
+        <v>2.75</v>
+      </c>
+      <c r="Y116">
+        <v>2.75</v>
+      </c>
+      <c r="Z116">
+        <v>1.4</v>
+      </c>
+      <c r="AA116">
+        <v>6.5</v>
+      </c>
+      <c r="AB116">
+        <v>1.1</v>
+      </c>
+      <c r="AC116">
+        <v>1.94</v>
+      </c>
+      <c r="AD116">
+        <v>3.35</v>
+      </c>
+      <c r="AE116">
+        <v>3.69</v>
+      </c>
+      <c r="AF116">
+        <v>1.06</v>
+      </c>
+      <c r="AG116">
+        <v>8</v>
+      </c>
+      <c r="AH116">
+        <v>1.28</v>
+      </c>
+      <c r="AI116">
+        <v>3.5</v>
+      </c>
+      <c r="AJ116">
+        <v>1.83</v>
+      </c>
+      <c r="AK116">
+        <v>1.87</v>
+      </c>
+      <c r="AL116">
+        <v>1.73</v>
+      </c>
+      <c r="AM116">
+        <v>2</v>
+      </c>
+      <c r="AN116">
+        <v>1.29</v>
+      </c>
+      <c r="AO116">
+        <v>1.3</v>
+      </c>
+      <c r="AP116">
+        <v>1.73</v>
+      </c>
+      <c r="AQ116">
+        <v>1.78</v>
+      </c>
+      <c r="AR116">
+        <v>1.7</v>
+      </c>
+      <c r="AS116">
+        <v>1.9</v>
+      </c>
+      <c r="AT116">
+        <v>1.55</v>
+      </c>
+      <c r="AU116">
+        <v>1.45</v>
+      </c>
+      <c r="AV116">
+        <v>1.56</v>
+      </c>
+      <c r="AW116">
+        <v>3.01</v>
+      </c>
+      <c r="AX116">
+        <v>0</v>
+      </c>
+      <c r="AY116">
+        <v>0</v>
+      </c>
+      <c r="AZ116">
+        <v>0</v>
+      </c>
+      <c r="BA116">
+        <v>0</v>
+      </c>
+      <c r="BB116">
+        <v>0</v>
+      </c>
+      <c r="BC116">
+        <v>0</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>7</v>
+      </c>
+      <c r="BG116">
+        <v>9</v>
+      </c>
+      <c r="BH116">
+        <v>5</v>
+      </c>
+      <c r="BI116">
+        <v>7</v>
+      </c>
+      <c r="BJ116">
+        <v>12</v>
+      </c>
+      <c r="BK116">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>5139601</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45108.29166666666</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>73</v>
+      </c>
+      <c r="H117" t="s">
+        <v>67</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>91</v>
+      </c>
+      <c r="P117" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q117">
+        <v>7</v>
+      </c>
+      <c r="R117">
+        <v>2</v>
+      </c>
+      <c r="S117">
+        <v>9</v>
+      </c>
+      <c r="T117">
+        <v>2.6</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
+        <v>4.2</v>
+      </c>
+      <c r="W117">
+        <v>1.43</v>
+      </c>
+      <c r="X117">
+        <v>2.65</v>
+      </c>
+      <c r="Y117">
+        <v>3</v>
+      </c>
+      <c r="Z117">
+        <v>1.36</v>
+      </c>
+      <c r="AA117">
+        <v>7.5</v>
+      </c>
+      <c r="AB117">
+        <v>1.07</v>
+      </c>
+      <c r="AC117">
+        <v>1.92</v>
+      </c>
+      <c r="AD117">
+        <v>3.4</v>
+      </c>
+      <c r="AE117">
+        <v>3.7</v>
+      </c>
+      <c r="AF117">
+        <v>1.03</v>
+      </c>
+      <c r="AG117">
+        <v>8.5</v>
+      </c>
+      <c r="AH117">
+        <v>1.3</v>
+      </c>
+      <c r="AI117">
+        <v>3.2</v>
+      </c>
+      <c r="AJ117">
+        <v>2.03</v>
+      </c>
+      <c r="AK117">
+        <v>1.7</v>
+      </c>
+      <c r="AL117">
+        <v>1.85</v>
+      </c>
+      <c r="AM117">
+        <v>1.85</v>
+      </c>
+      <c r="AN117">
+        <v>1.22</v>
+      </c>
+      <c r="AO117">
+        <v>1.3</v>
+      </c>
+      <c r="AP117">
+        <v>1.8</v>
+      </c>
+      <c r="AQ117">
+        <v>1.67</v>
+      </c>
+      <c r="AR117">
+        <v>0.78</v>
+      </c>
+      <c r="AS117">
+        <v>1.6</v>
+      </c>
+      <c r="AT117">
+        <v>0.8</v>
+      </c>
+      <c r="AU117">
+        <v>1.4</v>
+      </c>
+      <c r="AV117">
+        <v>1.28</v>
+      </c>
+      <c r="AW117">
+        <v>2.68</v>
+      </c>
+      <c r="AX117">
+        <v>0</v>
+      </c>
+      <c r="AY117">
+        <v>0</v>
+      </c>
+      <c r="AZ117">
+        <v>0</v>
+      </c>
+      <c r="BA117">
+        <v>0</v>
+      </c>
+      <c r="BB117">
+        <v>0</v>
+      </c>
+      <c r="BC117">
+        <v>0</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>5</v>
+      </c>
+      <c r="BG117">
+        <v>4</v>
+      </c>
+      <c r="BH117">
+        <v>6</v>
+      </c>
+      <c r="BI117">
+        <v>4</v>
+      </c>
+      <c r="BJ117">
+        <v>11</v>
+      </c>
+      <c r="BK117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>5139602</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45108.3125</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>66</v>
+      </c>
+      <c r="H118" t="s">
+        <v>70</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118" t="s">
+        <v>79</v>
+      </c>
+      <c r="P118" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q118">
+        <v>7</v>
+      </c>
+      <c r="R118">
+        <v>4</v>
+      </c>
+      <c r="S118">
+        <v>11</v>
+      </c>
+      <c r="T118">
+        <v>2.45</v>
+      </c>
+      <c r="U118">
+        <v>2.15</v>
+      </c>
+      <c r="V118">
+        <v>4</v>
+      </c>
+      <c r="W118">
+        <v>1.36</v>
+      </c>
+      <c r="X118">
+        <v>3</v>
+      </c>
+      <c r="Y118">
+        <v>2.6</v>
+      </c>
+      <c r="Z118">
+        <v>1.45</v>
+      </c>
+      <c r="AA118">
+        <v>6.5</v>
+      </c>
+      <c r="AB118">
+        <v>1.1</v>
+      </c>
+      <c r="AC118">
+        <v>1.8</v>
+      </c>
+      <c r="AD118">
+        <v>3.6</v>
+      </c>
+      <c r="AE118">
+        <v>3.97</v>
+      </c>
+      <c r="AF118">
+        <v>1.05</v>
+      </c>
+      <c r="AG118">
+        <v>9</v>
+      </c>
+      <c r="AH118">
+        <v>1.25</v>
+      </c>
+      <c r="AI118">
+        <v>3.75</v>
+      </c>
+      <c r="AJ118">
+        <v>1.77</v>
+      </c>
+      <c r="AK118">
+        <v>1.94</v>
+      </c>
+      <c r="AL118">
+        <v>1.7</v>
+      </c>
+      <c r="AM118">
+        <v>2.05</v>
+      </c>
+      <c r="AN118">
+        <v>1.22</v>
+      </c>
+      <c r="AO118">
+        <v>1.29</v>
+      </c>
+      <c r="AP118">
+        <v>1.85</v>
+      </c>
+      <c r="AQ118">
+        <v>2</v>
+      </c>
+      <c r="AR118">
+        <v>1.3</v>
+      </c>
+      <c r="AS118">
+        <v>1.9</v>
+      </c>
+      <c r="AT118">
+        <v>1.27</v>
+      </c>
+      <c r="AU118">
+        <v>1.7</v>
+      </c>
+      <c r="AV118">
+        <v>1.42</v>
+      </c>
+      <c r="AW118">
+        <v>3.12</v>
+      </c>
+      <c r="AX118">
+        <v>0</v>
+      </c>
+      <c r="AY118">
+        <v>0</v>
+      </c>
+      <c r="AZ118">
+        <v>0</v>
+      </c>
+      <c r="BA118">
+        <v>0</v>
+      </c>
+      <c r="BB118">
+        <v>0</v>
+      </c>
+      <c r="BC118">
+        <v>0</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>6</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>5</v>
+      </c>
+      <c r="BI118">
+        <v>2</v>
+      </c>
+      <c r="BJ118">
+        <v>11</v>
+      </c>
+      <c r="BK118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>5139603</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45109.25</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>76</v>
+      </c>
+      <c r="H119" t="s">
+        <v>65</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>79</v>
+      </c>
+      <c r="P119" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q119">
+        <v>3</v>
+      </c>
+      <c r="R119">
+        <v>4</v>
+      </c>
+      <c r="S119">
+        <v>7</v>
+      </c>
+      <c r="T119">
+        <v>4</v>
+      </c>
+      <c r="U119">
+        <v>2.2</v>
+      </c>
+      <c r="V119">
+        <v>2.63</v>
+      </c>
+      <c r="W119">
+        <v>1.36</v>
+      </c>
+      <c r="X119">
+        <v>3</v>
+      </c>
+      <c r="Y119">
+        <v>2.75</v>
+      </c>
+      <c r="Z119">
+        <v>1.4</v>
+      </c>
+      <c r="AA119">
+        <v>7</v>
+      </c>
+      <c r="AB119">
+        <v>1.1</v>
+      </c>
+      <c r="AC119">
+        <v>3.15</v>
+      </c>
+      <c r="AD119">
+        <v>3.5</v>
+      </c>
+      <c r="AE119">
+        <v>2.09</v>
+      </c>
+      <c r="AF119">
+        <v>1.05</v>
+      </c>
+      <c r="AG119">
+        <v>9</v>
+      </c>
+      <c r="AH119">
+        <v>1.25</v>
+      </c>
+      <c r="AI119">
+        <v>3.6</v>
+      </c>
+      <c r="AJ119">
+        <v>1.91</v>
+      </c>
+      <c r="AK119">
+        <v>1.95</v>
+      </c>
+      <c r="AL119">
+        <v>1.67</v>
+      </c>
+      <c r="AM119">
+        <v>2.1</v>
+      </c>
+      <c r="AN119">
+        <v>1.75</v>
+      </c>
+      <c r="AO119">
+        <v>1.32</v>
+      </c>
+      <c r="AP119">
+        <v>1.2</v>
+      </c>
+      <c r="AQ119">
+        <v>1.7</v>
+      </c>
+      <c r="AR119">
+        <v>2.33</v>
+      </c>
+      <c r="AS119">
+        <v>1.55</v>
+      </c>
+      <c r="AT119">
+        <v>2.4</v>
+      </c>
+      <c r="AU119">
+        <v>1.79</v>
+      </c>
+      <c r="AV119">
+        <v>1.71</v>
+      </c>
+      <c r="AW119">
+        <v>3.5</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="AY119">
+        <v>0</v>
+      </c>
+      <c r="AZ119">
+        <v>0</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>1.9</v>
+      </c>
+      <c r="BC119">
+        <v>0</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>5</v>
+      </c>
+      <c r="BG119">
+        <v>7</v>
+      </c>
+      <c r="BH119">
+        <v>3</v>
+      </c>
+      <c r="BI119">
+        <v>1</v>
+      </c>
+      <c r="BJ119">
+        <v>8</v>
+      </c>
+      <c r="BK119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5139604</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45109.29166666666</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>69</v>
+      </c>
+      <c r="H120" t="s">
+        <v>72</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120" t="s">
+        <v>156</v>
+      </c>
+      <c r="P120" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q120">
+        <v>2</v>
+      </c>
+      <c r="R120">
+        <v>4</v>
+      </c>
+      <c r="S120">
+        <v>6</v>
+      </c>
+      <c r="T120">
+        <v>2.05</v>
+      </c>
+      <c r="U120">
+        <v>2.4</v>
+      </c>
+      <c r="V120">
+        <v>5.5</v>
+      </c>
+      <c r="W120">
+        <v>1.3</v>
+      </c>
+      <c r="X120">
+        <v>3.4</v>
+      </c>
+      <c r="Y120">
+        <v>2.5</v>
+      </c>
+      <c r="Z120">
+        <v>1.5</v>
+      </c>
+      <c r="AA120">
+        <v>6</v>
+      </c>
+      <c r="AB120">
+        <v>1.13</v>
+      </c>
+      <c r="AC120">
+        <v>1.51</v>
+      </c>
+      <c r="AD120">
+        <v>4.15</v>
+      </c>
+      <c r="AE120">
+        <v>5.7</v>
+      </c>
+      <c r="AF120">
+        <v>1.03</v>
+      </c>
+      <c r="AG120">
+        <v>9</v>
+      </c>
+      <c r="AH120">
+        <v>1.2</v>
+      </c>
+      <c r="AI120">
+        <v>4.2</v>
+      </c>
+      <c r="AJ120">
+        <v>1.69</v>
+      </c>
+      <c r="AK120">
+        <v>2.08</v>
+      </c>
+      <c r="AL120">
+        <v>1.8</v>
+      </c>
+      <c r="AM120">
+        <v>1.91</v>
+      </c>
+      <c r="AN120">
+        <v>1.06</v>
+      </c>
+      <c r="AO120">
+        <v>1.2</v>
+      </c>
+      <c r="AP120">
+        <v>2.55</v>
+      </c>
+      <c r="AQ120">
+        <v>2.22</v>
+      </c>
+      <c r="AR120">
+        <v>0.63</v>
+      </c>
+      <c r="AS120">
+        <v>2.3</v>
+      </c>
+      <c r="AT120">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU120">
+        <v>1.72</v>
+      </c>
+      <c r="AV120">
+        <v>1.46</v>
+      </c>
+      <c r="AW120">
+        <v>3.18</v>
+      </c>
+      <c r="AX120">
+        <v>0</v>
+      </c>
+      <c r="AY120">
+        <v>0</v>
+      </c>
+      <c r="AZ120">
+        <v>0</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>0</v>
+      </c>
+      <c r="BC120">
+        <v>0</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>11</v>
+      </c>
+      <c r="BG120">
+        <v>10</v>
+      </c>
+      <c r="BH120">
+        <v>8</v>
+      </c>
+      <c r="BI120">
+        <v>2</v>
+      </c>
+      <c r="BJ120">
+        <v>19</v>
+      </c>
+      <c r="BK120">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5139605</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45109.33333333334</v>
+      </c>
+      <c r="F121">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>71</v>
+      </c>
+      <c r="H121" t="s">
+        <v>75</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121" t="s">
+        <v>116</v>
+      </c>
+      <c r="P121" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>6</v>
+      </c>
+      <c r="S121">
+        <v>6</v>
+      </c>
+      <c r="T121">
+        <v>2.75</v>
+      </c>
+      <c r="U121">
+        <v>2</v>
+      </c>
+      <c r="V121">
+        <v>4.5</v>
+      </c>
+      <c r="W121">
+        <v>1.53</v>
+      </c>
+      <c r="X121">
+        <v>2.38</v>
+      </c>
+      <c r="Y121">
+        <v>3.5</v>
+      </c>
+      <c r="Z121">
+        <v>1.29</v>
+      </c>
+      <c r="AA121">
+        <v>11</v>
+      </c>
+      <c r="AB121">
+        <v>1.05</v>
+      </c>
+      <c r="AC121">
+        <v>1.97</v>
+      </c>
+      <c r="AD121">
+        <v>3.2</v>
+      </c>
+      <c r="AE121">
+        <v>3.85</v>
+      </c>
+      <c r="AF121">
+        <v>1.1</v>
+      </c>
+      <c r="AG121">
+        <v>6.5</v>
+      </c>
+      <c r="AH121">
+        <v>1.45</v>
+      </c>
+      <c r="AI121">
+        <v>2.65</v>
+      </c>
+      <c r="AJ121">
+        <v>2.26</v>
+      </c>
+      <c r="AK121">
+        <v>1.59</v>
+      </c>
+      <c r="AL121">
+        <v>2.1</v>
+      </c>
+      <c r="AM121">
+        <v>1.67</v>
+      </c>
+      <c r="AN121">
+        <v>1.22</v>
+      </c>
+      <c r="AO121">
+        <v>1.28</v>
+      </c>
+      <c r="AP121">
+        <v>1.7</v>
+      </c>
+      <c r="AQ121">
+        <v>0.9</v>
+      </c>
+      <c r="AR121">
+        <v>0.8</v>
+      </c>
+      <c r="AS121">
+        <v>1.09</v>
+      </c>
+      <c r="AT121">
+        <v>0.73</v>
+      </c>
+      <c r="AU121">
+        <v>1.68</v>
+      </c>
+      <c r="AV121">
+        <v>1.16</v>
+      </c>
+      <c r="AW121">
+        <v>2.84</v>
+      </c>
+      <c r="AX121">
+        <v>0</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
+      <c r="AZ121">
+        <v>0</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0</v>
+      </c>
+      <c r="BC121">
+        <v>0</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>5</v>
+      </c>
+      <c r="BG121">
+        <v>4</v>
+      </c>
+      <c r="BH121">
+        <v>6</v>
+      </c>
+      <c r="BI121">
+        <v>4</v>
+      </c>
+      <c r="BJ121">
+        <v>11</v>
+      </c>
+      <c r="BK121">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,9 @@
     <t>['41', '59', '90+2']</t>
   </si>
   <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -677,6 +680,12 @@
   </si>
   <si>
     <t>['26']</t>
+  </si>
+  <si>
+    <t>['14', '90']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,7 +1291,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1473,7 +1482,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1664,7 +1673,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1754,7 +1763,7 @@
         <v>0.2</v>
       </c>
       <c r="AT4">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1942,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT5">
         <v>0.5600000000000001</v>
@@ -2046,7 +2055,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2136,7 +2145,7 @@
         <v>2.3</v>
       </c>
       <c r="AT6">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2428,7 +2437,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2619,7 +2628,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2810,7 +2819,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3192,7 +3201,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3279,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT12">
         <v>2.4</v>
@@ -3383,7 +3392,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3956,7 +3965,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4043,10 +4052,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT16">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU16">
         <v>1.2</v>
@@ -4147,7 +4156,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4428,7 +4437,7 @@
         <v>1.9</v>
       </c>
       <c r="AT18">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU18">
         <v>1.34</v>
@@ -5102,7 +5111,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5189,7 +5198,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT22">
         <v>1.4</v>
@@ -5484,7 +5493,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5866,7 +5875,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6147,7 +6156,7 @@
         <v>1.09</v>
       </c>
       <c r="AT27">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU27">
         <v>2.23</v>
@@ -6439,7 +6448,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6630,7 +6639,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6717,7 +6726,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT30">
         <v>2.4</v>
@@ -6821,7 +6830,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7012,7 +7021,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7293,7 +7302,7 @@
         <v>1.9</v>
       </c>
       <c r="AT33">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU33">
         <v>1.41</v>
@@ -7484,7 +7493,7 @@
         <v>2.3</v>
       </c>
       <c r="AT34">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU34">
         <v>1.91</v>
@@ -7585,7 +7594,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7967,7 +7976,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8054,7 +8063,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT37">
         <v>1.55</v>
@@ -8158,7 +8167,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8349,7 +8358,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8731,7 +8740,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8818,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT41">
         <v>1.22</v>
@@ -9113,7 +9122,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9203,7 +9212,7 @@
         <v>1.6</v>
       </c>
       <c r="AT43">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU43">
         <v>1.37</v>
@@ -9304,7 +9313,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9686,7 +9695,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9877,7 +9886,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10259,7 +10268,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10346,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT49">
         <v>1.1</v>
@@ -10832,7 +10841,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11023,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11110,7 +11119,7 @@
         <v>1.75</v>
       </c>
       <c r="AS53">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT53">
         <v>1.4</v>
@@ -11214,7 +11223,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11495,7 +11504,7 @@
         <v>1.27</v>
       </c>
       <c r="AT55">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU55">
         <v>1.55</v>
@@ -11596,7 +11605,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11787,7 +11796,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11978,7 +11987,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12169,7 +12178,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12360,7 +12369,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12450,7 +12459,7 @@
         <v>0.2</v>
       </c>
       <c r="AT60">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12641,7 +12650,7 @@
         <v>2.6</v>
       </c>
       <c r="AT61">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU61">
         <v>1.43</v>
@@ -12742,7 +12751,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12933,7 +12942,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13124,7 +13133,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13402,7 +13411,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT65">
         <v>1.4</v>
@@ -14079,7 +14088,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14360,7 +14369,7 @@
         <v>1.9</v>
       </c>
       <c r="AT70">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU70">
         <v>1.64</v>
@@ -14548,7 +14557,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT71">
         <v>1.22</v>
@@ -14652,7 +14661,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14843,7 +14852,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15034,7 +15043,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15225,7 +15234,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15315,7 +15324,7 @@
         <v>1.55</v>
       </c>
       <c r="AT75">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU75">
         <v>1.94</v>
@@ -15416,7 +15425,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15503,7 +15512,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT76">
         <v>0.8</v>
@@ -15607,7 +15616,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15989,7 +15998,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16180,7 +16189,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16270,7 +16279,7 @@
         <v>1.09</v>
       </c>
       <c r="AT80">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU80">
         <v>1.71</v>
@@ -16371,7 +16380,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16652,7 +16661,7 @@
         <v>1.56</v>
       </c>
       <c r="AT82">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU82">
         <v>1.49</v>
@@ -16840,7 +16849,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT83">
         <v>1.4</v>
@@ -16944,7 +16953,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17135,7 +17144,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17326,7 +17335,7 @@
         <v>135</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17413,7 +17422,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT86">
         <v>0.8</v>
@@ -17517,7 +17526,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17899,7 +17908,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -17989,7 +17998,7 @@
         <v>1.27</v>
       </c>
       <c r="AT89">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18090,7 +18099,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18663,7 +18672,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18854,7 +18863,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -18941,7 +18950,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT94">
         <v>0.73</v>
@@ -19045,7 +19054,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19236,7 +19245,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19618,7 +19627,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19809,7 +19818,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20000,7 +20009,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20281,7 +20290,7 @@
         <v>1.9</v>
       </c>
       <c r="AT101">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU101">
         <v>1.48</v>
@@ -20573,7 +20582,7 @@
         <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -20660,7 +20669,7 @@
         <v>1.13</v>
       </c>
       <c r="AS103">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT103">
         <v>1.27</v>
@@ -20764,7 +20773,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20955,7 +20964,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21146,7 +21155,7 @@
         <v>93</v>
       </c>
       <c r="P106" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21236,7 +21245,7 @@
         <v>1.56</v>
       </c>
       <c r="AT106">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU106">
         <v>1.63</v>
@@ -21337,7 +21346,7 @@
         <v>152</v>
       </c>
       <c r="P107" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21424,7 +21433,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT107">
         <v>1.1</v>
@@ -21528,7 +21537,7 @@
         <v>125</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21910,7 +21919,7 @@
         <v>79</v>
       </c>
       <c r="P110" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22101,7 +22110,7 @@
         <v>153</v>
       </c>
       <c r="P111" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22188,7 +22197,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT111">
         <v>1.27</v>
@@ -22483,7 +22492,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22573,7 +22582,7 @@
         <v>2.6</v>
       </c>
       <c r="AT113">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU113">
         <v>1.7</v>
@@ -22674,7 +22683,7 @@
         <v>79</v>
       </c>
       <c r="P114" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22865,7 +22874,7 @@
         <v>139</v>
       </c>
       <c r="P115" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23247,7 +23256,7 @@
         <v>91</v>
       </c>
       <c r="P117" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23820,7 +23829,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24153,6 +24162,388 @@
       </c>
       <c r="BK121">
         <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5139606</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45114.3125</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>68</v>
+      </c>
+      <c r="H122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>116</v>
+      </c>
+      <c r="P122" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q122">
+        <v>6</v>
+      </c>
+      <c r="R122">
+        <v>3</v>
+      </c>
+      <c r="S122">
+        <v>9</v>
+      </c>
+      <c r="T122">
+        <v>2.75</v>
+      </c>
+      <c r="U122">
+        <v>2.25</v>
+      </c>
+      <c r="V122">
+        <v>3.75</v>
+      </c>
+      <c r="W122">
+        <v>1.36</v>
+      </c>
+      <c r="X122">
+        <v>3</v>
+      </c>
+      <c r="Y122">
+        <v>2.63</v>
+      </c>
+      <c r="Z122">
+        <v>1.44</v>
+      </c>
+      <c r="AA122">
+        <v>7</v>
+      </c>
+      <c r="AB122">
+        <v>1.1</v>
+      </c>
+      <c r="AC122">
+        <v>2.14</v>
+      </c>
+      <c r="AD122">
+        <v>3.6</v>
+      </c>
+      <c r="AE122">
+        <v>3</v>
+      </c>
+      <c r="AF122">
+        <v>1.04</v>
+      </c>
+      <c r="AG122">
+        <v>13</v>
+      </c>
+      <c r="AH122">
+        <v>1.28</v>
+      </c>
+      <c r="AI122">
+        <v>3.5</v>
+      </c>
+      <c r="AJ122">
+        <v>1.82</v>
+      </c>
+      <c r="AK122">
+        <v>1.94</v>
+      </c>
+      <c r="AL122">
+        <v>1.67</v>
+      </c>
+      <c r="AM122">
+        <v>2.1</v>
+      </c>
+      <c r="AN122">
+        <v>1.34</v>
+      </c>
+      <c r="AO122">
+        <v>1.29</v>
+      </c>
+      <c r="AP122">
+        <v>1.68</v>
+      </c>
+      <c r="AQ122">
+        <v>1.33</v>
+      </c>
+      <c r="AR122">
+        <v>1.2</v>
+      </c>
+      <c r="AS122">
+        <v>1.2</v>
+      </c>
+      <c r="AT122">
+        <v>1.36</v>
+      </c>
+      <c r="AU122">
+        <v>1.71</v>
+      </c>
+      <c r="AV122">
+        <v>1.17</v>
+      </c>
+      <c r="AW122">
+        <v>2.88</v>
+      </c>
+      <c r="AX122">
+        <v>1.55</v>
+      </c>
+      <c r="AY122">
+        <v>8</v>
+      </c>
+      <c r="AZ122">
+        <v>2.92</v>
+      </c>
+      <c r="BA122">
+        <v>1.4</v>
+      </c>
+      <c r="BB122">
+        <v>1.73</v>
+      </c>
+      <c r="BC122">
+        <v>2.75</v>
+      </c>
+      <c r="BD122">
+        <v>4</v>
+      </c>
+      <c r="BE122">
+        <v>5.5</v>
+      </c>
+      <c r="BF122">
+        <v>6</v>
+      </c>
+      <c r="BG122">
+        <v>5</v>
+      </c>
+      <c r="BH122">
+        <v>3</v>
+      </c>
+      <c r="BI122">
+        <v>6</v>
+      </c>
+      <c r="BJ122">
+        <v>9</v>
+      </c>
+      <c r="BK122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5139607</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45114.3125</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>75</v>
+      </c>
+      <c r="H123" t="s">
+        <v>76</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>157</v>
+      </c>
+      <c r="P123" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q123">
+        <v>2</v>
+      </c>
+      <c r="R123">
+        <v>6</v>
+      </c>
+      <c r="S123">
+        <v>8</v>
+      </c>
+      <c r="T123">
+        <v>3.6</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
+        <v>3.25</v>
+      </c>
+      <c r="W123">
+        <v>1.5</v>
+      </c>
+      <c r="X123">
+        <v>2.5</v>
+      </c>
+      <c r="Y123">
+        <v>3.4</v>
+      </c>
+      <c r="Z123">
+        <v>1.3</v>
+      </c>
+      <c r="AA123">
+        <v>10</v>
+      </c>
+      <c r="AB123">
+        <v>1.06</v>
+      </c>
+      <c r="AC123">
+        <v>3</v>
+      </c>
+      <c r="AD123">
+        <v>3.3</v>
+      </c>
+      <c r="AE123">
+        <v>2.31</v>
+      </c>
+      <c r="AF123">
+        <v>1.07</v>
+      </c>
+      <c r="AG123">
+        <v>8.75</v>
+      </c>
+      <c r="AH123">
+        <v>1.42</v>
+      </c>
+      <c r="AI123">
+        <v>2.75</v>
+      </c>
+      <c r="AJ123">
+        <v>2.33</v>
+      </c>
+      <c r="AK123">
+        <v>1.57</v>
+      </c>
+      <c r="AL123">
+        <v>1.83</v>
+      </c>
+      <c r="AM123">
+        <v>1.83</v>
+      </c>
+      <c r="AN123">
+        <v>1.52</v>
+      </c>
+      <c r="AO123">
+        <v>1.33</v>
+      </c>
+      <c r="AP123">
+        <v>1.4</v>
+      </c>
+      <c r="AQ123">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR123">
+        <v>1.22</v>
+      </c>
+      <c r="AS123">
+        <v>0.6</v>
+      </c>
+      <c r="AT123">
+        <v>1.2</v>
+      </c>
+      <c r="AU123">
+        <v>1.21</v>
+      </c>
+      <c r="AV123">
+        <v>1.44</v>
+      </c>
+      <c r="AW123">
+        <v>2.65</v>
+      </c>
+      <c r="AX123">
+        <v>1.95</v>
+      </c>
+      <c r="AY123">
+        <v>7.5</v>
+      </c>
+      <c r="AZ123">
+        <v>2.1</v>
+      </c>
+      <c r="BA123">
+        <v>1.56</v>
+      </c>
+      <c r="BB123">
+        <v>1.85</v>
+      </c>
+      <c r="BC123">
+        <v>2.55</v>
+      </c>
+      <c r="BD123">
+        <v>3.6</v>
+      </c>
+      <c r="BE123">
+        <v>5.2</v>
+      </c>
+      <c r="BF123">
+        <v>5</v>
+      </c>
+      <c r="BG123">
+        <v>4</v>
+      </c>
+      <c r="BH123">
+        <v>3</v>
+      </c>
+      <c r="BI123">
+        <v>3</v>
+      </c>
+      <c r="BJ123">
+        <v>8</v>
+      </c>
+      <c r="BK123">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="229">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,15 @@
     <t>['90+8']</t>
   </si>
   <si>
+    <t>['9', '33']</t>
+  </si>
+  <si>
+    <t>['67', '76']</t>
+  </si>
+  <si>
+    <t>['18', '28']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -686,6 +695,12 @@
   </si>
   <si>
     <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['42', '48']</t>
+  </si>
+  <si>
+    <t>['31', '58']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK123"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1306,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1482,7 +1497,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1572,7 +1587,7 @@
         <v>1.9</v>
       </c>
       <c r="AT3">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1673,7 +1688,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1763,7 +1778,7 @@
         <v>0.2</v>
       </c>
       <c r="AT4">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1951,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT5">
         <v>0.5600000000000001</v>
@@ -2055,7 +2070,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2142,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT6">
         <v>1.36</v>
@@ -2333,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT7">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2437,7 +2452,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2628,7 +2643,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2715,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT9">
         <v>1.4</v>
@@ -2819,7 +2834,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2906,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT10">
         <v>1.55</v>
@@ -3097,10 +3112,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT11">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3201,7 +3216,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3291,7 +3306,7 @@
         <v>0.6</v>
       </c>
       <c r="AT12">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3392,7 +3407,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3482,7 +3497,7 @@
         <v>1.55</v>
       </c>
       <c r="AT13">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3670,10 +3685,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT14">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU14">
         <v>0.3</v>
@@ -3861,7 +3876,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
         <v>1.4</v>
@@ -3965,7 +3980,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4156,7 +4171,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4246,7 +4261,7 @@
         <v>1.9</v>
       </c>
       <c r="AT17">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU17">
         <v>1.95</v>
@@ -4434,10 +4449,10 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT18">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU18">
         <v>1.34</v>
@@ -4816,10 +4831,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT20">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU20">
         <v>1.91</v>
@@ -5010,7 +5025,7 @@
         <v>1.55</v>
       </c>
       <c r="AT21">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU21">
         <v>1.25</v>
@@ -5111,7 +5126,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5198,10 +5213,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT22">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU22">
         <v>2.03</v>
@@ -5389,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT23">
         <v>1.1</v>
@@ -5493,7 +5508,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5875,7 +5890,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -5962,7 +5977,7 @@
         <v>2</v>
       </c>
       <c r="AS26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT26">
         <v>1.4</v>
@@ -6448,7 +6463,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6535,10 +6550,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT29">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU29">
         <v>1.53</v>
@@ -6639,7 +6654,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6726,10 +6741,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT30">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU30">
         <v>1.82</v>
@@ -6830,7 +6845,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6920,7 +6935,7 @@
         <v>0.2</v>
       </c>
       <c r="AT31">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -7021,7 +7036,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7111,7 +7126,7 @@
         <v>2.6</v>
       </c>
       <c r="AT32">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU32">
         <v>1.5</v>
@@ -7490,10 +7505,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT34">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU34">
         <v>1.91</v>
@@ -7594,7 +7609,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7681,7 +7696,7 @@
         <v>2</v>
       </c>
       <c r="AS35">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT35">
         <v>1.27</v>
@@ -7872,10 +7887,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT36">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU36">
         <v>1.35</v>
@@ -7976,7 +7991,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8167,7 +8182,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8358,7 +8373,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8445,10 +8460,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT39">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU39">
         <v>1.76</v>
@@ -8636,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT40">
         <v>1.1</v>
@@ -8740,7 +8755,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8830,7 +8845,7 @@
         <v>0.6</v>
       </c>
       <c r="AT41">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU41">
         <v>1.19</v>
@@ -9018,10 +9033,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU42">
         <v>1.51</v>
@@ -9122,7 +9137,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9209,10 +9224,10 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT43">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU43">
         <v>1.37</v>
@@ -9313,7 +9328,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9403,7 +9418,7 @@
         <v>1.9</v>
       </c>
       <c r="AT44">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU44">
         <v>1.59</v>
@@ -9591,7 +9606,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT45">
         <v>1.27</v>
@@ -9695,7 +9710,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9886,7 +9901,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10167,7 +10182,7 @@
         <v>1.55</v>
       </c>
       <c r="AT48">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU48">
         <v>1.9</v>
@@ -10268,7 +10283,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10355,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT49">
         <v>1.1</v>
@@ -10549,7 +10564,7 @@
         <v>1.09</v>
       </c>
       <c r="AT50">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU50">
         <v>1.83</v>
@@ -10737,10 +10752,10 @@
         <v>0.25</v>
       </c>
       <c r="AS51">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT51">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU51">
         <v>1.7</v>
@@ -10841,7 +10856,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11032,7 +11047,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11122,7 +11137,7 @@
         <v>0.6</v>
       </c>
       <c r="AT53">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU53">
         <v>1.13</v>
@@ -11223,7 +11238,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11310,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>1.27</v>
@@ -11501,7 +11516,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT55">
         <v>1.36</v>
@@ -11605,7 +11620,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11692,10 +11707,10 @@
         <v>1.4</v>
       </c>
       <c r="AS56">
+        <v>1.25</v>
+      </c>
+      <c r="AT56">
         <v>1.27</v>
-      </c>
-      <c r="AT56">
-        <v>1.4</v>
       </c>
       <c r="AU56">
         <v>1.5</v>
@@ -11796,7 +11811,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11883,10 +11898,10 @@
         <v>0.75</v>
       </c>
       <c r="AS57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT57">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU57">
         <v>1.37</v>
@@ -11987,7 +12002,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12074,7 +12089,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT58">
         <v>1.55</v>
@@ -12178,7 +12193,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12265,10 +12280,10 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT59">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU59">
         <v>1.64</v>
@@ -12369,7 +12384,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12650,7 +12665,7 @@
         <v>2.6</v>
       </c>
       <c r="AT61">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU61">
         <v>1.43</v>
@@ -12751,7 +12766,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12838,10 +12853,10 @@
         <v>2.4</v>
       </c>
       <c r="AS62">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT62">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU62">
         <v>1.42</v>
@@ -12942,7 +12957,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13133,7 +13148,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13223,7 +13238,7 @@
         <v>1.09</v>
       </c>
       <c r="AT64">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU64">
         <v>1.66</v>
@@ -13411,7 +13426,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT65">
         <v>1.4</v>
@@ -13602,10 +13617,10 @@
         <v>1.2</v>
       </c>
       <c r="AS66">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT66">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU66">
         <v>1.41</v>
@@ -13987,7 +14002,7 @@
         <v>2.6</v>
       </c>
       <c r="AT68">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU68">
         <v>1.49</v>
@@ -14088,7 +14103,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14175,7 +14190,7 @@
         <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT69">
         <v>1.4</v>
@@ -14369,7 +14384,7 @@
         <v>1.9</v>
       </c>
       <c r="AT70">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU70">
         <v>1.64</v>
@@ -14557,10 +14572,10 @@
         <v>1.2</v>
       </c>
       <c r="AS71">
+        <v>1.18</v>
+      </c>
+      <c r="AT71">
         <v>1.2</v>
-      </c>
-      <c r="AT71">
-        <v>1.22</v>
       </c>
       <c r="AU71">
         <v>1.79</v>
@@ -14661,7 +14676,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14852,7 +14867,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -14939,7 +14954,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT73">
         <v>0.5600000000000001</v>
@@ -15043,7 +15058,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15130,7 +15145,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT74">
         <v>1.27</v>
@@ -15234,7 +15249,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15425,7 +15440,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15515,7 +15530,7 @@
         <v>0.6</v>
       </c>
       <c r="AT76">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU76">
         <v>1.17</v>
@@ -15616,7 +15631,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15706,7 +15721,7 @@
         <v>2.6</v>
       </c>
       <c r="AT77">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU77">
         <v>1.49</v>
@@ -15998,7 +16013,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16085,7 +16100,7 @@
         <v>2.17</v>
       </c>
       <c r="AS79">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT79">
         <v>1.55</v>
@@ -16189,7 +16204,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16279,7 +16294,7 @@
         <v>1.09</v>
       </c>
       <c r="AT80">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU80">
         <v>1.71</v>
@@ -16380,7 +16395,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16658,7 +16673,7 @@
         <v>1.29</v>
       </c>
       <c r="AS82">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT82">
         <v>1.36</v>
@@ -16953,7 +16968,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17043,7 +17058,7 @@
         <v>0.2</v>
       </c>
       <c r="AT84">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU84">
         <v>1.45</v>
@@ -17144,7 +17159,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17231,7 +17246,7 @@
         <v>0.4</v>
       </c>
       <c r="AS85">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT85">
         <v>0.5600000000000001</v>
@@ -17335,7 +17350,7 @@
         <v>135</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17422,10 +17437,10 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT86">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU86">
         <v>1.86</v>
@@ -17526,7 +17541,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17613,10 +17628,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT87">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU87">
         <v>1.37</v>
@@ -17807,7 +17822,7 @@
         <v>1.9</v>
       </c>
       <c r="AT88">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU88">
         <v>1.74</v>
@@ -17908,7 +17923,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -17995,10 +18010,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT89">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18099,7 +18114,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18377,7 +18392,7 @@
         <v>1.14</v>
       </c>
       <c r="AS91">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT91">
         <v>1.1</v>
@@ -18568,10 +18583,10 @@
         <v>2.57</v>
       </c>
       <c r="AS92">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT92">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU92">
         <v>1.54</v>
@@ -18672,7 +18687,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18863,7 +18878,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -18950,10 +18965,10 @@
         <v>0.75</v>
       </c>
       <c r="AS94">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT94">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU94">
         <v>1.78</v>
@@ -19054,7 +19069,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19245,7 +19260,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19332,10 +19347,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT96">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU96">
         <v>1.62</v>
@@ -19523,10 +19538,10 @@
         <v>1.43</v>
       </c>
       <c r="AS97">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT97">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU97">
         <v>1.44</v>
@@ -19627,7 +19642,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19714,10 +19729,10 @@
         <v>2.25</v>
       </c>
       <c r="AS98">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT98">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU98">
         <v>1.43</v>
@@ -19818,7 +19833,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19905,7 +19920,7 @@
         <v>2.13</v>
       </c>
       <c r="AS99">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT99">
         <v>1.55</v>
@@ -20009,7 +20024,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20099,7 +20114,7 @@
         <v>1.55</v>
       </c>
       <c r="AT100">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU100">
         <v>1.86</v>
@@ -20287,7 +20302,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT101">
         <v>1.36</v>
@@ -20481,7 +20496,7 @@
         <v>1.09</v>
       </c>
       <c r="AT102">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU102">
         <v>1.74</v>
@@ -20582,7 +20597,7 @@
         <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -20773,7 +20788,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20860,7 +20875,7 @@
         <v>0.71</v>
       </c>
       <c r="AS104">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT104">
         <v>0.5600000000000001</v>
@@ -20964,7 +20979,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21155,7 +21170,7 @@
         <v>93</v>
       </c>
       <c r="P106" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21242,10 +21257,10 @@
         <v>1.25</v>
       </c>
       <c r="AS106">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU106">
         <v>1.63</v>
@@ -21346,7 +21361,7 @@
         <v>152</v>
       </c>
       <c r="P107" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21537,7 +21552,7 @@
         <v>125</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21818,7 +21833,7 @@
         <v>0.2</v>
       </c>
       <c r="AT109">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU109">
         <v>1.41</v>
@@ -21919,7 +21934,7 @@
         <v>79</v>
       </c>
       <c r="P110" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22009,7 +22024,7 @@
         <v>0.2</v>
       </c>
       <c r="AT110">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU110">
         <v>1.33</v>
@@ -22110,7 +22125,7 @@
         <v>153</v>
       </c>
       <c r="P111" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22197,7 +22212,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT111">
         <v>1.27</v>
@@ -22492,7 +22507,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22683,7 +22698,7 @@
         <v>79</v>
       </c>
       <c r="P114" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22874,7 +22889,7 @@
         <v>139</v>
       </c>
       <c r="P115" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -22961,10 +22976,10 @@
         <v>0.78</v>
       </c>
       <c r="AS115">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT115">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU115">
         <v>1.41</v>
@@ -23152,7 +23167,7 @@
         <v>1.7</v>
       </c>
       <c r="AS116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT116">
         <v>1.55</v>
@@ -23256,7 +23271,7 @@
         <v>91</v>
       </c>
       <c r="P117" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23343,10 +23358,10 @@
         <v>0.78</v>
       </c>
       <c r="AS117">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT117">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU117">
         <v>1.4</v>
@@ -23728,7 +23743,7 @@
         <v>1.55</v>
       </c>
       <c r="AT119">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU119">
         <v>1.79</v>
@@ -23829,7 +23844,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -23916,7 +23931,7 @@
         <v>0.63</v>
       </c>
       <c r="AS120">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT120">
         <v>0.5600000000000001</v>
@@ -24110,7 +24125,7 @@
         <v>1.09</v>
       </c>
       <c r="AT121">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU121">
         <v>1.68</v>
@@ -24211,7 +24226,7 @@
         <v>116</v>
       </c>
       <c r="P122" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24298,7 +24313,7 @@
         <v>1.2</v>
       </c>
       <c r="AS122">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT122">
         <v>1.36</v>
@@ -24402,7 +24417,7 @@
         <v>157</v>
       </c>
       <c r="P123" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24492,7 +24507,7 @@
         <v>0.6</v>
       </c>
       <c r="AT123">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU123">
         <v>1.21</v>
@@ -24544,6 +24559,1152 @@
       </c>
       <c r="BK123">
         <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5139608</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45115.25</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>69</v>
+      </c>
+      <c r="H124" t="s">
+        <v>65</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124" t="s">
+        <v>79</v>
+      </c>
+      <c r="P124" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q124">
+        <v>2</v>
+      </c>
+      <c r="R124">
+        <v>1</v>
+      </c>
+      <c r="S124">
+        <v>3</v>
+      </c>
+      <c r="T124">
+        <v>3.4</v>
+      </c>
+      <c r="U124">
+        <v>2.1</v>
+      </c>
+      <c r="V124">
+        <v>3.2</v>
+      </c>
+      <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>2.75</v>
+      </c>
+      <c r="Y124">
+        <v>3</v>
+      </c>
+      <c r="Z124">
+        <v>1.36</v>
+      </c>
+      <c r="AA124">
+        <v>8</v>
+      </c>
+      <c r="AB124">
+        <v>1.08</v>
+      </c>
+      <c r="AC124">
+        <v>2.6</v>
+      </c>
+      <c r="AD124">
+        <v>3.1</v>
+      </c>
+      <c r="AE124">
+        <v>2.45</v>
+      </c>
+      <c r="AF124">
+        <v>1.04</v>
+      </c>
+      <c r="AG124">
+        <v>10.75</v>
+      </c>
+      <c r="AH124">
+        <v>1.3</v>
+      </c>
+      <c r="AI124">
+        <v>3.3</v>
+      </c>
+      <c r="AJ124">
+        <v>1.87</v>
+      </c>
+      <c r="AK124">
+        <v>1.83</v>
+      </c>
+      <c r="AL124">
+        <v>1.73</v>
+      </c>
+      <c r="AM124">
+        <v>2</v>
+      </c>
+      <c r="AN124">
+        <v>1.42</v>
+      </c>
+      <c r="AO124">
+        <v>1.25</v>
+      </c>
+      <c r="AP124">
+        <v>1.4</v>
+      </c>
+      <c r="AQ124">
+        <v>2.3</v>
+      </c>
+      <c r="AR124">
+        <v>2.4</v>
+      </c>
+      <c r="AS124">
+        <v>2.09</v>
+      </c>
+      <c r="AT124">
+        <v>2.45</v>
+      </c>
+      <c r="AU124">
+        <v>1.78</v>
+      </c>
+      <c r="AV124">
+        <v>1.67</v>
+      </c>
+      <c r="AW124">
+        <v>3.45</v>
+      </c>
+      <c r="AX124">
+        <v>2.1</v>
+      </c>
+      <c r="AY124">
+        <v>7.5</v>
+      </c>
+      <c r="AZ124">
+        <v>2</v>
+      </c>
+      <c r="BA124">
+        <v>1.5</v>
+      </c>
+      <c r="BB124">
+        <v>1.88</v>
+      </c>
+      <c r="BC124">
+        <v>2.5</v>
+      </c>
+      <c r="BD124">
+        <v>3.7</v>
+      </c>
+      <c r="BE124">
+        <v>5.5</v>
+      </c>
+      <c r="BF124">
+        <v>5</v>
+      </c>
+      <c r="BG124">
+        <v>3</v>
+      </c>
+      <c r="BH124">
+        <v>9</v>
+      </c>
+      <c r="BI124">
+        <v>0</v>
+      </c>
+      <c r="BJ124">
+        <v>14</v>
+      </c>
+      <c r="BK124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5139609</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45115.29166666666</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>72</v>
+      </c>
+      <c r="H125" t="s">
+        <v>71</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125" t="s">
+        <v>158</v>
+      </c>
+      <c r="P125" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q125">
+        <v>2</v>
+      </c>
+      <c r="R125">
+        <v>3</v>
+      </c>
+      <c r="S125">
+        <v>5</v>
+      </c>
+      <c r="T125">
+        <v>3.6</v>
+      </c>
+      <c r="U125">
+        <v>2.2</v>
+      </c>
+      <c r="V125">
+        <v>2.88</v>
+      </c>
+      <c r="W125">
+        <v>1.36</v>
+      </c>
+      <c r="X125">
+        <v>3</v>
+      </c>
+      <c r="Y125">
+        <v>2.75</v>
+      </c>
+      <c r="Z125">
+        <v>1.4</v>
+      </c>
+      <c r="AA125">
+        <v>8</v>
+      </c>
+      <c r="AB125">
+        <v>1.08</v>
+      </c>
+      <c r="AC125">
+        <v>2.9</v>
+      </c>
+      <c r="AD125">
+        <v>3.2</v>
+      </c>
+      <c r="AE125">
+        <v>2.2</v>
+      </c>
+      <c r="AF125">
+        <v>1.04</v>
+      </c>
+      <c r="AG125">
+        <v>11</v>
+      </c>
+      <c r="AH125">
+        <v>1.26</v>
+      </c>
+      <c r="AI125">
+        <v>3.45</v>
+      </c>
+      <c r="AJ125">
+        <v>1.8</v>
+      </c>
+      <c r="AK125">
+        <v>1.91</v>
+      </c>
+      <c r="AL125">
+        <v>1.67</v>
+      </c>
+      <c r="AM125">
+        <v>2.1</v>
+      </c>
+      <c r="AN125">
+        <v>1.62</v>
+      </c>
+      <c r="AO125">
+        <v>1.25</v>
+      </c>
+      <c r="AP125">
+        <v>1.33</v>
+      </c>
+      <c r="AQ125">
+        <v>1.27</v>
+      </c>
+      <c r="AR125">
+        <v>1.22</v>
+      </c>
+      <c r="AS125">
+        <v>1.25</v>
+      </c>
+      <c r="AT125">
+        <v>1.2</v>
+      </c>
+      <c r="AU125">
+        <v>1.42</v>
+      </c>
+      <c r="AV125">
+        <v>1.36</v>
+      </c>
+      <c r="AW125">
+        <v>2.78</v>
+      </c>
+      <c r="AX125">
+        <v>2.44</v>
+      </c>
+      <c r="AY125">
+        <v>8</v>
+      </c>
+      <c r="AZ125">
+        <v>1.75</v>
+      </c>
+      <c r="BA125">
+        <v>1.32</v>
+      </c>
+      <c r="BB125">
+        <v>1.61</v>
+      </c>
+      <c r="BC125">
+        <v>2.15</v>
+      </c>
+      <c r="BD125">
+        <v>2.9</v>
+      </c>
+      <c r="BE125">
+        <v>4.33</v>
+      </c>
+      <c r="BF125">
+        <v>9</v>
+      </c>
+      <c r="BG125">
+        <v>3</v>
+      </c>
+      <c r="BH125">
+        <v>4</v>
+      </c>
+      <c r="BI125">
+        <v>2</v>
+      </c>
+      <c r="BJ125">
+        <v>13</v>
+      </c>
+      <c r="BK125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5139610</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45115.3125</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" t="s">
+        <v>66</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>159</v>
+      </c>
+      <c r="P126" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q126">
+        <v>2</v>
+      </c>
+      <c r="R126">
+        <v>3</v>
+      </c>
+      <c r="S126">
+        <v>5</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
+        <v>2.2</v>
+      </c>
+      <c r="V126">
+        <v>4</v>
+      </c>
+      <c r="W126">
+        <v>1.4</v>
+      </c>
+      <c r="X126">
+        <v>2.75</v>
+      </c>
+      <c r="Y126">
+        <v>3</v>
+      </c>
+      <c r="Z126">
+        <v>1.36</v>
+      </c>
+      <c r="AA126">
+        <v>8</v>
+      </c>
+      <c r="AB126">
+        <v>1.08</v>
+      </c>
+      <c r="AC126">
+        <v>1.95</v>
+      </c>
+      <c r="AD126">
+        <v>3.2</v>
+      </c>
+      <c r="AE126">
+        <v>3.4</v>
+      </c>
+      <c r="AF126">
+        <v>1.05</v>
+      </c>
+      <c r="AG126">
+        <v>10</v>
+      </c>
+      <c r="AH126">
+        <v>1.31</v>
+      </c>
+      <c r="AI126">
+        <v>3.1</v>
+      </c>
+      <c r="AJ126">
+        <v>1.91</v>
+      </c>
+      <c r="AK126">
+        <v>1.8</v>
+      </c>
+      <c r="AL126">
+        <v>1.8</v>
+      </c>
+      <c r="AM126">
+        <v>1.91</v>
+      </c>
+      <c r="AN126">
+        <v>1.22</v>
+      </c>
+      <c r="AO126">
+        <v>1.25</v>
+      </c>
+      <c r="AP126">
+        <v>1.78</v>
+      </c>
+      <c r="AQ126">
+        <v>1.9</v>
+      </c>
+      <c r="AR126">
+        <v>1.4</v>
+      </c>
+      <c r="AS126">
+        <v>2</v>
+      </c>
+      <c r="AT126">
+        <v>1.27</v>
+      </c>
+      <c r="AU126">
+        <v>1.47</v>
+      </c>
+      <c r="AV126">
+        <v>1.32</v>
+      </c>
+      <c r="AW126">
+        <v>2.79</v>
+      </c>
+      <c r="AX126">
+        <v>1.95</v>
+      </c>
+      <c r="AY126">
+        <v>7.5</v>
+      </c>
+      <c r="AZ126">
+        <v>2.1</v>
+      </c>
+      <c r="BA126">
+        <v>1.39</v>
+      </c>
+      <c r="BB126">
+        <v>1.72</v>
+      </c>
+      <c r="BC126">
+        <v>2.3</v>
+      </c>
+      <c r="BD126">
+        <v>3.2</v>
+      </c>
+      <c r="BE126">
+        <v>5</v>
+      </c>
+      <c r="BF126">
+        <v>7</v>
+      </c>
+      <c r="BG126">
+        <v>5</v>
+      </c>
+      <c r="BH126">
+        <v>3</v>
+      </c>
+      <c r="BI126">
+        <v>7</v>
+      </c>
+      <c r="BJ126">
+        <v>10</v>
+      </c>
+      <c r="BK126">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5139611</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45116.29166666666</v>
+      </c>
+      <c r="F127">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>70</v>
+      </c>
+      <c r="H127" t="s">
+        <v>67</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127" t="s">
+        <v>160</v>
+      </c>
+      <c r="P127" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q127">
+        <v>2</v>
+      </c>
+      <c r="R127">
+        <v>4</v>
+      </c>
+      <c r="S127">
+        <v>6</v>
+      </c>
+      <c r="T127">
+        <v>2.75</v>
+      </c>
+      <c r="U127">
+        <v>2.2</v>
+      </c>
+      <c r="V127">
+        <v>3.75</v>
+      </c>
+      <c r="W127">
+        <v>1.36</v>
+      </c>
+      <c r="X127">
+        <v>3</v>
+      </c>
+      <c r="Y127">
+        <v>2.75</v>
+      </c>
+      <c r="Z127">
+        <v>1.4</v>
+      </c>
+      <c r="AA127">
+        <v>7</v>
+      </c>
+      <c r="AB127">
+        <v>1.1</v>
+      </c>
+      <c r="AC127">
+        <v>2.04</v>
+      </c>
+      <c r="AD127">
+        <v>3.22</v>
+      </c>
+      <c r="AE127">
+        <v>3.47</v>
+      </c>
+      <c r="AF127">
+        <v>1.03</v>
+      </c>
+      <c r="AG127">
+        <v>13</v>
+      </c>
+      <c r="AH127">
+        <v>1.28</v>
+      </c>
+      <c r="AI127">
+        <v>3.5</v>
+      </c>
+      <c r="AJ127">
+        <v>1.95</v>
+      </c>
+      <c r="AK127">
+        <v>1.78</v>
+      </c>
+      <c r="AL127">
+        <v>1.67</v>
+      </c>
+      <c r="AM127">
+        <v>2.1</v>
+      </c>
+      <c r="AN127">
+        <v>1.25</v>
+      </c>
+      <c r="AO127">
+        <v>1.22</v>
+      </c>
+      <c r="AP127">
+        <v>1.72</v>
+      </c>
+      <c r="AQ127">
+        <v>1.56</v>
+      </c>
+      <c r="AR127">
+        <v>0.8</v>
+      </c>
+      <c r="AS127">
+        <v>1.5</v>
+      </c>
+      <c r="AT127">
+        <v>0.82</v>
+      </c>
+      <c r="AU127">
+        <v>1.62</v>
+      </c>
+      <c r="AV127">
+        <v>1.28</v>
+      </c>
+      <c r="AW127">
+        <v>2.9</v>
+      </c>
+      <c r="AX127">
+        <v>1.64</v>
+      </c>
+      <c r="AY127">
+        <v>8</v>
+      </c>
+      <c r="AZ127">
+        <v>2.77</v>
+      </c>
+      <c r="BA127">
+        <v>1.47</v>
+      </c>
+      <c r="BB127">
+        <v>1.81</v>
+      </c>
+      <c r="BC127">
+        <v>2.24</v>
+      </c>
+      <c r="BD127">
+        <v>3.08</v>
+      </c>
+      <c r="BE127">
+        <v>4.45</v>
+      </c>
+      <c r="BF127">
+        <v>6</v>
+      </c>
+      <c r="BG127">
+        <v>9</v>
+      </c>
+      <c r="BH127">
+        <v>7</v>
+      </c>
+      <c r="BI127">
+        <v>3</v>
+      </c>
+      <c r="BJ127">
+        <v>13</v>
+      </c>
+      <c r="BK127">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5139612</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45118.29166666666</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>73</v>
+      </c>
+      <c r="H128" t="s">
+        <v>75</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128" t="s">
+        <v>79</v>
+      </c>
+      <c r="P128" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q128">
+        <v>7</v>
+      </c>
+      <c r="R128">
+        <v>4</v>
+      </c>
+      <c r="S128">
+        <v>11</v>
+      </c>
+      <c r="T128">
+        <v>2.7</v>
+      </c>
+      <c r="U128">
+        <v>2</v>
+      </c>
+      <c r="V128">
+        <v>4.1</v>
+      </c>
+      <c r="W128">
+        <v>1.45</v>
+      </c>
+      <c r="X128">
+        <v>2.55</v>
+      </c>
+      <c r="Y128">
+        <v>3.05</v>
+      </c>
+      <c r="Z128">
+        <v>1.32</v>
+      </c>
+      <c r="AA128">
+        <v>9</v>
+      </c>
+      <c r="AB128">
+        <v>1.06</v>
+      </c>
+      <c r="AC128">
+        <v>2.1</v>
+      </c>
+      <c r="AD128">
+        <v>3.1</v>
+      </c>
+      <c r="AE128">
+        <v>3.5</v>
+      </c>
+      <c r="AF128">
+        <v>1.07</v>
+      </c>
+      <c r="AG128">
+        <v>8.5</v>
+      </c>
+      <c r="AH128">
+        <v>1.35</v>
+      </c>
+      <c r="AI128">
+        <v>2.9</v>
+      </c>
+      <c r="AJ128">
+        <v>2.2</v>
+      </c>
+      <c r="AK128">
+        <v>1.6</v>
+      </c>
+      <c r="AL128">
+        <v>1.88</v>
+      </c>
+      <c r="AM128">
+        <v>1.85</v>
+      </c>
+      <c r="AN128">
+        <v>1.27</v>
+      </c>
+      <c r="AO128">
+        <v>1.32</v>
+      </c>
+      <c r="AP128">
+        <v>1.65</v>
+      </c>
+      <c r="AQ128">
+        <v>1.6</v>
+      </c>
+      <c r="AR128">
+        <v>0.73</v>
+      </c>
+      <c r="AS128">
+        <v>1.55</v>
+      </c>
+      <c r="AT128">
+        <v>0.75</v>
+      </c>
+      <c r="AU128">
+        <v>1.42</v>
+      </c>
+      <c r="AV128">
+        <v>1.18</v>
+      </c>
+      <c r="AW128">
+        <v>2.6</v>
+      </c>
+      <c r="AX128">
+        <v>1.99</v>
+      </c>
+      <c r="AY128">
+        <v>8.1</v>
+      </c>
+      <c r="AZ128">
+        <v>2.14</v>
+      </c>
+      <c r="BA128">
+        <v>1.54</v>
+      </c>
+      <c r="BB128">
+        <v>1.92</v>
+      </c>
+      <c r="BC128">
+        <v>2.4</v>
+      </c>
+      <c r="BD128">
+        <v>3.34</v>
+      </c>
+      <c r="BE128">
+        <v>4.9</v>
+      </c>
+      <c r="BF128">
+        <v>6</v>
+      </c>
+      <c r="BG128">
+        <v>5</v>
+      </c>
+      <c r="BH128">
+        <v>6</v>
+      </c>
+      <c r="BI128">
+        <v>5</v>
+      </c>
+      <c r="BJ128">
+        <v>12</v>
+      </c>
+      <c r="BK128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>5139613</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45118.3125</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>68</v>
+      </c>
+      <c r="H129" t="s">
+        <v>76</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129" t="s">
+        <v>79</v>
+      </c>
+      <c r="P129" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>3</v>
+      </c>
+      <c r="S129">
+        <v>3</v>
+      </c>
+      <c r="T129">
+        <v>2.9</v>
+      </c>
+      <c r="U129">
+        <v>2.1</v>
+      </c>
+      <c r="V129">
+        <v>3.5</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>2.75</v>
+      </c>
+      <c r="Y129">
+        <v>2.8</v>
+      </c>
+      <c r="Z129">
+        <v>1.38</v>
+      </c>
+      <c r="AA129">
+        <v>7.75</v>
+      </c>
+      <c r="AB129">
+        <v>1.08</v>
+      </c>
+      <c r="AC129">
+        <v>2.3</v>
+      </c>
+      <c r="AD129">
+        <v>3.1</v>
+      </c>
+      <c r="AE129">
+        <v>3</v>
+      </c>
+      <c r="AF129">
+        <v>1.05</v>
+      </c>
+      <c r="AG129">
+        <v>10.5</v>
+      </c>
+      <c r="AH129">
+        <v>1.28</v>
+      </c>
+      <c r="AI129">
+        <v>3.3</v>
+      </c>
+      <c r="AJ129">
+        <v>2.15</v>
+      </c>
+      <c r="AK129">
+        <v>1.61</v>
+      </c>
+      <c r="AL129">
+        <v>1.72</v>
+      </c>
+      <c r="AM129">
+        <v>2</v>
+      </c>
+      <c r="AN129">
+        <v>1.38</v>
+      </c>
+      <c r="AO129">
+        <v>1.3</v>
+      </c>
+      <c r="AP129">
+        <v>1.55</v>
+      </c>
+      <c r="AQ129">
+        <v>1.2</v>
+      </c>
+      <c r="AR129">
+        <v>1.2</v>
+      </c>
+      <c r="AS129">
+        <v>1.18</v>
+      </c>
+      <c r="AT129">
+        <v>1.18</v>
+      </c>
+      <c r="AU129">
+        <v>1.68</v>
+      </c>
+      <c r="AV129">
+        <v>1.41</v>
+      </c>
+      <c r="AW129">
+        <v>3.09</v>
+      </c>
+      <c r="AX129">
+        <v>1.76</v>
+      </c>
+      <c r="AY129">
+        <v>8.1</v>
+      </c>
+      <c r="AZ129">
+        <v>2.49</v>
+      </c>
+      <c r="BA129">
+        <v>1.64</v>
+      </c>
+      <c r="BB129">
+        <v>2.08</v>
+      </c>
+      <c r="BC129">
+        <v>2.72</v>
+      </c>
+      <c r="BD129">
+        <v>3.84</v>
+      </c>
+      <c r="BE129">
+        <v>5.65</v>
+      </c>
+      <c r="BF129">
+        <v>2</v>
+      </c>
+      <c r="BG129">
+        <v>3</v>
+      </c>
+      <c r="BH129">
+        <v>3</v>
+      </c>
+      <c r="BI129">
+        <v>2</v>
+      </c>
+      <c r="BJ129">
+        <v>5</v>
+      </c>
+      <c r="BK129">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
